--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂-JH_00001.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂-JH_00001.xlsx
@@ -484,6 +484,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -497,12 +503,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -839,7 +839,7 @@
     <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="37" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -1045,61 +1045,61 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1433,11 +1433,11 @@
   <dimension ref="A1:AJ495"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="L6" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O15" sqref="O15"/>
+      <selection pane="bottomRight" activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -2040,7 +2040,9 @@
         <v>0.4</v>
       </c>
       <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
+      <c r="P10" s="21">
+        <v>0.6</v>
+      </c>
       <c r="Q10" s="10"/>
       <c r="R10" s="10"/>
       <c r="S10" s="10"/>
@@ -2333,14 +2335,14 @@
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
-      <c r="N15" s="22">
-        <v>0.8</v>
-      </c>
+      <c r="N15" s="22"/>
       <c r="O15" s="21">
         <v>0.6</v>
       </c>
       <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
+      <c r="Q15" s="21">
+        <v>0.5</v>
+      </c>
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
       <c r="T15" s="10"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂-JH_00001.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂-JH_00001.xlsx
@@ -3316,11 +3316,11 @@
   <dimension ref="A1:AN495"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="Y19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="AE19" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA29" sqref="AA29"/>
+      <selection pane="bottomRight" activeCell="AN28" sqref="AN28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂-JH_00001.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂-JH_00001.xlsx
@@ -264,12 +264,12 @@
   <numFmts count="8">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_);\(0.00\)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -325,7 +325,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,8 +391,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,9 +438,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,97 +462,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -531,7 +531,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,13 +555,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,43 +609,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,25 +639,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -645,61 +693,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,23 +757,41 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -805,16 +823,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -833,171 +851,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3020,9 +3020,63 @@
           <cell r="A25" t="str">
             <v>JG_0000021</v>
           </cell>
+          <cell r="B25" t="str">
+            <v>JH_00031</v>
+          </cell>
+          <cell r="C25">
+            <v>600587</v>
+          </cell>
+          <cell r="D25" t="str">
+            <v>新华医疗</v>
+          </cell>
+          <cell r="E25">
+            <v>44557</v>
+          </cell>
+          <cell r="F25">
+            <v>29.57</v>
+          </cell>
+          <cell r="G25">
+            <v>600</v>
+          </cell>
+          <cell r="H25">
+            <v>5</v>
+          </cell>
+          <cell r="I25">
+            <v>0.35484</v>
+          </cell>
+          <cell r="J25">
+            <v>17747.35484</v>
+          </cell>
+          <cell r="K25">
+            <v>31.37</v>
+          </cell>
+          <cell r="L25">
+            <v>29.1</v>
+          </cell>
+          <cell r="M25">
+            <v>31.85</v>
+          </cell>
+          <cell r="N25">
+            <v>23.34</v>
+          </cell>
+          <cell r="O25">
+            <v>8.51</v>
+          </cell>
+          <cell r="P25">
+            <v>25.83</v>
+          </cell>
+          <cell r="Q25">
+            <v>0.792951541850221</v>
+          </cell>
+          <cell r="R25">
+            <v>27.05</v>
+          </cell>
+          <cell r="S25">
+            <v>1522.35484</v>
+          </cell>
         </row>
-        <row r="26">
-          <cell r="A26" t="str">
+        <row r="27">
+          <cell r="A27" t="str">
             <v>JG_0000022</v>
           </cell>
         </row>
@@ -3295,11 +3349,11 @@
   <dimension ref="A1:AN493"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="L6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="AE6" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R5" sqref="R5:T5"/>
+      <selection pane="bottomRight" activeCell="AK6" sqref="AK6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂-JH_00001.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂-JH_00001.xlsx
@@ -263,12 +263,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -339,7 +339,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -368,6 +368,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -376,15 +384,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -400,33 +401,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -445,24 +423,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -537,7 +537,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,13 +573,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,103 +681,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,30 +700,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -767,30 +767,32 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -813,26 +815,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -851,93 +836,108 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -949,31 +949,31 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -982,16 +982,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2983,10 +2983,10 @@
             <v>5</v>
           </cell>
           <cell r="I24">
-            <v>0.37032</v>
+            <v>0</v>
           </cell>
           <cell r="J24">
-            <v>18521.37032</v>
+            <v>18521</v>
           </cell>
           <cell r="K24">
             <v>65.65</v>
@@ -3013,7 +3013,7 @@
             <v>59.3</v>
           </cell>
           <cell r="S24">
-            <v>736.37032</v>
+            <v>736</v>
           </cell>
         </row>
         <row r="25">
@@ -3349,11 +3349,11 @@
   <dimension ref="A1:AN493"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="AE6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="AC22" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AK6" sqref="AK6"/>
+      <selection pane="bottomRight" activeCell="AN31" sqref="AN31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -6529,47 +6529,126 @@
       </c>
       <c r="AN30" s="12"/>
     </row>
-    <row r="31" spans="1:40">
+    <row r="31" ht="18" spans="1:40">
       <c r="A31" s="10">
         <v>44558</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
+      <c r="B31" s="11">
+        <v>42.26</v>
+      </c>
+      <c r="C31" s="11">
+        <v>43.51</v>
+      </c>
+      <c r="D31" s="11">
+        <v>43.97</v>
+      </c>
+      <c r="E31" s="11">
+        <v>41.6</v>
+      </c>
+      <c r="F31" s="11">
+        <v>33.76</v>
+      </c>
+      <c r="G31" s="11">
+        <v>39.66</v>
+      </c>
+      <c r="H31" s="11">
+        <v>37.06</v>
+      </c>
+      <c r="I31" s="12">
+        <v>48.26</v>
+      </c>
+      <c r="J31" s="18">
+        <f>IF(B31&gt;(D31-(D31-E31)/2),1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="K31" s="19">
+        <f>(B31-B30)/B30</f>
+        <v>-0.0287290278096989</v>
+      </c>
       <c r="L31" s="12"/>
       <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="24"/>
-      <c r="S31" s="24"/>
-      <c r="T31" s="33"/>
-      <c r="U31" s="12"/>
-      <c r="V31" s="12"/>
-      <c r="W31" s="12"/>
-      <c r="X31" s="12"/>
-      <c r="Y31" s="12"/>
-      <c r="Z31" s="22"/>
-      <c r="AA31" s="47"/>
-      <c r="AB31" s="47"/>
-      <c r="AC31" s="47"/>
+      <c r="N31" s="24">
+        <f>COUNTIF(K27:K31,"&gt;0")/5</f>
+        <v>0.6</v>
+      </c>
+      <c r="O31" s="23">
+        <f>COUNTIF(K22:K31,"&gt;0")/10</f>
+        <v>0.7</v>
+      </c>
+      <c r="P31" s="24">
+        <f>COUNTIF(J27:J31,"&gt;0")/5</f>
+        <v>0.4</v>
+      </c>
+      <c r="Q31" s="23">
+        <f>COUNTIF(J22:J31,"&gt;0")/10</f>
+        <v>0.6</v>
+      </c>
+      <c r="R31" s="23">
+        <f>COUNTIF(K17:K31,"&gt;0")/15</f>
+        <v>0.666666666666667</v>
+      </c>
+      <c r="S31" s="23">
+        <f>(F31-F17)/F17</f>
+        <v>0.608384945212006</v>
+      </c>
+      <c r="T31" s="22">
+        <f>(B31-B17)/B17</f>
+        <v>0.101381287464165</v>
+      </c>
+      <c r="U31" s="39" t="str">
+        <f>IF(B31&lt;G31,"是","否")</f>
+        <v>否</v>
+      </c>
+      <c r="V31" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="W31" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="X31" s="12">
+        <v>2</v>
+      </c>
+      <c r="Y31" s="46">
+        <f>$I31/$I$6</f>
+        <v>1.31141304347826</v>
+      </c>
+      <c r="Z31" s="22">
+        <f>(B31-B27)/B27</f>
+        <v>-0.0126168224299065</v>
+      </c>
+      <c r="AA31" s="22">
+        <f>(B31-B17)/B17</f>
+        <v>0.101381287464165</v>
+      </c>
+      <c r="AB31" s="42">
+        <f>COUNTIF(K16:K31,"&gt;0")/15</f>
+        <v>0.733333333333333</v>
+      </c>
+      <c r="AC31" s="33">
+        <f>D31-E31</f>
+        <v>2.37</v>
+      </c>
       <c r="AD31" s="12"/>
       <c r="AE31" s="47"/>
       <c r="AF31" s="47"/>
-      <c r="AG31" s="59"/>
+      <c r="AG31" s="56">
+        <f>IF(AND(H31-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10028,6,FALSE)&gt;0,H31&gt;H30),H31,AG30)</f>
+        <v>37.06</v>
+      </c>
       <c r="AH31" s="57"/>
+      <c r="AI31" s="4">
+        <f>(AG31-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10030,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10030,7,FALSE)</f>
+        <v>333.000000000001</v>
+      </c>
       <c r="AJ31" s="47"/>
-      <c r="AK31" s="22"/>
+      <c r="AK31" s="23">
+        <f>($B31-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10029,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10029,6,FALSE)</f>
+        <v>0.252890601838126</v>
+      </c>
       <c r="AL31" s="22"/>
-      <c r="AM31" s="12"/>
+      <c r="AM31" s="62" t="s">
+        <v>53</v>
+      </c>
       <c r="AN31" s="12"/>
     </row>
     <row r="32" spans="1:40">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂-JH_00001.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂-JH_00001.xlsx
@@ -495,13 +495,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1001,7 +1001,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1041,7 +1041,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1050,28 +1056,28 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1107,13 +1113,13 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1149,10 +1155,10 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1161,7 +1167,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1182,13 +1188,13 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -3349,11 +3355,11 @@
   <dimension ref="A1:AN493"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="AC22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AN31" sqref="AN31"/>
+      <selection pane="bottomRight" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3415,49 +3421,49 @@
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="25" t="s">
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="26"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="34" t="s">
+      <c r="S1" s="28"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="50" t="s">
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="36"/>
+      <c r="AG1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="AH1" s="50"/>
-      <c r="AI1" s="51" t="s">
+      <c r="AH1" s="52"/>
+      <c r="AI1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="30" t="s">
+      <c r="AJ1" s="54"/>
+      <c r="AK1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="AL1" s="30"/>
-      <c r="AM1" s="60" t="s">
+      <c r="AL1" s="32"/>
+      <c r="AM1" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="AN1" s="60"/>
+      <c r="AN1" s="62"/>
     </row>
     <row r="2" ht="29" customHeight="1" spans="1:40">
       <c r="A2" s="5"/>
@@ -3471,35 +3477,35 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="50"/>
-      <c r="AH2" s="50"/>
-      <c r="AI2" s="51"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="30"/>
-      <c r="AL2" s="30"/>
-      <c r="AM2" s="60"/>
-      <c r="AN2" s="60"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="43"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="54"/>
+      <c r="AK2" s="32"/>
+      <c r="AL2" s="32"/>
+      <c r="AM2" s="62"/>
+      <c r="AN2" s="62"/>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:40">
       <c r="A3" s="5"/>
@@ -3524,60 +3530,60 @@
       <c r="H3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="16" t="s">
         <v>16</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="M3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="16" t="s">
+      <c r="N3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16" t="s">
+      <c r="O3" s="18"/>
+      <c r="P3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="27" t="s">
+      <c r="Q3" s="18"/>
+      <c r="R3" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="S3" s="28"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="35" t="s">
+      <c r="S3" s="30"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35"/>
-      <c r="X3" s="36" t="s">
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="36"/>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="36"/>
-      <c r="AE3" s="18" t="s">
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="38"/>
+      <c r="AE3" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="AF3" s="18"/>
-      <c r="AG3" s="50"/>
-      <c r="AH3" s="50"/>
-      <c r="AI3" s="51"/>
-      <c r="AJ3" s="52"/>
-      <c r="AK3" s="30"/>
-      <c r="AL3" s="30"/>
-      <c r="AM3" s="60"/>
-      <c r="AN3" s="60"/>
+      <c r="AF3" s="20"/>
+      <c r="AG3" s="52"/>
+      <c r="AH3" s="52"/>
+      <c r="AI3" s="53"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="32"/>
+      <c r="AL3" s="32"/>
+      <c r="AM3" s="62"/>
+      <c r="AN3" s="62"/>
     </row>
     <row r="4" ht="56" customHeight="1" spans="1:40">
       <c r="A4" s="5"/>
@@ -3588,60 +3594,60 @@
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="14"/>
+      <c r="I4" s="16"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="37" t="s">
+      <c r="K4" s="17"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="V4" s="37" t="s">
+      <c r="V4" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="W4" s="37" t="s">
+      <c r="W4" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="X4" s="38" t="s">
+      <c r="X4" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="Y4" s="38" t="s">
+      <c r="Y4" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="Z4" s="42" t="s">
+      <c r="Z4" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="44" t="s">
+      <c r="AA4" s="45"/>
+      <c r="AB4" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="AC4" s="48" t="s">
+      <c r="AC4" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="AD4" s="48" t="s">
+      <c r="AD4" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="AE4" s="18" t="s">
+      <c r="AE4" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="AF4" s="49" t="s">
+      <c r="AF4" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="AG4" s="50"/>
-      <c r="AH4" s="50"/>
-      <c r="AI4" s="51"/>
-      <c r="AJ4" s="52"/>
-      <c r="AK4" s="30"/>
-      <c r="AL4" s="30"/>
-      <c r="AM4" s="60"/>
-      <c r="AN4" s="60"/>
+      <c r="AG4" s="52"/>
+      <c r="AH4" s="52"/>
+      <c r="AI4" s="53"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="32"/>
+      <c r="AL4" s="32"/>
+      <c r="AM4" s="62"/>
+      <c r="AN4" s="62"/>
     </row>
     <row r="5" ht="71" spans="1:40">
       <c r="A5" s="5"/>
@@ -3652,70 +3658,70 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
-      <c r="I5" s="14"/>
+      <c r="I5" s="16"/>
       <c r="J5" s="7"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="21" t="s">
+      <c r="K5" s="17"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="O5" s="21" t="s">
+      <c r="O5" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="P5" s="21" t="s">
+      <c r="P5" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="Q5" s="21" t="s">
+      <c r="Q5" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="R5" s="29" t="s">
+      <c r="R5" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="S5" s="30" t="s">
+      <c r="S5" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="T5" s="29" t="s">
+      <c r="T5" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="U5" s="37"/>
-      <c r="V5" s="37"/>
-      <c r="W5" s="37"/>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="38"/>
-      <c r="Z5" s="45" t="s">
+      <c r="U5" s="39"/>
+      <c r="V5" s="39"/>
+      <c r="W5" s="39"/>
+      <c r="X5" s="40"/>
+      <c r="Y5" s="40"/>
+      <c r="Z5" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="AA5" s="44" t="s">
+      <c r="AA5" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="AB5" s="43"/>
-      <c r="AC5" s="36"/>
-      <c r="AD5" s="36"/>
-      <c r="AE5" s="18"/>
-      <c r="AF5" s="49"/>
-      <c r="AG5" s="53" t="s">
+      <c r="AB5" s="45"/>
+      <c r="AC5" s="38"/>
+      <c r="AD5" s="38"/>
+      <c r="AE5" s="20"/>
+      <c r="AF5" s="51"/>
+      <c r="AG5" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="AH5" s="18" t="s">
+      <c r="AH5" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="AI5" s="54" t="s">
+      <c r="AI5" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="AJ5" s="52" t="s">
+      <c r="AJ5" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="AK5" s="30" t="s">
+      <c r="AK5" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="AL5" s="61" t="s">
+      <c r="AL5" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="AM5" s="29" t="s">
+      <c r="AM5" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="AN5" s="52" t="s">
+      <c r="AN5" s="54" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3751,7 +3757,7 @@
         <f>IF(B6&gt;(D6-(D6-E6)/2),1,-1)</f>
         <v>1</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="K6" s="19" t="s">
         <v>51</v>
       </c>
       <c r="L6" s="12"/>
@@ -3760,37 +3766,37 @@
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="32"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="39" t="str">
+      <c r="R6" s="33"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="41" t="str">
         <f>IF(B6&lt;G6,"是","否")</f>
         <v>否</v>
       </c>
-      <c r="V6" s="40" t="s">
+      <c r="V6" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="W6" s="40" t="s">
+      <c r="W6" s="42" t="s">
         <v>52</v>
       </c>
       <c r="X6" s="12">
         <v>2</v>
       </c>
-      <c r="Y6" s="46">
+      <c r="Y6" s="48">
         <f>$I6/$I$6</f>
         <v>1</v>
       </c>
-      <c r="Z6" s="22"/>
-      <c r="AA6" s="47"/>
-      <c r="AB6" s="47"/>
+      <c r="Z6" s="24"/>
+      <c r="AA6" s="49"/>
+      <c r="AB6" s="49"/>
       <c r="AC6" s="12">
         <f>D6-E6</f>
         <v>2.26</v>
       </c>
       <c r="AD6" s="12"/>
-      <c r="AE6" s="47"/>
-      <c r="AF6" s="47"/>
-      <c r="AG6" s="55">
+      <c r="AE6" s="49"/>
+      <c r="AF6" s="49"/>
+      <c r="AG6" s="57">
         <v>32.53</v>
       </c>
       <c r="AH6" s="12"/>
@@ -3798,13 +3804,13 @@
         <f>(AG6-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10005,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10005,7,FALSE)</f>
         <v>-120</v>
       </c>
-      <c r="AJ6" s="47"/>
-      <c r="AK6" s="22">
+      <c r="AJ6" s="49"/>
+      <c r="AK6" s="24">
         <f>($B6-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10004,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10004,6,FALSE)</f>
         <v>0.0447672694930331</v>
       </c>
-      <c r="AL6" s="22"/>
-      <c r="AM6" s="62" t="s">
+      <c r="AL6" s="24"/>
+      <c r="AM6" s="64" t="s">
         <v>53</v>
       </c>
       <c r="AN6" s="12"/>
@@ -3837,11 +3843,11 @@
       <c r="I7" s="9">
         <v>39.09</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="20">
         <f t="shared" ref="J7:J30" si="0">IF(B7&gt;(D7-(D7-E7)/2),1,-1)</f>
         <v>-1</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K7" s="21">
         <f>(B7-B6)/B6</f>
         <v>-0.0227014755959139</v>
       </c>
@@ -3852,51 +3858,51 @@
       <c r="P7" s="12"/>
       <c r="Q7" s="12"/>
       <c r="R7" s="12"/>
-      <c r="S7" s="22"/>
+      <c r="S7" s="24"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="39" t="str">
+      <c r="U7" s="41" t="str">
         <f t="shared" ref="U7:U30" si="1">IF(B7&lt;G7,"是","否")</f>
         <v>否</v>
       </c>
-      <c r="V7" s="40" t="s">
+      <c r="V7" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="W7" s="40" t="s">
+      <c r="W7" s="42" t="s">
         <v>52</v>
       </c>
       <c r="X7" s="12">
         <v>2</v>
       </c>
-      <c r="Y7" s="46">
+      <c r="Y7" s="48">
         <f t="shared" ref="Y7:Y20" si="2">$I7/$I$6</f>
         <v>1.06222826086957</v>
       </c>
-      <c r="Z7" s="22"/>
-      <c r="AA7" s="47"/>
-      <c r="AB7" s="47"/>
+      <c r="Z7" s="24"/>
+      <c r="AA7" s="49"/>
+      <c r="AB7" s="49"/>
       <c r="AC7" s="12">
         <f t="shared" ref="AC7:AC30" si="3">D7-E7</f>
         <v>0.75</v>
       </c>
       <c r="AD7" s="12"/>
-      <c r="AE7" s="47"/>
-      <c r="AF7" s="47"/>
-      <c r="AG7" s="56">
+      <c r="AE7" s="49"/>
+      <c r="AF7" s="49"/>
+      <c r="AG7" s="58">
         <f>IF(AND(H7-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10004,6,FALSE)&gt;0,H7&gt;H6),H7,AG6)</f>
         <v>32.53</v>
       </c>
-      <c r="AH7" s="57"/>
+      <c r="AH7" s="59"/>
       <c r="AI7" s="4">
         <f>(AG7-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10006,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10006,7,FALSE)</f>
         <v>-120</v>
       </c>
-      <c r="AJ7" s="47"/>
-      <c r="AK7" s="22">
+      <c r="AJ7" s="49"/>
+      <c r="AK7" s="24">
         <f>($B7-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10005,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10005,6,FALSE)</f>
         <v>0.0210495108212274</v>
       </c>
-      <c r="AL7" s="22"/>
-      <c r="AM7" s="62" t="s">
+      <c r="AL7" s="24"/>
+      <c r="AM7" s="64" t="s">
         <v>53</v>
       </c>
       <c r="AN7" s="12"/>
@@ -3933,7 +3939,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K8" s="20">
+      <c r="K8" s="22">
         <f t="shared" ref="K8:K30" si="4">(B8-B7)/B7</f>
         <v>0.0743321718931476</v>
       </c>
@@ -3946,51 +3952,51 @@
       <c r="P8" s="12"/>
       <c r="Q8" s="12"/>
       <c r="R8" s="12"/>
-      <c r="S8" s="22"/>
+      <c r="S8" s="24"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="39" t="str">
+      <c r="U8" s="41" t="str">
         <f t="shared" si="1"/>
         <v>否</v>
       </c>
-      <c r="V8" s="40" t="s">
+      <c r="V8" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="W8" s="40" t="s">
+      <c r="W8" s="42" t="s">
         <v>52</v>
       </c>
       <c r="X8" s="12">
         <v>2</v>
       </c>
-      <c r="Y8" s="46">
+      <c r="Y8" s="48">
         <f t="shared" si="2"/>
         <v>1.03804347826087</v>
       </c>
-      <c r="Z8" s="22"/>
-      <c r="AA8" s="47"/>
-      <c r="AB8" s="47"/>
+      <c r="Z8" s="24"/>
+      <c r="AA8" s="49"/>
+      <c r="AB8" s="49"/>
       <c r="AC8" s="12">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AD8" s="12"/>
-      <c r="AE8" s="47"/>
-      <c r="AF8" s="47"/>
-      <c r="AG8" s="56">
+      <c r="AE8" s="49"/>
+      <c r="AF8" s="49"/>
+      <c r="AG8" s="58">
         <f>IF(AND(H8-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10005,6,FALSE)&gt;0,H8&gt;H7),H8,AG7)</f>
         <v>32.53</v>
       </c>
-      <c r="AH8" s="57"/>
+      <c r="AH8" s="59"/>
       <c r="AI8" s="4">
         <f>(AG8-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10007,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10007,7,FALSE)</f>
         <v>-120</v>
       </c>
-      <c r="AJ8" s="47"/>
-      <c r="AK8" s="22">
+      <c r="AJ8" s="49"/>
+      <c r="AK8" s="24">
         <f>($B8-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10006,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10006,6,FALSE)</f>
         <v>0.0969463385710051</v>
       </c>
-      <c r="AL8" s="22"/>
-      <c r="AM8" s="62" t="s">
+      <c r="AL8" s="24"/>
+      <c r="AM8" s="64" t="s">
         <v>53</v>
       </c>
       <c r="AN8" s="12"/>
@@ -4008,7 +4014,7 @@
       <c r="D9" s="9">
         <v>37.25</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="13">
         <v>36.34</v>
       </c>
       <c r="F9" s="12">
@@ -4027,7 +4033,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K9" s="19">
+      <c r="K9" s="21">
         <f t="shared" si="4"/>
         <v>-0.00513513513513507</v>
       </c>
@@ -4038,51 +4044,51 @@
       <c r="P9" s="12"/>
       <c r="Q9" s="12"/>
       <c r="R9" s="12"/>
-      <c r="S9" s="22"/>
+      <c r="S9" s="24"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="39" t="str">
+      <c r="U9" s="41" t="str">
         <f t="shared" si="1"/>
         <v>否</v>
       </c>
-      <c r="V9" s="40" t="s">
+      <c r="V9" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="W9" s="40" t="s">
+      <c r="W9" s="42" t="s">
         <v>52</v>
       </c>
       <c r="X9" s="12">
         <v>2</v>
       </c>
-      <c r="Y9" s="46">
+      <c r="Y9" s="48">
         <f t="shared" si="2"/>
         <v>1.11521739130435</v>
       </c>
-      <c r="Z9" s="22"/>
-      <c r="AA9" s="47"/>
-      <c r="AB9" s="47"/>
+      <c r="Z9" s="24"/>
+      <c r="AA9" s="49"/>
+      <c r="AB9" s="49"/>
       <c r="AC9" s="12">
         <f t="shared" si="3"/>
         <v>0.909999999999997</v>
       </c>
       <c r="AD9" s="12"/>
-      <c r="AE9" s="47"/>
-      <c r="AF9" s="47"/>
-      <c r="AG9" s="56">
+      <c r="AE9" s="49"/>
+      <c r="AF9" s="49"/>
+      <c r="AG9" s="58">
         <f>IF(AND(H9-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10006,6,FALSE)&gt;0,H9&gt;H8),H9,AG8)</f>
         <v>32.53</v>
       </c>
-      <c r="AH9" s="57"/>
+      <c r="AH9" s="59"/>
       <c r="AI9" s="4">
         <f>(AG9-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10008,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10008,7,FALSE)</f>
         <v>-120</v>
       </c>
-      <c r="AJ9" s="47"/>
-      <c r="AK9" s="22">
+      <c r="AJ9" s="49"/>
+      <c r="AK9" s="24">
         <f>($B9-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10007,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10007,6,FALSE)</f>
         <v>0.0913133708864514</v>
       </c>
-      <c r="AL9" s="22"/>
-      <c r="AM9" s="62" t="s">
+      <c r="AL9" s="24"/>
+      <c r="AM9" s="64" t="s">
         <v>53</v>
       </c>
       <c r="AN9" s="12"/>
@@ -4100,7 +4106,7 @@
       <c r="D10" s="9">
         <v>37.38</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="13">
         <v>35.92</v>
       </c>
       <c r="F10" s="12">
@@ -4115,54 +4121,54 @@
       <c r="I10" s="9">
         <v>40.83</v>
       </c>
-      <c r="J10" s="18">
+      <c r="J10" s="20">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="K10" s="19">
+      <c r="K10" s="21">
         <f t="shared" si="4"/>
         <v>-0.0187449062754688</v>
       </c>
       <c r="L10" s="12"/>
-      <c r="M10" s="21" t="s">
+      <c r="M10" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="N10" s="22">
+      <c r="N10" s="24">
         <f>COUNTIF(K6:K10,"&gt;0")/5</f>
         <v>0.2</v>
       </c>
       <c r="O10" s="12"/>
-      <c r="P10" s="23">
+      <c r="P10" s="25">
         <f>COUNTIF(J6:J10,"&gt;0")/5</f>
         <v>0.6</v>
       </c>
       <c r="Q10" s="12"/>
       <c r="R10" s="12"/>
-      <c r="S10" s="22"/>
+      <c r="S10" s="24"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="39" t="str">
+      <c r="U10" s="41" t="str">
         <f t="shared" si="1"/>
         <v>否</v>
       </c>
-      <c r="V10" s="40" t="s">
+      <c r="V10" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="W10" s="40" t="s">
+      <c r="W10" s="42" t="s">
         <v>52</v>
       </c>
       <c r="X10" s="12">
         <v>2</v>
       </c>
-      <c r="Y10" s="46">
+      <c r="Y10" s="48">
         <f t="shared" si="2"/>
         <v>1.10951086956522</v>
       </c>
-      <c r="Z10" s="22">
+      <c r="Z10" s="24">
         <f t="shared" ref="Z10:Z15" si="5">(B10-B6)/B6</f>
         <v>0.024971623155505</v>
       </c>
-      <c r="AA10" s="47"/>
-      <c r="AB10" s="22">
+      <c r="AA10" s="49"/>
+      <c r="AB10" s="24">
         <f>COUNTIF(K6:K10,"&gt;0")/5</f>
         <v>0.2</v>
       </c>
@@ -4171,24 +4177,24 @@
         <v>1.46</v>
       </c>
       <c r="AD10" s="12"/>
-      <c r="AE10" s="47"/>
-      <c r="AF10" s="47"/>
-      <c r="AG10" s="56">
+      <c r="AE10" s="49"/>
+      <c r="AF10" s="49"/>
+      <c r="AG10" s="58">
         <f>IF(AND(H10-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10007,6,FALSE)&gt;0,H10&gt;H9),H10,AG9)</f>
         <v>32.53</v>
       </c>
-      <c r="AH10" s="57"/>
+      <c r="AH10" s="59"/>
       <c r="AI10" s="4">
         <f>(AG10-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10009,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10009,7,FALSE)</f>
         <v>-120</v>
       </c>
-      <c r="AJ10" s="47"/>
-      <c r="AK10" s="22">
+      <c r="AJ10" s="49"/>
+      <c r="AK10" s="24">
         <f>($B10-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10008,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10008,6,FALSE)</f>
         <v>0.070856804032019</v>
       </c>
-      <c r="AL10" s="22"/>
-      <c r="AM10" s="62" t="s">
+      <c r="AL10" s="24"/>
+      <c r="AM10" s="64" t="s">
         <v>53</v>
       </c>
       <c r="AN10" s="12"/>
@@ -4206,7 +4212,7 @@
       <c r="D11" s="9">
         <v>36.56</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="13">
         <v>35.7</v>
       </c>
       <c r="F11" s="12">
@@ -4225,71 +4231,71 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K11" s="19">
+      <c r="K11" s="21">
         <f t="shared" si="4"/>
         <v>0.00526024363233679</v>
       </c>
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
-      <c r="N11" s="22">
+      <c r="N11" s="24">
         <f t="shared" ref="N11:N23" si="6">COUNTIF(K7:K11,"&gt;0")/5</f>
         <v>0.4</v>
       </c>
       <c r="O11" s="12"/>
-      <c r="P11" s="23">
+      <c r="P11" s="25">
         <f t="shared" ref="P11:P30" si="7">COUNTIF(J7:J11,"&gt;0")/5</f>
         <v>0.6</v>
       </c>
       <c r="Q11" s="12"/>
       <c r="R11" s="12"/>
-      <c r="S11" s="22"/>
+      <c r="S11" s="24"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="39" t="str">
+      <c r="U11" s="41" t="str">
         <f t="shared" si="1"/>
         <v>否</v>
       </c>
-      <c r="V11" s="40" t="s">
+      <c r="V11" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="W11" s="40" t="s">
+      <c r="W11" s="42" t="s">
         <v>52</v>
       </c>
       <c r="X11" s="12">
         <v>2</v>
       </c>
-      <c r="Y11" s="46">
+      <c r="Y11" s="48">
         <f t="shared" si="2"/>
         <v>1.08885869565217</v>
       </c>
-      <c r="Z11" s="22">
+      <c r="Z11" s="24">
         <f t="shared" si="5"/>
         <v>0.0542973286875727</v>
       </c>
-      <c r="AA11" s="47"/>
-      <c r="AB11" s="47"/>
+      <c r="AA11" s="49"/>
+      <c r="AB11" s="49"/>
       <c r="AC11" s="12">
         <f t="shared" si="3"/>
         <v>0.859999999999999</v>
       </c>
       <c r="AD11" s="12"/>
-      <c r="AE11" s="47"/>
-      <c r="AF11" s="47"/>
-      <c r="AG11" s="56">
+      <c r="AE11" s="49"/>
+      <c r="AF11" s="49"/>
+      <c r="AG11" s="58">
         <f>IF(AND(H11-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10008,6,FALSE)&gt;0,H11&gt;H10),H11,AG10)</f>
         <v>33.78</v>
       </c>
-      <c r="AH11" s="57"/>
+      <c r="AH11" s="59"/>
       <c r="AI11" s="4">
         <f>(AG11-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10010,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10010,7,FALSE)</f>
         <v>5.00000000000043</v>
       </c>
-      <c r="AJ11" s="47"/>
-      <c r="AK11" s="22">
+      <c r="AJ11" s="49"/>
+      <c r="AK11" s="24">
         <f>($B11-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10009,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10009,6,FALSE)</f>
         <v>0.076489771716573</v>
       </c>
-      <c r="AL11" s="22"/>
-      <c r="AM11" s="62" t="s">
+      <c r="AL11" s="24"/>
+      <c r="AM11" s="64" t="s">
         <v>53</v>
       </c>
       <c r="AN11" s="12"/>
@@ -4307,7 +4313,7 @@
       <c r="D12" s="9">
         <v>37.8</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="13">
         <v>35.6</v>
       </c>
       <c r="F12" s="12">
@@ -4326,71 +4332,71 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K12" s="19">
+      <c r="K12" s="21">
         <f t="shared" si="4"/>
         <v>0.0220324979344532</v>
       </c>
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
-      <c r="N12" s="22">
+      <c r="N12" s="24">
         <f t="shared" si="6"/>
         <v>0.6</v>
       </c>
       <c r="O12" s="12"/>
-      <c r="P12" s="23">
+      <c r="P12" s="25">
         <f t="shared" si="7"/>
         <v>0.8</v>
       </c>
       <c r="Q12" s="12"/>
       <c r="R12" s="12"/>
-      <c r="S12" s="22"/>
+      <c r="S12" s="24"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="39" t="str">
+      <c r="U12" s="41" t="str">
         <f t="shared" si="1"/>
         <v>否</v>
       </c>
-      <c r="V12" s="40" t="s">
+      <c r="V12" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="W12" s="40" t="s">
+      <c r="W12" s="42" t="s">
         <v>52</v>
       </c>
       <c r="X12" s="12">
         <v>2</v>
       </c>
-      <c r="Y12" s="46">
+      <c r="Y12" s="48">
         <f t="shared" si="2"/>
         <v>1.0945652173913</v>
       </c>
-      <c r="Z12" s="22">
+      <c r="Z12" s="24">
         <f t="shared" si="5"/>
         <v>0.00297297297297296</v>
       </c>
-      <c r="AA12" s="47"/>
-      <c r="AB12" s="47"/>
+      <c r="AA12" s="49"/>
+      <c r="AB12" s="49"/>
       <c r="AC12" s="12">
         <f t="shared" si="3"/>
         <v>2.2</v>
       </c>
       <c r="AD12" s="12"/>
-      <c r="AE12" s="47"/>
-      <c r="AF12" s="47"/>
-      <c r="AG12" s="56">
+      <c r="AE12" s="49"/>
+      <c r="AF12" s="49"/>
+      <c r="AG12" s="58">
         <f>IF(AND(H12-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10009,6,FALSE)&gt;0,H12&gt;H11),H12,AG11)</f>
         <v>33.91</v>
       </c>
-      <c r="AH12" s="57"/>
+      <c r="AH12" s="59"/>
       <c r="AI12" s="4">
         <f>(AG12-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10011,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10011,7,FALSE)</f>
         <v>18</v>
       </c>
-      <c r="AJ12" s="47"/>
-      <c r="AK12" s="22">
+      <c r="AJ12" s="49"/>
+      <c r="AK12" s="24">
         <f>($B12-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10010,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10010,6,FALSE)</f>
         <v>0.100207530388378</v>
       </c>
-      <c r="AL12" s="22"/>
-      <c r="AM12" s="62" t="s">
+      <c r="AL12" s="24"/>
+      <c r="AM12" s="64" t="s">
         <v>53</v>
       </c>
       <c r="AN12" s="12"/>
@@ -4423,75 +4429,75 @@
       <c r="I13" s="9">
         <v>41.16</v>
       </c>
-      <c r="J13" s="18">
+      <c r="J13" s="20">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="K13" s="19">
+      <c r="K13" s="21">
         <f t="shared" si="4"/>
         <v>-0.0083535435192671</v>
       </c>
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
-      <c r="N13" s="22">
+      <c r="N13" s="24">
         <f t="shared" si="6"/>
         <v>0.4</v>
       </c>
       <c r="O13" s="12"/>
-      <c r="P13" s="23">
+      <c r="P13" s="25">
         <f t="shared" si="7"/>
         <v>0.6</v>
       </c>
       <c r="Q13" s="12"/>
       <c r="R13" s="12"/>
-      <c r="S13" s="22"/>
+      <c r="S13" s="24"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="39" t="str">
+      <c r="U13" s="41" t="str">
         <f t="shared" si="1"/>
         <v>否</v>
       </c>
-      <c r="V13" s="40" t="s">
+      <c r="V13" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="W13" s="40" t="s">
+      <c r="W13" s="42" t="s">
         <v>52</v>
       </c>
       <c r="X13" s="12">
         <v>2</v>
       </c>
-      <c r="Y13" s="46">
+      <c r="Y13" s="48">
         <f t="shared" si="2"/>
         <v>1.11847826086957</v>
       </c>
-      <c r="Z13" s="22">
+      <c r="Z13" s="24">
         <f t="shared" si="5"/>
         <v>-0.000271665308340264</v>
       </c>
-      <c r="AA13" s="47"/>
-      <c r="AB13" s="47"/>
+      <c r="AA13" s="49"/>
+      <c r="AB13" s="49"/>
       <c r="AC13" s="12">
         <f t="shared" si="3"/>
         <v>2.09</v>
       </c>
       <c r="AD13" s="12"/>
-      <c r="AE13" s="47"/>
-      <c r="AF13" s="47"/>
-      <c r="AG13" s="56">
+      <c r="AE13" s="49"/>
+      <c r="AF13" s="49"/>
+      <c r="AG13" s="58">
         <f>IF(AND(H13-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10010,6,FALSE)&gt;0,H13&gt;H12),H13,AG12)</f>
         <v>34.02</v>
       </c>
-      <c r="AH13" s="57"/>
+      <c r="AH13" s="59"/>
       <c r="AI13" s="4">
         <f>(AG13-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10012,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10012,7,FALSE)</f>
         <v>29.0000000000006</v>
       </c>
-      <c r="AJ13" s="47"/>
-      <c r="AK13" s="22">
+      <c r="AJ13" s="49"/>
+      <c r="AK13" s="24">
         <f>($B13-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10011,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10011,6,FALSE)</f>
         <v>0.0910168989030537</v>
       </c>
-      <c r="AL13" s="22"/>
-      <c r="AM13" s="62" t="s">
+      <c r="AL13" s="24"/>
+      <c r="AM13" s="64" t="s">
         <v>53</v>
       </c>
       <c r="AN13" s="12"/>
@@ -4524,75 +4530,75 @@
       <c r="I14" s="9">
         <v>40.82</v>
       </c>
-      <c r="J14" s="18">
+      <c r="J14" s="20">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="K14" s="19">
+      <c r="K14" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
-      <c r="N14" s="22">
+      <c r="N14" s="24">
         <f t="shared" si="6"/>
         <v>0.4</v>
       </c>
       <c r="O14" s="12"/>
-      <c r="P14" s="24">
+      <c r="P14" s="26">
         <f t="shared" si="7"/>
         <v>0.4</v>
       </c>
       <c r="Q14" s="12"/>
       <c r="R14" s="12"/>
-      <c r="S14" s="22"/>
+      <c r="S14" s="24"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="39" t="str">
+      <c r="U14" s="41" t="str">
         <f t="shared" si="1"/>
         <v>否</v>
       </c>
-      <c r="V14" s="40" t="s">
+      <c r="V14" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="W14" s="40" t="s">
+      <c r="W14" s="42" t="s">
         <v>52</v>
       </c>
       <c r="X14" s="12">
         <v>2</v>
       </c>
-      <c r="Y14" s="46">
+      <c r="Y14" s="48">
         <f t="shared" si="2"/>
         <v>1.10923913043478</v>
       </c>
-      <c r="Z14" s="22">
+      <c r="Z14" s="24">
         <f t="shared" si="5"/>
         <v>0.0188261351052049</v>
       </c>
-      <c r="AA14" s="47"/>
-      <c r="AB14" s="47"/>
+      <c r="AA14" s="49"/>
+      <c r="AB14" s="49"/>
       <c r="AC14" s="12">
         <f t="shared" si="3"/>
         <v>0.799999999999997</v>
       </c>
       <c r="AD14" s="12"/>
-      <c r="AE14" s="47"/>
-      <c r="AF14" s="47"/>
-      <c r="AG14" s="56">
+      <c r="AE14" s="49"/>
+      <c r="AF14" s="49"/>
+      <c r="AG14" s="58">
         <f>IF(AND(H14-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10011,6,FALSE)&gt;0,H14&gt;H13),H14,AG13)</f>
         <v>34.13</v>
       </c>
-      <c r="AH14" s="57"/>
+      <c r="AH14" s="59"/>
       <c r="AI14" s="4">
         <f>(AG14-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10013,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10013,7,FALSE)</f>
         <v>40.0000000000006</v>
       </c>
-      <c r="AJ14" s="47"/>
-      <c r="AK14" s="22">
+      <c r="AJ14" s="49"/>
+      <c r="AK14" s="24">
         <f>($B14-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10012,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10012,6,FALSE)</f>
         <v>0.0910168989030537</v>
       </c>
-      <c r="AL14" s="22"/>
-      <c r="AM14" s="62" t="s">
+      <c r="AL14" s="24"/>
+      <c r="AM14" s="64" t="s">
         <v>53</v>
       </c>
       <c r="AN14" s="12"/>
@@ -4625,58 +4631,58 @@
       <c r="I15" s="9">
         <v>40.82</v>
       </c>
-      <c r="J15" s="18">
+      <c r="J15" s="20">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="K15" s="19">
+      <c r="K15" s="21">
         <f t="shared" si="4"/>
         <v>0.00815217391304359</v>
       </c>
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
-      <c r="N15" s="22">
+      <c r="N15" s="24">
         <f t="shared" si="6"/>
         <v>0.6</v>
       </c>
-      <c r="O15" s="22">
+      <c r="O15" s="24">
         <f>COUNTIF(K6:K15,"&gt;0")/10</f>
         <v>0.4</v>
       </c>
-      <c r="P15" s="24">
+      <c r="P15" s="26">
         <f t="shared" si="7"/>
         <v>0.4</v>
       </c>
-      <c r="Q15" s="23">
+      <c r="Q15" s="25">
         <f>COUNTIF(J6:J15,"&gt;0")/10</f>
         <v>0.5</v>
       </c>
-      <c r="R15" s="33"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="39" t="str">
+      <c r="R15" s="35"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="41" t="str">
         <f t="shared" si="1"/>
         <v>否</v>
       </c>
-      <c r="V15" s="40" t="s">
+      <c r="V15" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="W15" s="40" t="s">
+      <c r="W15" s="42" t="s">
         <v>52</v>
       </c>
       <c r="X15" s="12">
         <v>2</v>
       </c>
-      <c r="Y15" s="46">
+      <c r="Y15" s="48">
         <f t="shared" si="2"/>
         <v>1.10923913043478</v>
       </c>
-      <c r="Z15" s="22">
+      <c r="Z15" s="24">
         <f t="shared" si="5"/>
         <v>0.0217570917102726</v>
       </c>
-      <c r="AA15" s="47"/>
-      <c r="AB15" s="22">
+      <c r="AA15" s="49"/>
+      <c r="AB15" s="24">
         <f>COUNTIF(K6:K15,"&gt;0")/10</f>
         <v>0.4</v>
       </c>
@@ -4685,24 +4691,24 @@
         <v>1.29</v>
       </c>
       <c r="AD15" s="12"/>
-      <c r="AE15" s="47"/>
-      <c r="AF15" s="47"/>
-      <c r="AG15" s="56">
+      <c r="AE15" s="49"/>
+      <c r="AF15" s="49"/>
+      <c r="AG15" s="58">
         <f>IF(AND(H15-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10012,6,FALSE)&gt;0,H15&gt;H14),H15,AG14)</f>
         <v>34.25</v>
       </c>
-      <c r="AH15" s="57"/>
+      <c r="AH15" s="59"/>
       <c r="AI15" s="4">
         <f>(AG15-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10014,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10014,7,FALSE)</f>
         <v>52.0000000000003</v>
       </c>
-      <c r="AJ15" s="47"/>
-      <c r="AK15" s="23">
+      <c r="AJ15" s="49"/>
+      <c r="AK15" s="25">
         <f>($B15-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10013,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10013,6,FALSE)</f>
         <v>0.0999110584049809</v>
       </c>
-      <c r="AL15" s="22"/>
-      <c r="AM15" s="62" t="s">
+      <c r="AL15" s="24"/>
+      <c r="AM15" s="64" t="s">
         <v>53</v>
       </c>
       <c r="AN15" s="12"/>
@@ -4739,77 +4745,77 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K16" s="19">
+      <c r="K16" s="21">
         <f t="shared" si="4"/>
         <v>0.0336927223719677</v>
       </c>
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
-      <c r="N16" s="22">
+      <c r="N16" s="24">
         <f t="shared" si="6"/>
         <v>0.6</v>
       </c>
-      <c r="O16" s="22">
+      <c r="O16" s="24">
         <f t="shared" ref="O16:O30" si="8">COUNTIF(K7:K16,"&gt;0")/10</f>
         <v>0.5</v>
       </c>
-      <c r="P16" s="24">
+      <c r="P16" s="26">
         <f t="shared" si="7"/>
         <v>0.4</v>
       </c>
-      <c r="Q16" s="23">
+      <c r="Q16" s="25">
         <f t="shared" ref="Q16:Q30" si="9">COUNTIF(J7:J16,"&gt;0")/10</f>
         <v>0.5</v>
       </c>
       <c r="R16" s="12"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="39" t="str">
+      <c r="S16" s="24"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="41" t="str">
         <f t="shared" si="1"/>
         <v>否</v>
       </c>
-      <c r="V16" s="40" t="s">
+      <c r="V16" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="W16" s="40" t="s">
+      <c r="W16" s="42" t="s">
         <v>52</v>
       </c>
       <c r="X16" s="12">
         <v>2</v>
       </c>
-      <c r="Y16" s="46">
+      <c r="Y16" s="48">
         <f t="shared" si="2"/>
         <v>1.11820652173913</v>
       </c>
-      <c r="Z16" s="22">
+      <c r="Z16" s="24">
         <f t="shared" ref="Z16:Z22" si="10">(B16-B12)/B12</f>
         <v>0.0334141740770682</v>
       </c>
-      <c r="AA16" s="47"/>
-      <c r="AB16" s="47"/>
+      <c r="AA16" s="49"/>
+      <c r="AB16" s="49"/>
       <c r="AC16" s="12">
         <f t="shared" si="3"/>
         <v>1.73999999999999</v>
       </c>
       <c r="AD16" s="12"/>
-      <c r="AE16" s="47"/>
-      <c r="AF16" s="47"/>
-      <c r="AG16" s="56">
+      <c r="AE16" s="49"/>
+      <c r="AF16" s="49"/>
+      <c r="AG16" s="58">
         <f>IF(AND(H16-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10013,6,FALSE)&gt;0,H16&gt;H15),H16,AG15)</f>
         <v>34.41</v>
       </c>
-      <c r="AH16" s="57"/>
+      <c r="AH16" s="59"/>
       <c r="AI16" s="4">
         <f>(AG16-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10015,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10015,7,FALSE)</f>
         <v>68</v>
       </c>
-      <c r="AJ16" s="47"/>
-      <c r="AK16" s="23">
+      <c r="AJ16" s="49"/>
+      <c r="AK16" s="25">
         <f>($B16-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10014,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10014,6,FALSE)</f>
         <v>0.136970056329677</v>
       </c>
-      <c r="AL16" s="22"/>
-      <c r="AM16" s="62" t="s">
+      <c r="AL16" s="24"/>
+      <c r="AM16" s="64" t="s">
         <v>53</v>
       </c>
       <c r="AN16" s="12"/>
@@ -4846,77 +4852,77 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K17" s="19">
+      <c r="K17" s="21">
         <f t="shared" si="4"/>
         <v>0.000521512385919062</v>
       </c>
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
-      <c r="N17" s="22">
+      <c r="N17" s="24">
         <f t="shared" si="6"/>
         <v>0.6</v>
       </c>
-      <c r="O17" s="22">
+      <c r="O17" s="24">
         <f t="shared" si="8"/>
         <v>0.6</v>
       </c>
-      <c r="P17" s="24">
+      <c r="P17" s="26">
         <f t="shared" si="7"/>
         <v>0.4</v>
       </c>
-      <c r="Q17" s="23">
+      <c r="Q17" s="25">
         <f t="shared" si="9"/>
         <v>0.6</v>
       </c>
       <c r="R17" s="12"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="22"/>
-      <c r="U17" s="39" t="str">
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="41" t="str">
         <f t="shared" si="1"/>
         <v>否</v>
       </c>
-      <c r="V17" s="40" t="s">
+      <c r="V17" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="W17" s="40" t="s">
+      <c r="W17" s="42" t="s">
         <v>52</v>
       </c>
       <c r="X17" s="12">
         <v>2</v>
       </c>
-      <c r="Y17" s="46">
+      <c r="Y17" s="48">
         <f t="shared" si="2"/>
         <v>1.15597826086957</v>
       </c>
-      <c r="Z17" s="22">
+      <c r="Z17" s="24">
         <f t="shared" si="10"/>
         <v>0.0426630434782609</v>
       </c>
-      <c r="AA17" s="47"/>
-      <c r="AB17" s="47"/>
+      <c r="AA17" s="49"/>
+      <c r="AB17" s="49"/>
       <c r="AC17" s="12">
         <f t="shared" si="3"/>
         <v>1.21</v>
       </c>
       <c r="AD17" s="12"/>
-      <c r="AE17" s="47"/>
-      <c r="AF17" s="47"/>
-      <c r="AG17" s="56">
+      <c r="AE17" s="49"/>
+      <c r="AF17" s="49"/>
+      <c r="AG17" s="58">
         <f>IF(AND(H17-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10014,6,FALSE)&gt;0,H17&gt;H16),H17,AG16)</f>
         <v>34.57</v>
       </c>
-      <c r="AH17" s="57"/>
+      <c r="AH17" s="59"/>
       <c r="AI17" s="4">
         <f>(AG17-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10016,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10016,7,FALSE)</f>
         <v>84.0000000000003</v>
       </c>
-      <c r="AJ17" s="47"/>
-      <c r="AK17" s="23">
+      <c r="AJ17" s="49"/>
+      <c r="AK17" s="25">
         <f>($B17-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10015,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10015,6,FALSE)</f>
         <v>0.137563000296472</v>
       </c>
-      <c r="AL17" s="22"/>
-      <c r="AM17" s="62" t="s">
+      <c r="AL17" s="24"/>
+      <c r="AM17" s="64" t="s">
         <v>53</v>
       </c>
       <c r="AN17" s="12"/>
@@ -4949,81 +4955,81 @@
       <c r="I18" s="9">
         <v>42.56</v>
       </c>
-      <c r="J18" s="18">
+      <c r="J18" s="20">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="K18" s="19">
+      <c r="K18" s="21">
         <f t="shared" si="4"/>
         <v>-0.00990357049778461</v>
       </c>
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
-      <c r="N18" s="22">
+      <c r="N18" s="24">
         <f t="shared" si="6"/>
         <v>0.6</v>
       </c>
-      <c r="O18" s="22">
+      <c r="O18" s="24">
         <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
-      <c r="P18" s="24">
+      <c r="P18" s="26">
         <f t="shared" si="7"/>
         <v>0.4</v>
       </c>
-      <c r="Q18" s="23">
+      <c r="Q18" s="25">
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="R18" s="12"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="22"/>
-      <c r="U18" s="39" t="str">
+      <c r="S18" s="24"/>
+      <c r="T18" s="24"/>
+      <c r="U18" s="41" t="str">
         <f t="shared" si="1"/>
         <v>否</v>
       </c>
-      <c r="V18" s="40" t="s">
+      <c r="V18" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="W18" s="40" t="s">
+      <c r="W18" s="42" t="s">
         <v>52</v>
       </c>
       <c r="X18" s="12">
         <v>2</v>
       </c>
-      <c r="Y18" s="46">
+      <c r="Y18" s="48">
         <f t="shared" si="2"/>
         <v>1.15652173913043</v>
       </c>
-      <c r="Z18" s="22">
+      <c r="Z18" s="24">
         <f t="shared" si="10"/>
         <v>0.0323369565217393</v>
       </c>
-      <c r="AA18" s="47"/>
-      <c r="AB18" s="47"/>
+      <c r="AA18" s="49"/>
+      <c r="AB18" s="49"/>
       <c r="AC18" s="12">
         <f t="shared" si="3"/>
         <v>1.15</v>
       </c>
       <c r="AD18" s="12"/>
-      <c r="AE18" s="47"/>
-      <c r="AF18" s="47"/>
-      <c r="AG18" s="56">
+      <c r="AE18" s="49"/>
+      <c r="AF18" s="49"/>
+      <c r="AG18" s="58">
         <f>IF(AND(H18-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10015,6,FALSE)&gt;0,H18&gt;H17),H18,AG17)</f>
         <v>34.7</v>
       </c>
-      <c r="AH18" s="57"/>
+      <c r="AH18" s="59"/>
       <c r="AI18" s="4">
         <f>(AG18-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10017,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10017,7,FALSE)</f>
         <v>97.0000000000006</v>
       </c>
-      <c r="AJ18" s="47"/>
-      <c r="AK18" s="23">
+      <c r="AJ18" s="49"/>
+      <c r="AK18" s="25">
         <f>($B18-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10016,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10016,6,FALSE)</f>
         <v>0.126297064927365</v>
       </c>
-      <c r="AL18" s="22"/>
-      <c r="AM18" s="62" t="s">
+      <c r="AL18" s="24"/>
+      <c r="AM18" s="64" t="s">
         <v>53</v>
       </c>
       <c r="AN18" s="12"/>
@@ -5056,81 +5062,81 @@
       <c r="I19" s="9">
         <v>42.14</v>
       </c>
-      <c r="J19" s="18">
+      <c r="J19" s="20">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="K19" s="19">
+      <c r="K19" s="21">
         <f t="shared" si="4"/>
         <v>-0.0205317188733878</v>
       </c>
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
-      <c r="N19" s="22">
+      <c r="N19" s="24">
         <f t="shared" si="6"/>
         <v>0.6</v>
       </c>
-      <c r="O19" s="22">
+      <c r="O19" s="24">
         <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
-      <c r="P19" s="24">
+      <c r="P19" s="26">
         <f t="shared" si="7"/>
         <v>0.4</v>
       </c>
-      <c r="Q19" s="24">
+      <c r="Q19" s="26">
         <f t="shared" si="9"/>
         <v>0.4</v>
       </c>
       <c r="R19" s="12"/>
-      <c r="S19" s="22"/>
-      <c r="T19" s="22"/>
-      <c r="U19" s="39" t="str">
+      <c r="S19" s="24"/>
+      <c r="T19" s="24"/>
+      <c r="U19" s="41" t="str">
         <f t="shared" si="1"/>
         <v>否</v>
       </c>
-      <c r="V19" s="40" t="s">
+      <c r="V19" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="W19" s="40" t="s">
+      <c r="W19" s="42" t="s">
         <v>52</v>
       </c>
       <c r="X19" s="12">
         <v>2</v>
       </c>
-      <c r="Y19" s="46">
+      <c r="Y19" s="48">
         <f t="shared" si="2"/>
         <v>1.14510869565217</v>
       </c>
-      <c r="Z19" s="22">
+      <c r="Z19" s="24">
         <f t="shared" si="10"/>
         <v>0.00296495956873314</v>
       </c>
-      <c r="AA19" s="47"/>
-      <c r="AB19" s="47"/>
+      <c r="AA19" s="49"/>
+      <c r="AB19" s="49"/>
       <c r="AC19" s="12">
         <f t="shared" si="3"/>
         <v>1.75</v>
       </c>
       <c r="AD19" s="12"/>
-      <c r="AE19" s="47"/>
-      <c r="AF19" s="47"/>
-      <c r="AG19" s="56">
+      <c r="AE19" s="49"/>
+      <c r="AF19" s="49"/>
+      <c r="AG19" s="58">
         <f>IF(AND(H19-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10016,6,FALSE)&gt;0,H19&gt;H18),H19,AG18)</f>
         <v>34.8</v>
       </c>
-      <c r="AH19" s="57"/>
+      <c r="AH19" s="59"/>
       <c r="AI19" s="4">
         <f>(AG19-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10018,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10018,7,FALSE)</f>
         <v>107</v>
       </c>
-      <c r="AJ19" s="47"/>
-      <c r="AK19" s="23">
+      <c r="AJ19" s="49"/>
+      <c r="AK19" s="25">
         <f>($B19-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10017,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10017,6,FALSE)</f>
         <v>0.103172250222354</v>
       </c>
-      <c r="AL19" s="22"/>
-      <c r="AM19" s="62" t="s">
+      <c r="AL19" s="24"/>
+      <c r="AM19" s="64" t="s">
         <v>53</v>
       </c>
       <c r="AN19" s="12"/>
@@ -5163,70 +5169,70 @@
       <c r="I20" s="9">
         <v>41.27</v>
       </c>
-      <c r="J20" s="18">
+      <c r="J20" s="20">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="K20" s="19">
+      <c r="K20" s="21">
         <f t="shared" si="4"/>
         <v>0.0104810534802473</v>
       </c>
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
-      <c r="N20" s="22">
+      <c r="N20" s="24">
         <f t="shared" si="6"/>
         <v>0.6</v>
       </c>
-      <c r="O20" s="22">
+      <c r="O20" s="24">
         <f t="shared" si="8"/>
         <v>0.6</v>
       </c>
-      <c r="P20" s="24">
+      <c r="P20" s="26">
         <f t="shared" si="7"/>
         <v>0.4</v>
       </c>
-      <c r="Q20" s="24">
+      <c r="Q20" s="26">
         <f t="shared" si="9"/>
         <v>0.4</v>
       </c>
-      <c r="R20" s="23">
+      <c r="R20" s="25">
         <f t="shared" ref="R20:R25" si="11">COUNTIF(K6:K20,"&gt;0")/15</f>
         <v>0.466666666666667</v>
       </c>
-      <c r="S20" s="22">
+      <c r="S20" s="24">
         <f>(F20-F6)/F6</f>
         <v>-0.500510464522716</v>
       </c>
-      <c r="T20" s="22">
+      <c r="T20" s="24">
         <f>(B20-B6)/B6</f>
         <v>0.0669693530079455</v>
       </c>
-      <c r="U20" s="39" t="str">
+      <c r="U20" s="41" t="str">
         <f t="shared" si="1"/>
         <v>否</v>
       </c>
-      <c r="V20" s="40" t="s">
+      <c r="V20" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="W20" s="40" t="s">
+      <c r="W20" s="42" t="s">
         <v>52</v>
       </c>
       <c r="X20" s="12">
         <v>2</v>
       </c>
-      <c r="Y20" s="46">
+      <c r="Y20" s="48">
         <f t="shared" si="2"/>
         <v>1.12146739130435</v>
       </c>
-      <c r="Z20" s="22">
+      <c r="Z20" s="24">
         <f t="shared" si="10"/>
         <v>-0.0195567144719687</v>
       </c>
-      <c r="AA20" s="22">
+      <c r="AA20" s="24">
         <f>(B20-B6)/B6</f>
         <v>0.0669693530079455</v>
       </c>
-      <c r="AB20" s="22">
+      <c r="AB20" s="24">
         <f>COUNTIF(K6:K20,"&gt;0")/15</f>
         <v>0.466666666666667</v>
       </c>
@@ -5235,24 +5241,24 @@
         <v>1.43</v>
       </c>
       <c r="AD20" s="12"/>
-      <c r="AE20" s="47"/>
-      <c r="AF20" s="47"/>
-      <c r="AG20" s="56">
+      <c r="AE20" s="49"/>
+      <c r="AF20" s="49"/>
+      <c r="AG20" s="58">
         <f>IF(AND(H20-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10017,6,FALSE)&gt;0,H20&gt;H19),H20,AG19)</f>
         <v>34.91</v>
       </c>
-      <c r="AH20" s="57"/>
+      <c r="AH20" s="59"/>
       <c r="AI20" s="4">
         <f>(AG20-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10019,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10019,7,FALSE)</f>
         <v>118</v>
       </c>
-      <c r="AJ20" s="47"/>
-      <c r="AK20" s="23">
+      <c r="AJ20" s="49"/>
+      <c r="AK20" s="25">
         <f>($B20-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10018,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10018,6,FALSE)</f>
         <v>0.114734657574859</v>
       </c>
-      <c r="AL20" s="22"/>
-      <c r="AM20" s="62" t="s">
+      <c r="AL20" s="24"/>
+      <c r="AM20" s="64" t="s">
         <v>53</v>
       </c>
       <c r="AN20" s="12"/>
@@ -5285,93 +5291,93 @@
       <c r="I21" s="9">
         <v>41.71</v>
       </c>
-      <c r="J21" s="18">
+      <c r="J21" s="20">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="K21" s="19">
+      <c r="K21" s="21">
         <f t="shared" si="4"/>
         <v>0.00132978723404248</v>
       </c>
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
-      <c r="N21" s="22">
+      <c r="N21" s="24">
         <f t="shared" si="6"/>
         <v>0.6</v>
       </c>
-      <c r="O21" s="22">
+      <c r="O21" s="24">
         <f t="shared" si="8"/>
         <v>0.6</v>
       </c>
-      <c r="P21" s="24">
+      <c r="P21" s="26">
         <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
-      <c r="Q21" s="24">
+      <c r="Q21" s="26">
         <f t="shared" si="9"/>
         <v>0.3</v>
       </c>
-      <c r="R21" s="23">
+      <c r="R21" s="25">
         <f t="shared" si="11"/>
         <v>0.533333333333333</v>
       </c>
-      <c r="S21" s="22">
+      <c r="S21" s="24">
         <f t="shared" ref="S21:S30" si="12">(F21-F7)/F7</f>
         <v>-0.296218487394958</v>
       </c>
-      <c r="T21" s="22">
+      <c r="T21" s="24">
         <f t="shared" ref="T21:T30" si="13">(B21-B7)/B7</f>
         <v>0.093205574912892</v>
       </c>
-      <c r="U21" s="39" t="str">
+      <c r="U21" s="41" t="str">
         <f t="shared" si="1"/>
         <v>否</v>
       </c>
-      <c r="V21" s="40" t="s">
+      <c r="V21" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="W21" s="40" t="s">
+      <c r="W21" s="42" t="s">
         <v>52</v>
       </c>
       <c r="X21" s="12">
         <v>2</v>
       </c>
-      <c r="Y21" s="46">
+      <c r="Y21" s="48">
         <f t="shared" ref="Y21:Y30" si="14">$I21/$I$6</f>
         <v>1.13342391304348</v>
       </c>
-      <c r="Z21" s="22">
+      <c r="Z21" s="24">
         <f t="shared" si="10"/>
         <v>-0.0187646598905395</v>
       </c>
-      <c r="AA21" s="22">
+      <c r="AA21" s="24">
         <f t="shared" ref="AA21:AA30" si="15">(B21-B7)/B7</f>
         <v>0.093205574912892</v>
       </c>
-      <c r="AB21" s="47"/>
+      <c r="AB21" s="49"/>
       <c r="AC21" s="12">
         <f t="shared" si="3"/>
         <v>1.09</v>
       </c>
       <c r="AD21" s="12"/>
-      <c r="AE21" s="47"/>
-      <c r="AF21" s="47"/>
-      <c r="AG21" s="56">
+      <c r="AE21" s="49"/>
+      <c r="AF21" s="49"/>
+      <c r="AG21" s="58">
         <f>IF(AND(H21-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10018,6,FALSE)&gt;0,H21&gt;H20),H21,AG20)</f>
         <v>35.02</v>
       </c>
-      <c r="AH21" s="57"/>
+      <c r="AH21" s="59"/>
       <c r="AI21" s="4">
         <f>(AG21-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10020,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10020,7,FALSE)</f>
         <v>129.000000000001</v>
       </c>
-      <c r="AJ21" s="47"/>
-      <c r="AK21" s="23">
+      <c r="AJ21" s="49"/>
+      <c r="AK21" s="25">
         <f>($B21-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10019,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10019,6,FALSE)</f>
         <v>0.116217017491847</v>
       </c>
-      <c r="AL21" s="22"/>
-      <c r="AM21" s="62" t="s">
+      <c r="AL21" s="24"/>
+      <c r="AM21" s="64" t="s">
         <v>53</v>
       </c>
       <c r="AN21" s="12"/>
@@ -5408,89 +5414,89 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K22" s="19">
+      <c r="K22" s="21">
         <f t="shared" si="4"/>
         <v>-0.0047808764940239</v>
       </c>
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
-      <c r="N22" s="22">
+      <c r="N22" s="24">
         <f t="shared" si="6"/>
         <v>0.4</v>
       </c>
-      <c r="O22" s="22">
+      <c r="O22" s="24">
         <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
-      <c r="P22" s="24">
+      <c r="P22" s="26">
         <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
-      <c r="Q22" s="24">
+      <c r="Q22" s="26">
         <f t="shared" si="9"/>
         <v>0.3</v>
       </c>
-      <c r="R22" s="23">
+      <c r="R22" s="25">
         <f t="shared" si="11"/>
         <v>0.533333333333333</v>
       </c>
-      <c r="S22" s="22">
+      <c r="S22" s="24">
         <f t="shared" si="12"/>
         <v>-0.695612009237875</v>
       </c>
-      <c r="T22" s="22">
+      <c r="T22" s="24">
         <f t="shared" si="13"/>
         <v>0.0127027027027027</v>
       </c>
-      <c r="U22" s="39" t="str">
+      <c r="U22" s="41" t="str">
         <f t="shared" si="1"/>
         <v>否</v>
       </c>
-      <c r="V22" s="40" t="s">
+      <c r="V22" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="W22" s="40" t="s">
+      <c r="W22" s="42" t="s">
         <v>52</v>
       </c>
       <c r="X22" s="12">
         <v>2</v>
       </c>
-      <c r="Y22" s="46">
+      <c r="Y22" s="48">
         <f t="shared" si="14"/>
         <v>1.13478260869565</v>
       </c>
-      <c r="Z22" s="22">
+      <c r="Z22" s="24">
         <f t="shared" si="10"/>
         <v>-0.0136878125822586</v>
       </c>
-      <c r="AA22" s="22">
+      <c r="AA22" s="24">
         <f t="shared" si="15"/>
         <v>0.0127027027027027</v>
       </c>
-      <c r="AB22" s="47"/>
+      <c r="AB22" s="49"/>
       <c r="AC22" s="12">
         <f t="shared" si="3"/>
         <v>0.899999999999999</v>
       </c>
       <c r="AD22" s="12"/>
-      <c r="AE22" s="47"/>
-      <c r="AF22" s="47"/>
-      <c r="AG22" s="56">
+      <c r="AE22" s="49"/>
+      <c r="AF22" s="49"/>
+      <c r="AG22" s="58">
         <f>IF(AND(H22-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10019,6,FALSE)&gt;0,H22&gt;H21),H22,AG21)</f>
         <v>35.11</v>
       </c>
-      <c r="AH22" s="57"/>
+      <c r="AH22" s="59"/>
       <c r="AI22" s="4">
         <f>(AG22-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10021,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10021,7,FALSE)</f>
         <v>138</v>
       </c>
-      <c r="AJ22" s="47"/>
-      <c r="AK22" s="23">
+      <c r="AJ22" s="49"/>
+      <c r="AK22" s="25">
         <f>($B22-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10020,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10020,6,FALSE)</f>
         <v>0.110880521790691</v>
       </c>
-      <c r="AL22" s="22"/>
-      <c r="AM22" s="62" t="s">
+      <c r="AL22" s="24"/>
+      <c r="AM22" s="64" t="s">
         <v>53</v>
       </c>
       <c r="AN22" s="12"/>
@@ -5523,82 +5529,82 @@
       <c r="I23" s="9">
         <v>41.56</v>
       </c>
-      <c r="J23" s="18">
+      <c r="J23" s="20">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="K23" s="19">
+      <c r="K23" s="21">
         <f t="shared" si="4"/>
         <v>0.0144115292233787</v>
       </c>
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
-      <c r="N23" s="22">
+      <c r="N23" s="24">
         <f t="shared" si="6"/>
         <v>0.6</v>
       </c>
-      <c r="O23" s="22">
+      <c r="O23" s="24">
         <f t="shared" si="8"/>
         <v>0.6</v>
       </c>
-      <c r="P23" s="24">
+      <c r="P23" s="26">
         <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
-      <c r="Q23" s="24">
+      <c r="Q23" s="26">
         <f t="shared" si="9"/>
         <v>0.3</v>
       </c>
-      <c r="R23" s="23">
+      <c r="R23" s="25">
         <f t="shared" si="11"/>
         <v>0.533333333333333</v>
       </c>
-      <c r="S23" s="23">
+      <c r="S23" s="25">
         <f t="shared" si="12"/>
         <v>0.324584895554365</v>
       </c>
-      <c r="T23" s="22">
+      <c r="T23" s="24">
         <f t="shared" si="13"/>
         <v>0.0325998370008149</v>
       </c>
-      <c r="U23" s="39" t="str">
+      <c r="U23" s="41" t="str">
         <f t="shared" si="1"/>
         <v>否</v>
       </c>
-      <c r="V23" s="40" t="s">
+      <c r="V23" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="W23" s="40" t="s">
+      <c r="W23" s="42" t="s">
         <v>52</v>
       </c>
       <c r="X23" s="12">
         <v>2</v>
       </c>
-      <c r="Y23" s="46">
+      <c r="Y23" s="48">
         <f t="shared" si="14"/>
         <v>1.12934782608696</v>
       </c>
-      <c r="Z23" s="22">
+      <c r="Z23" s="24">
         <f t="shared" ref="Z23:Z30" si="16">(B23-B19)/B19</f>
         <v>0.0214995968825584</v>
       </c>
-      <c r="AA23" s="22">
+      <c r="AA23" s="24">
         <f t="shared" si="15"/>
         <v>0.0325998370008149</v>
       </c>
-      <c r="AB23" s="47"/>
+      <c r="AB23" s="49"/>
       <c r="AC23" s="12">
         <f t="shared" si="3"/>
         <v>1.48</v>
       </c>
       <c r="AD23" s="12"/>
-      <c r="AE23" s="47"/>
-      <c r="AF23" s="47"/>
-      <c r="AG23" s="56">
+      <c r="AE23" s="49"/>
+      <c r="AF23" s="49"/>
+      <c r="AG23" s="58">
         <f>IF(AND(H23-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10020,6,FALSE)&gt;0,H23&gt;H22),H23,AG22)</f>
         <v>35.23</v>
       </c>
-      <c r="AH23" s="58">
+      <c r="AH23" s="60">
         <v>36.65</v>
       </c>
       <c r="AI23" s="4">
@@ -5609,18 +5615,18 @@
         <f>(AH23-VLOOKUP([1]交易计划及执行表!$A$23,[1]交易计划及执行表!$A$4:$AF10022,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$23,[1]交易计划及执行表!$A$4:$AF10022,7,FALSE)</f>
         <v>-450</v>
       </c>
-      <c r="AK23" s="23">
+      <c r="AK23" s="25">
         <f>($B23-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10021,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10021,6,FALSE)</f>
         <v>0.12689000889416</v>
       </c>
-      <c r="AL23" s="22">
+      <c r="AL23" s="24">
         <f>($B23-VLOOKUP([1]交易计划及执行表!$A$23,[1]交易计划及执行表!$A$4:$AF10021,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$23,[1]交易计划及执行表!$A$4:$AF10021,6,FALSE)</f>
         <v>-0.022879177377892</v>
       </c>
-      <c r="AM23" s="62" t="s">
+      <c r="AM23" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="AN23" s="21" t="s">
+      <c r="AN23" s="23" t="s">
         <v>53</v>
       </c>
     </row>
@@ -5656,78 +5662,78 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K24" s="19">
+      <c r="K24" s="21">
         <f t="shared" si="4"/>
         <v>0.0234148908182058</v>
       </c>
       <c r="L24" s="12"/>
       <c r="M24" s="12"/>
-      <c r="N24" s="23">
+      <c r="N24" s="25">
         <f t="shared" ref="N24:N30" si="17">COUNTIF(K20:K24,"&gt;0")/5</f>
         <v>0.8</v>
       </c>
-      <c r="O24" s="23">
+      <c r="O24" s="25">
         <f t="shared" si="8"/>
         <v>0.7</v>
       </c>
-      <c r="P24" s="24">
+      <c r="P24" s="26">
         <f t="shared" si="7"/>
         <v>0.4</v>
       </c>
-      <c r="Q24" s="24">
+      <c r="Q24" s="26">
         <f t="shared" si="9"/>
         <v>0.4</v>
       </c>
-      <c r="R24" s="23">
+      <c r="R24" s="25">
         <f t="shared" si="11"/>
         <v>0.6</v>
       </c>
-      <c r="S24" s="23">
+      <c r="S24" s="25">
         <f t="shared" si="12"/>
         <v>0.631717597471022</v>
       </c>
-      <c r="T24" s="22">
+      <c r="T24" s="24">
         <f t="shared" si="13"/>
         <v>0.0769656699889258</v>
       </c>
-      <c r="U24" s="39" t="str">
+      <c r="U24" s="41" t="str">
         <f t="shared" si="1"/>
         <v>否</v>
       </c>
-      <c r="V24" s="40" t="s">
+      <c r="V24" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="W24" s="40" t="s">
+      <c r="W24" s="42" t="s">
         <v>52</v>
       </c>
       <c r="X24" s="12">
         <v>2</v>
       </c>
-      <c r="Y24" s="46">
+      <c r="Y24" s="48">
         <f t="shared" si="14"/>
         <v>1.14565217391304</v>
       </c>
-      <c r="Z24" s="22">
+      <c r="Z24" s="24">
         <f t="shared" si="16"/>
         <v>0.0345744680851063</v>
       </c>
-      <c r="AA24" s="22">
+      <c r="AA24" s="24">
         <f t="shared" si="15"/>
         <v>0.0769656699889258</v>
       </c>
-      <c r="AB24" s="47"/>
+      <c r="AB24" s="49"/>
       <c r="AC24" s="12">
         <f t="shared" si="3"/>
         <v>2.36</v>
       </c>
       <c r="AD24" s="12"/>
-      <c r="AE24" s="47"/>
-      <c r="AF24" s="47"/>
-      <c r="AG24" s="56">
+      <c r="AE24" s="49"/>
+      <c r="AF24" s="49"/>
+      <c r="AG24" s="58">
         <f>IF(AND(H24-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10021,6,FALSE)&gt;0,H24&gt;H23),H24,AG23)</f>
         <v>35.37</v>
       </c>
-      <c r="AH24" s="57">
+      <c r="AH24" s="59">
         <f>IF(AND(H24-VLOOKUP([1]交易计划及执行表!$A$23,[1]交易计划及执行表!$A$4:$AF10021,6,FALSE)&gt;0,H24&gt;H23),H24,AH23)</f>
         <v>36.65</v>
       </c>
@@ -5739,18 +5745,18 @@
         <f>(AH24-VLOOKUP([1]交易计划及执行表!$A$23,[1]交易计划及执行表!$A$4:$AF10023,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$23,[1]交易计划及执行表!$A$4:$AF10023,7,FALSE)</f>
         <v>-450</v>
       </c>
-      <c r="AK24" s="23">
+      <c r="AK24" s="25">
         <f>($B24-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10022,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10022,6,FALSE)</f>
         <v>0.153276015416543</v>
       </c>
-      <c r="AL24" s="22">
+      <c r="AL24" s="24">
         <f>($B24-VLOOKUP([1]交易计划及执行表!$A$23,[1]交易计划及执行表!$A$4:$AF10022,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$23,[1]交易计划及执行表!$A$4:$AF10022,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="AM24" s="62" t="s">
+      <c r="AM24" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="AN24" s="21" t="s">
+      <c r="AN24" s="23" t="s">
         <v>53</v>
       </c>
     </row>
@@ -5786,66 +5792,66 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K25" s="19">
+      <c r="K25" s="21">
         <f t="shared" si="4"/>
         <v>0.0267352185089974</v>
       </c>
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
-      <c r="N25" s="23">
+      <c r="N25" s="25">
         <f t="shared" si="17"/>
         <v>0.8</v>
       </c>
-      <c r="O25" s="23">
+      <c r="O25" s="25">
         <f t="shared" si="8"/>
         <v>0.7</v>
       </c>
-      <c r="P25" s="23">
+      <c r="P25" s="25">
         <f t="shared" si="7"/>
         <v>0.6</v>
       </c>
-      <c r="Q25" s="23">
+      <c r="Q25" s="25">
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="R25" s="23">
+      <c r="R25" s="25">
         <f t="shared" si="11"/>
         <v>0.666666666666667</v>
       </c>
-      <c r="S25" s="23">
+      <c r="S25" s="25">
         <f t="shared" si="12"/>
         <v>1.60237596086653</v>
       </c>
-      <c r="T25" s="22">
+      <c r="T25" s="24">
         <f t="shared" si="13"/>
         <v>0.0999724593775818</v>
       </c>
-      <c r="U25" s="39" t="str">
+      <c r="U25" s="41" t="str">
         <f t="shared" si="1"/>
         <v>否</v>
       </c>
-      <c r="V25" s="40" t="s">
+      <c r="V25" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="W25" s="40" t="s">
+      <c r="W25" s="42" t="s">
         <v>52</v>
       </c>
       <c r="X25" s="12">
         <v>2</v>
       </c>
-      <c r="Y25" s="46">
+      <c r="Y25" s="48">
         <f t="shared" si="14"/>
         <v>1.17255434782609</v>
       </c>
-      <c r="Z25" s="22">
+      <c r="Z25" s="24">
         <f t="shared" si="16"/>
         <v>0.0608233731739708</v>
       </c>
-      <c r="AA25" s="22">
+      <c r="AA25" s="24">
         <f t="shared" si="15"/>
         <v>0.0999724593775818</v>
       </c>
-      <c r="AB25" s="22">
+      <c r="AB25" s="24">
         <f>COUNTIF(K11:K25,"&gt;0")/15</f>
         <v>0.666666666666667</v>
       </c>
@@ -5854,13 +5860,13 @@
         <v>1.86</v>
       </c>
       <c r="AD25" s="12"/>
-      <c r="AE25" s="47"/>
-      <c r="AF25" s="47"/>
-      <c r="AG25" s="56">
+      <c r="AE25" s="49"/>
+      <c r="AF25" s="49"/>
+      <c r="AG25" s="58">
         <f>IF(AND(H25-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10022,6,FALSE)&gt;0,H25&gt;H24),H25,AG24)</f>
         <v>35.55</v>
       </c>
-      <c r="AH25" s="57">
+      <c r="AH25" s="59">
         <f>IF(AND(H25-VLOOKUP([1]交易计划及执行表!$A$23,[1]交易计划及执行表!$A$4:$AF10022,6,FALSE)&gt;0,H25&gt;H24),H25,AH24)</f>
         <v>36.65</v>
       </c>
@@ -5872,18 +5878,18 @@
         <f>(AH25-VLOOKUP([1]交易计划及执行表!$A$23,[1]交易计划及执行表!$A$4:$AF10024,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$23,[1]交易计划及执行表!$A$4:$AF10024,7,FALSE)</f>
         <v>-450</v>
       </c>
-      <c r="AK25" s="23">
+      <c r="AK25" s="25">
         <f>($B25-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10023,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10023,6,FALSE)</f>
         <v>0.18410910168989</v>
       </c>
-      <c r="AL25" s="22">
+      <c r="AL25" s="24">
         <f>($B25-VLOOKUP([1]交易计划及执行表!$A$23,[1]交易计划及执行表!$A$4:$AF10023,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$23,[1]交易计划及执行表!$A$4:$AF10023,6,FALSE)</f>
         <v>0.0267352185089974</v>
       </c>
-      <c r="AM25" s="62" t="s">
+      <c r="AM25" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="AN25" s="21" t="s">
+      <c r="AN25" s="23" t="s">
         <v>53</v>
       </c>
     </row>
@@ -5919,78 +5925,78 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K26" s="19">
+      <c r="K26" s="21">
         <f t="shared" si="4"/>
         <v>0.00125187781672519</v>
       </c>
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
-      <c r="N26" s="23">
+      <c r="N26" s="25">
         <f t="shared" si="17"/>
         <v>0.8</v>
       </c>
-      <c r="O26" s="23">
+      <c r="O26" s="25">
         <f t="shared" si="8"/>
         <v>0.7</v>
       </c>
-      <c r="P26" s="23">
+      <c r="P26" s="25">
         <f t="shared" si="7"/>
         <v>0.8</v>
       </c>
-      <c r="Q26" s="23">
+      <c r="Q26" s="25">
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="R26" s="23">
+      <c r="R26" s="25">
         <f t="shared" ref="R26:R33" si="18">COUNTIF(K12:K26,"&gt;0")/15</f>
         <v>0.666666666666667</v>
       </c>
-      <c r="S26" s="22">
+      <c r="S26" s="24">
         <f t="shared" si="12"/>
         <v>-0.420284938941655</v>
       </c>
-      <c r="T26" s="22">
+      <c r="T26" s="24">
         <f t="shared" si="13"/>
         <v>0.0776071139854487</v>
       </c>
-      <c r="U26" s="39" t="str">
+      <c r="U26" s="41" t="str">
         <f t="shared" si="1"/>
         <v>否</v>
       </c>
-      <c r="V26" s="40" t="s">
+      <c r="V26" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="W26" s="40" t="s">
+      <c r="W26" s="42" t="s">
         <v>52</v>
       </c>
       <c r="X26" s="12">
         <v>2</v>
       </c>
-      <c r="Y26" s="46">
+      <c r="Y26" s="48">
         <f t="shared" si="14"/>
         <v>1.20380434782609</v>
       </c>
-      <c r="Z26" s="22">
+      <c r="Z26" s="24">
         <f t="shared" si="16"/>
         <v>0.067253803042434</v>
       </c>
-      <c r="AA26" s="22">
+      <c r="AA26" s="24">
         <f t="shared" si="15"/>
         <v>0.0776071139854487</v>
       </c>
-      <c r="AB26" s="47"/>
+      <c r="AB26" s="49"/>
       <c r="AC26" s="12">
         <f t="shared" si="3"/>
         <v>0.989999999999995</v>
       </c>
       <c r="AD26" s="12"/>
-      <c r="AE26" s="47"/>
-      <c r="AF26" s="47"/>
-      <c r="AG26" s="56">
+      <c r="AE26" s="49"/>
+      <c r="AF26" s="49"/>
+      <c r="AG26" s="58">
         <f>IF(AND(H26-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10023,6,FALSE)&gt;0,H26&gt;H25),H26,AG25)</f>
         <v>35.72</v>
       </c>
-      <c r="AH26" s="57">
+      <c r="AH26" s="59">
         <f>IF(AND(H26-VLOOKUP([1]交易计划及执行表!$A$23,[1]交易计划及执行表!$A$4:$AF10023,6,FALSE)&gt;0,H26&gt;H25),H26,AH25)</f>
         <v>36.65</v>
       </c>
@@ -6002,18 +6008,18 @@
         <f>(AH26-VLOOKUP([1]交易计划及执行表!$A$23,[1]交易计划及执行表!$A$4:$AF10025,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$23,[1]交易计划及执行表!$A$4:$AF10025,7,FALSE)</f>
         <v>-450</v>
       </c>
-      <c r="AK26" s="23">
+      <c r="AK26" s="25">
         <f>($B26-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10024,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10024,6,FALSE)</f>
         <v>0.185591461606878</v>
       </c>
-      <c r="AL26" s="22">
+      <c r="AL26" s="24">
         <f>($B26-VLOOKUP([1]交易计划及执行表!$A$23,[1]交易计划及执行表!$A$4:$AF10024,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$23,[1]交易计划及执行表!$A$4:$AF10024,6,FALSE)</f>
         <v>0.0280205655526993</v>
       </c>
-      <c r="AM26" s="62" t="s">
+      <c r="AM26" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="AN26" s="21" t="s">
+      <c r="AN26" s="23" t="s">
         <v>53</v>
       </c>
     </row>
@@ -6049,78 +6055,78 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K27" s="20">
+      <c r="K27" s="22">
         <f t="shared" si="4"/>
         <v>0.0702675668917228</v>
       </c>
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
-      <c r="N27" s="23">
+      <c r="N27" s="25">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="O27" s="23">
+      <c r="O27" s="25">
         <f t="shared" si="8"/>
         <v>0.7</v>
       </c>
-      <c r="P27" s="23">
+      <c r="P27" s="25">
         <f t="shared" si="7"/>
         <v>0.8</v>
       </c>
-      <c r="Q27" s="23">
+      <c r="Q27" s="25">
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="R27" s="23">
+      <c r="R27" s="25">
         <f t="shared" si="18"/>
         <v>0.666666666666667</v>
       </c>
-      <c r="S27" s="23">
+      <c r="S27" s="25">
         <f t="shared" si="12"/>
         <v>0.269396551724138</v>
       </c>
-      <c r="T27" s="22">
+      <c r="T27" s="24">
         <f t="shared" si="13"/>
         <v>0.16304347826087</v>
       </c>
-      <c r="U27" s="39" t="str">
+      <c r="U27" s="41" t="str">
         <f t="shared" si="1"/>
         <v>否</v>
       </c>
-      <c r="V27" s="40" t="s">
+      <c r="V27" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="W27" s="40" t="s">
+      <c r="W27" s="42" t="s">
         <v>52</v>
       </c>
       <c r="X27" s="12">
         <v>2</v>
       </c>
-      <c r="Y27" s="46">
+      <c r="Y27" s="48">
         <f t="shared" si="14"/>
         <v>1.2054347826087</v>
       </c>
-      <c r="Z27" s="22">
+      <c r="Z27" s="24">
         <f t="shared" si="16"/>
         <v>0.126019468560905</v>
       </c>
-      <c r="AA27" s="22">
+      <c r="AA27" s="24">
         <f t="shared" si="15"/>
         <v>0.16304347826087</v>
       </c>
-      <c r="AB27" s="47"/>
-      <c r="AC27" s="36">
+      <c r="AB27" s="49"/>
+      <c r="AC27" s="38">
         <f t="shared" si="3"/>
         <v>3.71</v>
       </c>
       <c r="AD27" s="12"/>
-      <c r="AE27" s="47"/>
-      <c r="AF27" s="47"/>
-      <c r="AG27" s="56">
+      <c r="AE27" s="49"/>
+      <c r="AF27" s="49"/>
+      <c r="AG27" s="58">
         <f>IF(AND(H27-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10024,6,FALSE)&gt;0,H27&gt;H26),H27,AG26)</f>
         <v>36</v>
       </c>
-      <c r="AH27" s="57">
+      <c r="AH27" s="59">
         <f>IF(AND(H27-VLOOKUP([1]交易计划及执行表!$A$23,[1]交易计划及执行表!$A$4:$AF10024,6,FALSE)&gt;0,H27&gt;H26),H27,AH26)</f>
         <v>36.65</v>
       </c>
@@ -6132,18 +6138,18 @@
         <f>(AH27-VLOOKUP([1]交易计划及执行表!$A$23,[1]交易计划及执行表!$A$4:$AF10026,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$23,[1]交易计划及执行表!$A$4:$AF10026,7,FALSE)</f>
         <v>-450</v>
       </c>
-      <c r="AK27" s="23">
+      <c r="AK27" s="25">
         <f>($B27-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10025,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10025,6,FALSE)</f>
         <v>0.268900088941595</v>
       </c>
-      <c r="AL27" s="22">
+      <c r="AL27" s="24">
         <f>($B27-VLOOKUP([1]交易计划及执行表!$A$23,[1]交易计划及执行表!$A$4:$AF10025,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$23,[1]交易计划及执行表!$A$4:$AF10025,6,FALSE)</f>
         <v>0.10025706940874</v>
       </c>
-      <c r="AM27" s="62" t="s">
+      <c r="AM27" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="AN27" s="21" t="s">
+      <c r="AN27" s="23" t="s">
         <v>53</v>
       </c>
     </row>
@@ -6179,78 +6185,78 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K28" s="19">
+      <c r="K28" s="21">
         <f t="shared" si="4"/>
         <v>0.0128504672897197</v>
       </c>
       <c r="L28" s="12"/>
       <c r="M28" s="12"/>
-      <c r="N28" s="23">
+      <c r="N28" s="25">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="O28" s="23">
+      <c r="O28" s="25">
         <f t="shared" si="8"/>
         <v>0.8</v>
       </c>
-      <c r="P28" s="23">
+      <c r="P28" s="25">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q28" s="23">
+      <c r="Q28" s="25">
         <f t="shared" si="9"/>
         <v>0.6</v>
       </c>
-      <c r="R28" s="23">
+      <c r="R28" s="25">
         <f t="shared" si="18"/>
         <v>0.733333333333333</v>
       </c>
-      <c r="S28" s="23">
+      <c r="S28" s="25">
         <f t="shared" si="12"/>
         <v>0.973040752351097</v>
       </c>
-      <c r="T28" s="22">
+      <c r="T28" s="24">
         <f t="shared" si="13"/>
         <v>0.177989130434783</v>
       </c>
-      <c r="U28" s="39" t="str">
+      <c r="U28" s="41" t="str">
         <f t="shared" si="1"/>
         <v>否</v>
       </c>
-      <c r="V28" s="40" t="s">
+      <c r="V28" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="W28" s="40" t="s">
+      <c r="W28" s="42" t="s">
         <v>52</v>
       </c>
       <c r="X28" s="12">
         <v>2</v>
       </c>
-      <c r="Y28" s="46">
+      <c r="Y28" s="48">
         <f t="shared" si="14"/>
         <v>1.29021739130435</v>
       </c>
-      <c r="Z28" s="22">
+      <c r="Z28" s="24">
         <f t="shared" si="16"/>
         <v>0.11439588688946</v>
       </c>
-      <c r="AA28" s="22">
+      <c r="AA28" s="24">
         <f t="shared" si="15"/>
         <v>0.177989130434783</v>
       </c>
-      <c r="AB28" s="47"/>
+      <c r="AB28" s="49"/>
       <c r="AC28" s="12">
         <f t="shared" si="3"/>
         <v>1.66</v>
       </c>
       <c r="AD28" s="12"/>
-      <c r="AE28" s="47"/>
-      <c r="AF28" s="47"/>
-      <c r="AG28" s="56">
+      <c r="AE28" s="49"/>
+      <c r="AF28" s="49"/>
+      <c r="AG28" s="58">
         <f>IF(AND(H28-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10025,6,FALSE)&gt;0,H28&gt;H27),H28,AG27)</f>
         <v>36.29</v>
       </c>
-      <c r="AH28" s="57">
+      <c r="AH28" s="59">
         <f>IF(AND(H28-VLOOKUP([1]交易计划及执行表!$A$23,[1]交易计划及执行表!$A$4:$AF10025,6,FALSE)&gt;0,H28&gt;H27),H28,AH27)</f>
         <v>36.65</v>
       </c>
@@ -6262,18 +6268,18 @@
         <f>(AH28-VLOOKUP([1]交易计划及执行表!$A$23,[1]交易计划及执行表!$A$4:$AF10027,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$23,[1]交易计划及执行表!$A$4:$AF10027,7,FALSE)</f>
         <v>-450</v>
       </c>
-      <c r="AK28" s="23">
+      <c r="AK28" s="25">
         <f>($B28-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10026,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10026,6,FALSE)</f>
         <v>0.285206048028461</v>
       </c>
-      <c r="AL28" s="23">
+      <c r="AL28" s="25">
         <f>($B28-VLOOKUP([1]交易计划及执行表!$A$23,[1]交易计划及执行表!$A$4:$AF10026,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$23,[1]交易计划及执行表!$A$4:$AF10026,6,FALSE)</f>
         <v>0.11439588688946</v>
       </c>
-      <c r="AM28" s="62" t="s">
+      <c r="AM28" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="AN28" s="18" t="s">
+      <c r="AN28" s="20" t="s">
         <v>52</v>
       </c>
     </row>
@@ -6290,7 +6296,7 @@
       <c r="D29" s="9">
         <v>45.9</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="13">
         <v>42.77</v>
       </c>
       <c r="F29" s="12">
@@ -6305,87 +6311,87 @@
       <c r="I29" s="9">
         <v>48.09</v>
       </c>
-      <c r="J29" s="18">
+      <c r="J29" s="20">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="K29" s="19">
+      <c r="K29" s="21">
         <f t="shared" si="4"/>
         <v>0.00738177623990773</v>
       </c>
       <c r="L29" s="12"/>
       <c r="M29" s="12"/>
-      <c r="N29" s="23">
+      <c r="N29" s="25">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="O29" s="23">
+      <c r="O29" s="25">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
-      <c r="P29" s="23">
+      <c r="P29" s="25">
         <f t="shared" si="7"/>
         <v>0.8</v>
       </c>
-      <c r="Q29" s="23">
+      <c r="Q29" s="25">
         <f t="shared" si="9"/>
         <v>0.6</v>
       </c>
-      <c r="R29" s="23">
+      <c r="R29" s="25">
         <f t="shared" si="18"/>
         <v>0.8</v>
       </c>
-      <c r="S29" s="23">
+      <c r="S29" s="25">
         <f t="shared" si="12"/>
         <v>2.09401709401709</v>
       </c>
-      <c r="T29" s="22">
+      <c r="T29" s="24">
         <f t="shared" si="13"/>
         <v>0.177088948787062</v>
       </c>
-      <c r="U29" s="39" t="str">
+      <c r="U29" s="41" t="str">
         <f t="shared" si="1"/>
         <v>否</v>
       </c>
-      <c r="V29" s="40" t="s">
+      <c r="V29" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="W29" s="40" t="s">
+      <c r="W29" s="42" t="s">
         <v>52</v>
       </c>
       <c r="X29" s="12">
         <v>2</v>
       </c>
-      <c r="Y29" s="46">
+      <c r="Y29" s="48">
         <f t="shared" si="14"/>
         <v>1.30679347826087</v>
       </c>
-      <c r="Z29" s="22">
+      <c r="Z29" s="24">
         <f t="shared" si="16"/>
         <v>0.0933900851276916</v>
       </c>
-      <c r="AA29" s="22">
+      <c r="AA29" s="24">
         <f t="shared" si="15"/>
         <v>0.177088948787062</v>
       </c>
-      <c r="AB29" s="42">
+      <c r="AB29" s="44">
         <f>COUNTIF(K14:K29,"&gt;0")/15</f>
         <v>0.8</v>
       </c>
-      <c r="AC29" s="36">
+      <c r="AC29" s="38">
         <f t="shared" si="3"/>
         <v>3.13</v>
       </c>
       <c r="AD29" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="AE29" s="47"/>
-      <c r="AF29" s="47"/>
-      <c r="AG29" s="56">
+      <c r="AE29" s="49"/>
+      <c r="AF29" s="49"/>
+      <c r="AG29" s="58">
         <f>IF(AND(H29-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10026,6,FALSE)&gt;0,H29&gt;H28),H29,AG28)</f>
         <v>36.58</v>
       </c>
-      <c r="AH29" s="57">
+      <c r="AH29" s="59">
         <f>IF(AND(H29-VLOOKUP([1]交易计划及执行表!$A$23,[1]交易计划及执行表!$A$4:$AF10026,6,FALSE)&gt;0,H29&gt;H28),H29,AH28)</f>
         <v>36.65</v>
       </c>
@@ -6397,12 +6403,12 @@
         <f>(AH29-VLOOKUP([1]交易计划及执行表!$A$23,[1]交易计划及执行表!$A$4:$AF10028,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$23,[1]交易计划及执行表!$A$4:$AF10028,7,FALSE)</f>
         <v>-450</v>
       </c>
-      <c r="AK29" s="23">
+      <c r="AK29" s="25">
         <f>($B29-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10027,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10027,6,FALSE)</f>
         <v>0.294693151497184</v>
       </c>
-      <c r="AL29" s="22"/>
-      <c r="AM29" s="62" t="s">
+      <c r="AL29" s="24"/>
+      <c r="AM29" s="64" t="s">
         <v>53</v>
       </c>
       <c r="AN29" s="12"/>
@@ -6420,7 +6426,7 @@
       <c r="D30" s="11">
         <v>45.45</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="14">
         <v>42.71</v>
       </c>
       <c r="F30" s="11">
@@ -6435,96 +6441,96 @@
       <c r="I30" s="12">
         <v>48.44</v>
       </c>
-      <c r="J30" s="18">
+      <c r="J30" s="20">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="K30" s="19">
+      <c r="K30" s="21">
         <f t="shared" si="4"/>
         <v>-0.00366384245477453</v>
       </c>
       <c r="L30" s="12"/>
       <c r="M30" s="12"/>
-      <c r="N30" s="23">
+      <c r="N30" s="25">
         <f t="shared" si="17"/>
         <v>0.8</v>
       </c>
-      <c r="O30" s="23">
+      <c r="O30" s="25">
         <f t="shared" si="8"/>
         <v>0.8</v>
       </c>
-      <c r="P30" s="23">
+      <c r="P30" s="25">
         <f t="shared" si="7"/>
         <v>0.6</v>
       </c>
-      <c r="Q30" s="23">
+      <c r="Q30" s="25">
         <f t="shared" si="9"/>
         <v>0.6</v>
       </c>
-      <c r="R30" s="23">
+      <c r="R30" s="25">
         <f t="shared" si="18"/>
         <v>0.733333333333333</v>
       </c>
-      <c r="S30" s="22">
+      <c r="S30" s="24">
         <f t="shared" si="12"/>
         <v>0.0301540478531628</v>
       </c>
-      <c r="T30" s="22">
+      <c r="T30" s="24">
         <f t="shared" si="13"/>
         <v>0.134550195567145</v>
       </c>
-      <c r="U30" s="39" t="str">
+      <c r="U30" s="41" t="str">
         <f t="shared" si="1"/>
         <v>否</v>
       </c>
-      <c r="V30" s="40" t="s">
+      <c r="V30" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="W30" s="40" t="s">
+      <c r="W30" s="42" t="s">
         <v>52</v>
       </c>
       <c r="X30" s="12">
         <v>2</v>
       </c>
-      <c r="Y30" s="46">
+      <c r="Y30" s="48">
         <f t="shared" si="14"/>
         <v>1.31630434782609</v>
       </c>
-      <c r="Z30" s="22">
+      <c r="Z30" s="24">
         <f t="shared" si="16"/>
         <v>0.0880220055013752</v>
       </c>
-      <c r="AA30" s="22">
+      <c r="AA30" s="24">
         <f t="shared" si="15"/>
         <v>0.134550195567145</v>
       </c>
-      <c r="AB30" s="42">
+      <c r="AB30" s="44">
         <f>COUNTIF(K15:K30,"&gt;0")/15</f>
         <v>0.8</v>
       </c>
-      <c r="AC30" s="33">
+      <c r="AC30" s="35">
         <f t="shared" si="3"/>
         <v>2.74</v>
       </c>
       <c r="AD30" s="12"/>
-      <c r="AE30" s="47"/>
-      <c r="AF30" s="47"/>
-      <c r="AG30" s="56">
+      <c r="AE30" s="49"/>
+      <c r="AF30" s="49"/>
+      <c r="AG30" s="58">
         <f>IF(AND(H30-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10027,6,FALSE)&gt;0,H30&gt;H29),H30,AG29)</f>
         <v>36.85</v>
       </c>
-      <c r="AH30" s="57"/>
+      <c r="AH30" s="59"/>
       <c r="AI30" s="4">
         <f>(AG30-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10029,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10029,7,FALSE)</f>
         <v>312</v>
       </c>
-      <c r="AJ30" s="47"/>
-      <c r="AK30" s="23">
+      <c r="AJ30" s="49"/>
+      <c r="AK30" s="25">
         <f>($B30-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10028,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10028,6,FALSE)</f>
         <v>0.289949599762822</v>
       </c>
-      <c r="AL30" s="22"/>
-      <c r="AM30" s="62" t="s">
+      <c r="AL30" s="24"/>
+      <c r="AM30" s="64" t="s">
         <v>53</v>
       </c>
       <c r="AN30" s="12"/>
@@ -6542,7 +6548,7 @@
       <c r="D31" s="11">
         <v>43.97</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="14">
         <v>41.6</v>
       </c>
       <c r="F31" s="11">
@@ -6557,96 +6563,96 @@
       <c r="I31" s="12">
         <v>48.26</v>
       </c>
-      <c r="J31" s="18">
+      <c r="J31" s="20">
         <f>IF(B31&gt;(D31-(D31-E31)/2),1,-1)</f>
         <v>-1</v>
       </c>
-      <c r="K31" s="19">
+      <c r="K31" s="21">
         <f>(B31-B30)/B30</f>
         <v>-0.0287290278096989</v>
       </c>
       <c r="L31" s="12"/>
       <c r="M31" s="12"/>
-      <c r="N31" s="24">
+      <c r="N31" s="26">
         <f>COUNTIF(K27:K31,"&gt;0")/5</f>
         <v>0.6</v>
       </c>
-      <c r="O31" s="23">
+      <c r="O31" s="25">
         <f>COUNTIF(K22:K31,"&gt;0")/10</f>
         <v>0.7</v>
       </c>
-      <c r="P31" s="24">
+      <c r="P31" s="26">
         <f>COUNTIF(J27:J31,"&gt;0")/5</f>
         <v>0.4</v>
       </c>
-      <c r="Q31" s="23">
+      <c r="Q31" s="25">
         <f>COUNTIF(J22:J31,"&gt;0")/10</f>
         <v>0.6</v>
       </c>
-      <c r="R31" s="23">
+      <c r="R31" s="25">
         <f>COUNTIF(K17:K31,"&gt;0")/15</f>
         <v>0.666666666666667</v>
       </c>
-      <c r="S31" s="23">
+      <c r="S31" s="25">
         <f>(F31-F17)/F17</f>
         <v>0.608384945212006</v>
       </c>
-      <c r="T31" s="22">
+      <c r="T31" s="24">
         <f>(B31-B17)/B17</f>
         <v>0.101381287464165</v>
       </c>
-      <c r="U31" s="39" t="str">
+      <c r="U31" s="41" t="str">
         <f>IF(B31&lt;G31,"是","否")</f>
         <v>否</v>
       </c>
-      <c r="V31" s="40" t="s">
+      <c r="V31" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="W31" s="40" t="s">
+      <c r="W31" s="42" t="s">
         <v>52</v>
       </c>
       <c r="X31" s="12">
         <v>2</v>
       </c>
-      <c r="Y31" s="46">
+      <c r="Y31" s="48">
         <f>$I31/$I$6</f>
         <v>1.31141304347826</v>
       </c>
-      <c r="Z31" s="22">
+      <c r="Z31" s="24">
         <f>(B31-B27)/B27</f>
         <v>-0.0126168224299065</v>
       </c>
-      <c r="AA31" s="22">
+      <c r="AA31" s="24">
         <f>(B31-B17)/B17</f>
         <v>0.101381287464165</v>
       </c>
-      <c r="AB31" s="42">
+      <c r="AB31" s="44">
         <f>COUNTIF(K16:K31,"&gt;0")/15</f>
         <v>0.733333333333333</v>
       </c>
-      <c r="AC31" s="33">
+      <c r="AC31" s="35">
         <f>D31-E31</f>
         <v>2.37</v>
       </c>
       <c r="AD31" s="12"/>
-      <c r="AE31" s="47"/>
-      <c r="AF31" s="47"/>
-      <c r="AG31" s="56">
+      <c r="AE31" s="49"/>
+      <c r="AF31" s="49"/>
+      <c r="AG31" s="58">
         <f>IF(AND(H31-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10028,6,FALSE)&gt;0,H31&gt;H30),H31,AG30)</f>
         <v>37.06</v>
       </c>
-      <c r="AH31" s="57"/>
+      <c r="AH31" s="59"/>
       <c r="AI31" s="4">
         <f>(AG31-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10030,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10030,7,FALSE)</f>
         <v>333.000000000001</v>
       </c>
-      <c r="AJ31" s="47"/>
-      <c r="AK31" s="23">
+      <c r="AJ31" s="49"/>
+      <c r="AK31" s="25">
         <f>($B31-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10029,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10029,6,FALSE)</f>
         <v>0.252890601838126</v>
       </c>
-      <c r="AL31" s="22"/>
-      <c r="AM31" s="62" t="s">
+      <c r="AL31" s="24"/>
+      <c r="AM31" s="64" t="s">
         <v>53</v>
       </c>
       <c r="AN31" s="12"/>
@@ -6671,26 +6677,26 @@
       <c r="O32" s="12"/>
       <c r="P32" s="12"/>
       <c r="Q32" s="12"/>
-      <c r="R32" s="24"/>
-      <c r="S32" s="24"/>
-      <c r="T32" s="33"/>
+      <c r="R32" s="26"/>
+      <c r="S32" s="26"/>
+      <c r="T32" s="35"/>
       <c r="U32" s="12"/>
       <c r="V32" s="12"/>
       <c r="W32" s="12"/>
       <c r="X32" s="12"/>
       <c r="Y32" s="12"/>
-      <c r="Z32" s="22"/>
-      <c r="AA32" s="47"/>
-      <c r="AB32" s="47"/>
-      <c r="AC32" s="47"/>
+      <c r="Z32" s="24"/>
+      <c r="AA32" s="49"/>
+      <c r="AB32" s="49"/>
+      <c r="AC32" s="49"/>
       <c r="AD32" s="12"/>
-      <c r="AE32" s="47"/>
-      <c r="AF32" s="47"/>
-      <c r="AG32" s="59"/>
-      <c r="AH32" s="57"/>
-      <c r="AJ32" s="47"/>
-      <c r="AK32" s="22"/>
-      <c r="AL32" s="22"/>
+      <c r="AE32" s="49"/>
+      <c r="AF32" s="49"/>
+      <c r="AG32" s="61"/>
+      <c r="AH32" s="59"/>
+      <c r="AJ32" s="49"/>
+      <c r="AK32" s="24"/>
+      <c r="AL32" s="24"/>
       <c r="AM32" s="12"/>
       <c r="AN32" s="12"/>
     </row>
@@ -6714,26 +6720,26 @@
       <c r="O33" s="12"/>
       <c r="P33" s="12"/>
       <c r="Q33" s="12"/>
-      <c r="R33" s="24"/>
-      <c r="S33" s="24"/>
-      <c r="T33" s="24"/>
+      <c r="R33" s="26"/>
+      <c r="S33" s="26"/>
+      <c r="T33" s="26"/>
       <c r="U33" s="12"/>
       <c r="V33" s="12"/>
       <c r="W33" s="12"/>
       <c r="X33" s="12"/>
       <c r="Y33" s="12"/>
-      <c r="Z33" s="22"/>
-      <c r="AA33" s="47"/>
-      <c r="AB33" s="47"/>
-      <c r="AC33" s="47"/>
+      <c r="Z33" s="24"/>
+      <c r="AA33" s="49"/>
+      <c r="AB33" s="49"/>
+      <c r="AC33" s="49"/>
       <c r="AD33" s="12"/>
-      <c r="AE33" s="47"/>
-      <c r="AF33" s="47"/>
-      <c r="AG33" s="59"/>
-      <c r="AH33" s="57"/>
-      <c r="AJ33" s="47"/>
-      <c r="AK33" s="22"/>
-      <c r="AL33" s="22"/>
+      <c r="AE33" s="49"/>
+      <c r="AF33" s="49"/>
+      <c r="AG33" s="61"/>
+      <c r="AH33" s="59"/>
+      <c r="AJ33" s="49"/>
+      <c r="AK33" s="24"/>
+      <c r="AL33" s="24"/>
       <c r="AM33" s="12"/>
       <c r="AN33" s="12"/>
     </row>
@@ -6758,25 +6764,25 @@
       <c r="P34" s="12"/>
       <c r="Q34" s="12"/>
       <c r="R34" s="12"/>
-      <c r="S34" s="22"/>
+      <c r="S34" s="24"/>
       <c r="T34" s="12"/>
       <c r="U34" s="12"/>
       <c r="V34" s="12"/>
       <c r="W34" s="12"/>
       <c r="X34" s="12"/>
       <c r="Y34" s="12"/>
-      <c r="Z34" s="22"/>
-      <c r="AA34" s="47"/>
-      <c r="AB34" s="47"/>
-      <c r="AC34" s="47"/>
+      <c r="Z34" s="24"/>
+      <c r="AA34" s="49"/>
+      <c r="AB34" s="49"/>
+      <c r="AC34" s="49"/>
       <c r="AD34" s="12"/>
-      <c r="AE34" s="47"/>
-      <c r="AF34" s="47"/>
-      <c r="AG34" s="59"/>
-      <c r="AH34" s="57"/>
-      <c r="AJ34" s="47"/>
-      <c r="AK34" s="22"/>
-      <c r="AL34" s="22"/>
+      <c r="AE34" s="49"/>
+      <c r="AF34" s="49"/>
+      <c r="AG34" s="61"/>
+      <c r="AH34" s="59"/>
+      <c r="AJ34" s="49"/>
+      <c r="AK34" s="24"/>
+      <c r="AL34" s="24"/>
       <c r="AM34" s="12"/>
       <c r="AN34" s="12"/>
     </row>
@@ -6801,25 +6807,25 @@
       <c r="P35" s="12"/>
       <c r="Q35" s="12"/>
       <c r="R35" s="12"/>
-      <c r="S35" s="22"/>
+      <c r="S35" s="24"/>
       <c r="T35" s="12"/>
       <c r="U35" s="12"/>
       <c r="V35" s="12"/>
       <c r="W35" s="12"/>
       <c r="X35" s="12"/>
       <c r="Y35" s="12"/>
-      <c r="Z35" s="22"/>
-      <c r="AA35" s="47"/>
-      <c r="AB35" s="47"/>
-      <c r="AC35" s="47"/>
+      <c r="Z35" s="24"/>
+      <c r="AA35" s="49"/>
+      <c r="AB35" s="49"/>
+      <c r="AC35" s="49"/>
       <c r="AD35" s="12"/>
-      <c r="AE35" s="47"/>
-      <c r="AF35" s="47"/>
-      <c r="AG35" s="59"/>
-      <c r="AH35" s="57"/>
-      <c r="AJ35" s="47"/>
-      <c r="AK35" s="22"/>
-      <c r="AL35" s="22"/>
+      <c r="AE35" s="49"/>
+      <c r="AF35" s="49"/>
+      <c r="AG35" s="61"/>
+      <c r="AH35" s="59"/>
+      <c r="AJ35" s="49"/>
+      <c r="AK35" s="24"/>
+      <c r="AL35" s="24"/>
       <c r="AM35" s="12"/>
       <c r="AN35" s="12"/>
     </row>
@@ -6844,25 +6850,25 @@
       <c r="P36" s="12"/>
       <c r="Q36" s="12"/>
       <c r="R36" s="12"/>
-      <c r="S36" s="22"/>
+      <c r="S36" s="24"/>
       <c r="T36" s="12"/>
       <c r="U36" s="12"/>
       <c r="V36" s="12"/>
       <c r="W36" s="12"/>
       <c r="X36" s="12"/>
       <c r="Y36" s="12"/>
-      <c r="Z36" s="22"/>
-      <c r="AA36" s="47"/>
-      <c r="AB36" s="47"/>
-      <c r="AC36" s="47"/>
+      <c r="Z36" s="24"/>
+      <c r="AA36" s="49"/>
+      <c r="AB36" s="49"/>
+      <c r="AC36" s="49"/>
       <c r="AD36" s="12"/>
-      <c r="AE36" s="47"/>
-      <c r="AF36" s="47"/>
-      <c r="AG36" s="59"/>
-      <c r="AH36" s="57"/>
-      <c r="AJ36" s="47"/>
-      <c r="AK36" s="22"/>
-      <c r="AL36" s="22"/>
+      <c r="AE36" s="49"/>
+      <c r="AF36" s="49"/>
+      <c r="AG36" s="61"/>
+      <c r="AH36" s="59"/>
+      <c r="AJ36" s="49"/>
+      <c r="AK36" s="24"/>
+      <c r="AL36" s="24"/>
       <c r="AM36" s="12"/>
       <c r="AN36" s="12"/>
     </row>
@@ -6887,25 +6893,25 @@
       <c r="P37" s="12"/>
       <c r="Q37" s="12"/>
       <c r="R37" s="12"/>
-      <c r="S37" s="22"/>
+      <c r="S37" s="24"/>
       <c r="T37" s="12"/>
       <c r="U37" s="12"/>
       <c r="V37" s="12"/>
       <c r="W37" s="12"/>
       <c r="X37" s="12"/>
       <c r="Y37" s="12"/>
-      <c r="Z37" s="22"/>
-      <c r="AA37" s="47"/>
-      <c r="AB37" s="47"/>
-      <c r="AC37" s="47"/>
+      <c r="Z37" s="24"/>
+      <c r="AA37" s="49"/>
+      <c r="AB37" s="49"/>
+      <c r="AC37" s="49"/>
       <c r="AD37" s="12"/>
-      <c r="AE37" s="47"/>
-      <c r="AF37" s="47"/>
-      <c r="AG37" s="59"/>
-      <c r="AH37" s="57"/>
-      <c r="AJ37" s="47"/>
-      <c r="AK37" s="22"/>
-      <c r="AL37" s="22"/>
+      <c r="AE37" s="49"/>
+      <c r="AF37" s="49"/>
+      <c r="AG37" s="61"/>
+      <c r="AH37" s="59"/>
+      <c r="AJ37" s="49"/>
+      <c r="AK37" s="24"/>
+      <c r="AL37" s="24"/>
       <c r="AM37" s="12"/>
       <c r="AN37" s="12"/>
     </row>
@@ -6930,25 +6936,25 @@
       <c r="P38" s="12"/>
       <c r="Q38" s="12"/>
       <c r="R38" s="12"/>
-      <c r="S38" s="22"/>
+      <c r="S38" s="24"/>
       <c r="T38" s="12"/>
       <c r="U38" s="12"/>
       <c r="V38" s="12"/>
       <c r="W38" s="12"/>
       <c r="X38" s="12"/>
       <c r="Y38" s="12"/>
-      <c r="Z38" s="22"/>
-      <c r="AA38" s="47"/>
-      <c r="AB38" s="47"/>
-      <c r="AC38" s="47"/>
+      <c r="Z38" s="24"/>
+      <c r="AA38" s="49"/>
+      <c r="AB38" s="49"/>
+      <c r="AC38" s="49"/>
       <c r="AD38" s="12"/>
-      <c r="AE38" s="47"/>
-      <c r="AF38" s="47"/>
-      <c r="AG38" s="59"/>
-      <c r="AH38" s="57"/>
-      <c r="AJ38" s="47"/>
-      <c r="AK38" s="22"/>
-      <c r="AL38" s="22"/>
+      <c r="AE38" s="49"/>
+      <c r="AF38" s="49"/>
+      <c r="AG38" s="61"/>
+      <c r="AH38" s="59"/>
+      <c r="AJ38" s="49"/>
+      <c r="AK38" s="24"/>
+      <c r="AL38" s="24"/>
       <c r="AM38" s="12"/>
       <c r="AN38" s="12"/>
     </row>
@@ -6973,25 +6979,25 @@
       <c r="P39" s="12"/>
       <c r="Q39" s="12"/>
       <c r="R39" s="12"/>
-      <c r="S39" s="22"/>
+      <c r="S39" s="24"/>
       <c r="T39" s="12"/>
       <c r="U39" s="12"/>
       <c r="V39" s="12"/>
       <c r="W39" s="12"/>
       <c r="X39" s="12"/>
       <c r="Y39" s="12"/>
-      <c r="Z39" s="22"/>
-      <c r="AA39" s="47"/>
-      <c r="AB39" s="47"/>
-      <c r="AC39" s="47"/>
+      <c r="Z39" s="24"/>
+      <c r="AA39" s="49"/>
+      <c r="AB39" s="49"/>
+      <c r="AC39" s="49"/>
       <c r="AD39" s="12"/>
-      <c r="AE39" s="47"/>
-      <c r="AF39" s="47"/>
-      <c r="AG39" s="59"/>
-      <c r="AH39" s="57"/>
-      <c r="AJ39" s="47"/>
-      <c r="AK39" s="22"/>
-      <c r="AL39" s="22"/>
+      <c r="AE39" s="49"/>
+      <c r="AF39" s="49"/>
+      <c r="AG39" s="61"/>
+      <c r="AH39" s="59"/>
+      <c r="AJ39" s="49"/>
+      <c r="AK39" s="24"/>
+      <c r="AL39" s="24"/>
       <c r="AM39" s="12"/>
       <c r="AN39" s="12"/>
     </row>
@@ -7016,25 +7022,25 @@
       <c r="P40" s="12"/>
       <c r="Q40" s="12"/>
       <c r="R40" s="12"/>
-      <c r="S40" s="22"/>
+      <c r="S40" s="24"/>
       <c r="T40" s="12"/>
       <c r="U40" s="12"/>
       <c r="V40" s="12"/>
       <c r="W40" s="12"/>
       <c r="X40" s="12"/>
       <c r="Y40" s="12"/>
-      <c r="Z40" s="22"/>
-      <c r="AA40" s="47"/>
-      <c r="AB40" s="47"/>
-      <c r="AC40" s="47"/>
+      <c r="Z40" s="24"/>
+      <c r="AA40" s="49"/>
+      <c r="AB40" s="49"/>
+      <c r="AC40" s="49"/>
       <c r="AD40" s="12"/>
-      <c r="AE40" s="47"/>
-      <c r="AF40" s="47"/>
-      <c r="AG40" s="59"/>
-      <c r="AH40" s="57"/>
-      <c r="AJ40" s="47"/>
-      <c r="AK40" s="22"/>
-      <c r="AL40" s="22"/>
+      <c r="AE40" s="49"/>
+      <c r="AF40" s="49"/>
+      <c r="AG40" s="61"/>
+      <c r="AH40" s="59"/>
+      <c r="AJ40" s="49"/>
+      <c r="AK40" s="24"/>
+      <c r="AL40" s="24"/>
       <c r="AM40" s="12"/>
       <c r="AN40" s="12"/>
     </row>
@@ -7059,25 +7065,25 @@
       <c r="P41" s="12"/>
       <c r="Q41" s="12"/>
       <c r="R41" s="12"/>
-      <c r="S41" s="22"/>
+      <c r="S41" s="24"/>
       <c r="T41" s="12"/>
       <c r="U41" s="12"/>
       <c r="V41" s="12"/>
       <c r="W41" s="12"/>
       <c r="X41" s="12"/>
       <c r="Y41" s="12"/>
-      <c r="Z41" s="22"/>
-      <c r="AA41" s="47"/>
-      <c r="AB41" s="47"/>
-      <c r="AC41" s="47"/>
+      <c r="Z41" s="24"/>
+      <c r="AA41" s="49"/>
+      <c r="AB41" s="49"/>
+      <c r="AC41" s="49"/>
       <c r="AD41" s="12"/>
-      <c r="AE41" s="47"/>
-      <c r="AF41" s="47"/>
-      <c r="AG41" s="59"/>
-      <c r="AH41" s="57"/>
-      <c r="AJ41" s="47"/>
-      <c r="AK41" s="22"/>
-      <c r="AL41" s="22"/>
+      <c r="AE41" s="49"/>
+      <c r="AF41" s="49"/>
+      <c r="AG41" s="61"/>
+      <c r="AH41" s="59"/>
+      <c r="AJ41" s="49"/>
+      <c r="AK41" s="24"/>
+      <c r="AL41" s="24"/>
       <c r="AM41" s="12"/>
       <c r="AN41" s="12"/>
     </row>
@@ -7102,25 +7108,25 @@
       <c r="P42" s="12"/>
       <c r="Q42" s="12"/>
       <c r="R42" s="12"/>
-      <c r="S42" s="22"/>
+      <c r="S42" s="24"/>
       <c r="T42" s="12"/>
       <c r="U42" s="12"/>
       <c r="V42" s="12"/>
       <c r="W42" s="12"/>
       <c r="X42" s="12"/>
       <c r="Y42" s="12"/>
-      <c r="Z42" s="22"/>
-      <c r="AA42" s="47"/>
-      <c r="AB42" s="47"/>
-      <c r="AC42" s="47"/>
+      <c r="Z42" s="24"/>
+      <c r="AA42" s="49"/>
+      <c r="AB42" s="49"/>
+      <c r="AC42" s="49"/>
       <c r="AD42" s="12"/>
-      <c r="AE42" s="47"/>
-      <c r="AF42" s="47"/>
-      <c r="AG42" s="59"/>
-      <c r="AH42" s="57"/>
-      <c r="AJ42" s="47"/>
-      <c r="AK42" s="22"/>
-      <c r="AL42" s="22"/>
+      <c r="AE42" s="49"/>
+      <c r="AF42" s="49"/>
+      <c r="AG42" s="61"/>
+      <c r="AH42" s="59"/>
+      <c r="AJ42" s="49"/>
+      <c r="AK42" s="24"/>
+      <c r="AL42" s="24"/>
       <c r="AM42" s="12"/>
       <c r="AN42" s="12"/>
     </row>
@@ -7145,25 +7151,25 @@
       <c r="P43" s="12"/>
       <c r="Q43" s="12"/>
       <c r="R43" s="12"/>
-      <c r="S43" s="22"/>
+      <c r="S43" s="24"/>
       <c r="T43" s="12"/>
       <c r="U43" s="12"/>
       <c r="V43" s="12"/>
       <c r="W43" s="12"/>
       <c r="X43" s="12"/>
       <c r="Y43" s="12"/>
-      <c r="Z43" s="22"/>
-      <c r="AA43" s="47"/>
-      <c r="AB43" s="47"/>
-      <c r="AC43" s="47"/>
+      <c r="Z43" s="24"/>
+      <c r="AA43" s="49"/>
+      <c r="AB43" s="49"/>
+      <c r="AC43" s="49"/>
       <c r="AD43" s="12"/>
-      <c r="AE43" s="47"/>
-      <c r="AF43" s="47"/>
-      <c r="AG43" s="59"/>
-      <c r="AH43" s="57"/>
-      <c r="AJ43" s="47"/>
-      <c r="AK43" s="22"/>
-      <c r="AL43" s="22"/>
+      <c r="AE43" s="49"/>
+      <c r="AF43" s="49"/>
+      <c r="AG43" s="61"/>
+      <c r="AH43" s="59"/>
+      <c r="AJ43" s="49"/>
+      <c r="AK43" s="24"/>
+      <c r="AL43" s="24"/>
       <c r="AM43" s="12"/>
       <c r="AN43" s="12"/>
     </row>
@@ -7188,25 +7194,25 @@
       <c r="P44" s="12"/>
       <c r="Q44" s="12"/>
       <c r="R44" s="12"/>
-      <c r="S44" s="22"/>
+      <c r="S44" s="24"/>
       <c r="T44" s="12"/>
       <c r="U44" s="12"/>
       <c r="V44" s="12"/>
       <c r="W44" s="12"/>
       <c r="X44" s="12"/>
       <c r="Y44" s="12"/>
-      <c r="Z44" s="22"/>
-      <c r="AA44" s="47"/>
-      <c r="AB44" s="47"/>
-      <c r="AC44" s="47"/>
+      <c r="Z44" s="24"/>
+      <c r="AA44" s="49"/>
+      <c r="AB44" s="49"/>
+      <c r="AC44" s="49"/>
       <c r="AD44" s="12"/>
-      <c r="AE44" s="47"/>
-      <c r="AF44" s="47"/>
-      <c r="AG44" s="59"/>
-      <c r="AH44" s="57"/>
-      <c r="AJ44" s="47"/>
-      <c r="AK44" s="22"/>
-      <c r="AL44" s="22"/>
+      <c r="AE44" s="49"/>
+      <c r="AF44" s="49"/>
+      <c r="AG44" s="61"/>
+      <c r="AH44" s="59"/>
+      <c r="AJ44" s="49"/>
+      <c r="AK44" s="24"/>
+      <c r="AL44" s="24"/>
       <c r="AM44" s="12"/>
       <c r="AN44" s="12"/>
     </row>
@@ -7231,25 +7237,25 @@
       <c r="P45" s="12"/>
       <c r="Q45" s="12"/>
       <c r="R45" s="12"/>
-      <c r="S45" s="22"/>
+      <c r="S45" s="24"/>
       <c r="T45" s="12"/>
       <c r="U45" s="12"/>
       <c r="V45" s="12"/>
       <c r="W45" s="12"/>
       <c r="X45" s="12"/>
       <c r="Y45" s="12"/>
-      <c r="Z45" s="22"/>
-      <c r="AA45" s="47"/>
-      <c r="AB45" s="47"/>
-      <c r="AC45" s="47"/>
+      <c r="Z45" s="24"/>
+      <c r="AA45" s="49"/>
+      <c r="AB45" s="49"/>
+      <c r="AC45" s="49"/>
       <c r="AD45" s="12"/>
-      <c r="AE45" s="47"/>
-      <c r="AF45" s="47"/>
-      <c r="AG45" s="59"/>
-      <c r="AH45" s="57"/>
-      <c r="AJ45" s="47"/>
-      <c r="AK45" s="22"/>
-      <c r="AL45" s="22"/>
+      <c r="AE45" s="49"/>
+      <c r="AF45" s="49"/>
+      <c r="AG45" s="61"/>
+      <c r="AH45" s="59"/>
+      <c r="AJ45" s="49"/>
+      <c r="AK45" s="24"/>
+      <c r="AL45" s="24"/>
       <c r="AM45" s="12"/>
       <c r="AN45" s="12"/>
     </row>
@@ -7274,25 +7280,25 @@
       <c r="P46" s="12"/>
       <c r="Q46" s="12"/>
       <c r="R46" s="12"/>
-      <c r="S46" s="22"/>
+      <c r="S46" s="24"/>
       <c r="T46" s="12"/>
       <c r="U46" s="12"/>
       <c r="V46" s="12"/>
       <c r="W46" s="12"/>
       <c r="X46" s="12"/>
       <c r="Y46" s="12"/>
-      <c r="Z46" s="22"/>
-      <c r="AA46" s="47"/>
-      <c r="AB46" s="47"/>
-      <c r="AC46" s="47"/>
+      <c r="Z46" s="24"/>
+      <c r="AA46" s="49"/>
+      <c r="AB46" s="49"/>
+      <c r="AC46" s="49"/>
       <c r="AD46" s="12"/>
-      <c r="AE46" s="47"/>
-      <c r="AF46" s="47"/>
-      <c r="AG46" s="59"/>
-      <c r="AH46" s="57"/>
-      <c r="AJ46" s="47"/>
-      <c r="AK46" s="22"/>
-      <c r="AL46" s="22"/>
+      <c r="AE46" s="49"/>
+      <c r="AF46" s="49"/>
+      <c r="AG46" s="61"/>
+      <c r="AH46" s="59"/>
+      <c r="AJ46" s="49"/>
+      <c r="AK46" s="24"/>
+      <c r="AL46" s="24"/>
       <c r="AM46" s="12"/>
       <c r="AN46" s="12"/>
     </row>
@@ -7317,25 +7323,25 @@
       <c r="P47" s="12"/>
       <c r="Q47" s="12"/>
       <c r="R47" s="12"/>
-      <c r="S47" s="22"/>
+      <c r="S47" s="24"/>
       <c r="T47" s="12"/>
       <c r="U47" s="12"/>
       <c r="V47" s="12"/>
       <c r="W47" s="12"/>
       <c r="X47" s="12"/>
       <c r="Y47" s="12"/>
-      <c r="Z47" s="22"/>
-      <c r="AA47" s="47"/>
-      <c r="AB47" s="47"/>
-      <c r="AC47" s="47"/>
+      <c r="Z47" s="24"/>
+      <c r="AA47" s="49"/>
+      <c r="AB47" s="49"/>
+      <c r="AC47" s="49"/>
       <c r="AD47" s="12"/>
-      <c r="AE47" s="47"/>
-      <c r="AF47" s="47"/>
-      <c r="AG47" s="59"/>
-      <c r="AH47" s="57"/>
-      <c r="AJ47" s="47"/>
-      <c r="AK47" s="22"/>
-      <c r="AL47" s="22"/>
+      <c r="AE47" s="49"/>
+      <c r="AF47" s="49"/>
+      <c r="AG47" s="61"/>
+      <c r="AH47" s="59"/>
+      <c r="AJ47" s="49"/>
+      <c r="AK47" s="24"/>
+      <c r="AL47" s="24"/>
       <c r="AM47" s="12"/>
       <c r="AN47" s="12"/>
     </row>
@@ -7360,25 +7366,25 @@
       <c r="P48" s="12"/>
       <c r="Q48" s="12"/>
       <c r="R48" s="12"/>
-      <c r="S48" s="22"/>
+      <c r="S48" s="24"/>
       <c r="T48" s="12"/>
       <c r="U48" s="12"/>
       <c r="V48" s="12"/>
       <c r="W48" s="12"/>
       <c r="X48" s="12"/>
       <c r="Y48" s="12"/>
-      <c r="Z48" s="22"/>
-      <c r="AA48" s="47"/>
-      <c r="AB48" s="47"/>
-      <c r="AC48" s="47"/>
+      <c r="Z48" s="24"/>
+      <c r="AA48" s="49"/>
+      <c r="AB48" s="49"/>
+      <c r="AC48" s="49"/>
       <c r="AD48" s="12"/>
-      <c r="AE48" s="47"/>
-      <c r="AF48" s="47"/>
-      <c r="AG48" s="59"/>
-      <c r="AH48" s="57"/>
-      <c r="AJ48" s="47"/>
-      <c r="AK48" s="22"/>
-      <c r="AL48" s="22"/>
+      <c r="AE48" s="49"/>
+      <c r="AF48" s="49"/>
+      <c r="AG48" s="61"/>
+      <c r="AH48" s="59"/>
+      <c r="AJ48" s="49"/>
+      <c r="AK48" s="24"/>
+      <c r="AL48" s="24"/>
       <c r="AM48" s="12"/>
       <c r="AN48" s="12"/>
     </row>
@@ -7403,25 +7409,25 @@
       <c r="P49" s="12"/>
       <c r="Q49" s="12"/>
       <c r="R49" s="12"/>
-      <c r="S49" s="22"/>
+      <c r="S49" s="24"/>
       <c r="T49" s="12"/>
       <c r="U49" s="12"/>
       <c r="V49" s="12"/>
       <c r="W49" s="12"/>
       <c r="X49" s="12"/>
       <c r="Y49" s="12"/>
-      <c r="Z49" s="22"/>
-      <c r="AA49" s="47"/>
-      <c r="AB49" s="47"/>
-      <c r="AC49" s="47"/>
+      <c r="Z49" s="24"/>
+      <c r="AA49" s="49"/>
+      <c r="AB49" s="49"/>
+      <c r="AC49" s="49"/>
       <c r="AD49" s="12"/>
-      <c r="AE49" s="47"/>
-      <c r="AF49" s="47"/>
-      <c r="AG49" s="59"/>
-      <c r="AH49" s="57"/>
-      <c r="AJ49" s="47"/>
-      <c r="AK49" s="22"/>
-      <c r="AL49" s="22"/>
+      <c r="AE49" s="49"/>
+      <c r="AF49" s="49"/>
+      <c r="AG49" s="61"/>
+      <c r="AH49" s="59"/>
+      <c r="AJ49" s="49"/>
+      <c r="AK49" s="24"/>
+      <c r="AL49" s="24"/>
       <c r="AM49" s="12"/>
       <c r="AN49" s="12"/>
     </row>
@@ -7446,25 +7452,25 @@
       <c r="P50" s="12"/>
       <c r="Q50" s="12"/>
       <c r="R50" s="12"/>
-      <c r="S50" s="22"/>
+      <c r="S50" s="24"/>
       <c r="T50" s="12"/>
       <c r="U50" s="12"/>
       <c r="V50" s="12"/>
       <c r="W50" s="12"/>
       <c r="X50" s="12"/>
       <c r="Y50" s="12"/>
-      <c r="Z50" s="22"/>
-      <c r="AA50" s="47"/>
-      <c r="AB50" s="47"/>
-      <c r="AC50" s="47"/>
+      <c r="Z50" s="24"/>
+      <c r="AA50" s="49"/>
+      <c r="AB50" s="49"/>
+      <c r="AC50" s="49"/>
       <c r="AD50" s="12"/>
-      <c r="AE50" s="47"/>
-      <c r="AF50" s="47"/>
-      <c r="AG50" s="59"/>
-      <c r="AH50" s="57"/>
-      <c r="AJ50" s="47"/>
-      <c r="AK50" s="22"/>
-      <c r="AL50" s="22"/>
+      <c r="AE50" s="49"/>
+      <c r="AF50" s="49"/>
+      <c r="AG50" s="61"/>
+      <c r="AH50" s="59"/>
+      <c r="AJ50" s="49"/>
+      <c r="AK50" s="24"/>
+      <c r="AL50" s="24"/>
       <c r="AM50" s="12"/>
       <c r="AN50" s="12"/>
     </row>
@@ -7489,25 +7495,25 @@
       <c r="P51" s="12"/>
       <c r="Q51" s="12"/>
       <c r="R51" s="12"/>
-      <c r="S51" s="22"/>
+      <c r="S51" s="24"/>
       <c r="T51" s="12"/>
       <c r="U51" s="12"/>
       <c r="V51" s="12"/>
       <c r="W51" s="12"/>
       <c r="X51" s="12"/>
       <c r="Y51" s="12"/>
-      <c r="Z51" s="22"/>
-      <c r="AA51" s="47"/>
-      <c r="AB51" s="47"/>
-      <c r="AC51" s="47"/>
+      <c r="Z51" s="24"/>
+      <c r="AA51" s="49"/>
+      <c r="AB51" s="49"/>
+      <c r="AC51" s="49"/>
       <c r="AD51" s="12"/>
-      <c r="AE51" s="47"/>
-      <c r="AF51" s="47"/>
-      <c r="AG51" s="59"/>
-      <c r="AH51" s="57"/>
-      <c r="AJ51" s="47"/>
-      <c r="AK51" s="22"/>
-      <c r="AL51" s="22"/>
+      <c r="AE51" s="49"/>
+      <c r="AF51" s="49"/>
+      <c r="AG51" s="61"/>
+      <c r="AH51" s="59"/>
+      <c r="AJ51" s="49"/>
+      <c r="AK51" s="24"/>
+      <c r="AL51" s="24"/>
       <c r="AM51" s="12"/>
       <c r="AN51" s="12"/>
     </row>
@@ -7532,25 +7538,25 @@
       <c r="P52" s="12"/>
       <c r="Q52" s="12"/>
       <c r="R52" s="12"/>
-      <c r="S52" s="22"/>
+      <c r="S52" s="24"/>
       <c r="T52" s="12"/>
       <c r="U52" s="12"/>
       <c r="V52" s="12"/>
       <c r="W52" s="12"/>
       <c r="X52" s="12"/>
       <c r="Y52" s="12"/>
-      <c r="Z52" s="22"/>
-      <c r="AA52" s="47"/>
-      <c r="AB52" s="47"/>
-      <c r="AC52" s="47"/>
+      <c r="Z52" s="24"/>
+      <c r="AA52" s="49"/>
+      <c r="AB52" s="49"/>
+      <c r="AC52" s="49"/>
       <c r="AD52" s="12"/>
-      <c r="AE52" s="47"/>
-      <c r="AF52" s="47"/>
-      <c r="AG52" s="59"/>
-      <c r="AH52" s="57"/>
-      <c r="AJ52" s="47"/>
-      <c r="AK52" s="22"/>
-      <c r="AL52" s="22"/>
+      <c r="AE52" s="49"/>
+      <c r="AF52" s="49"/>
+      <c r="AG52" s="61"/>
+      <c r="AH52" s="59"/>
+      <c r="AJ52" s="49"/>
+      <c r="AK52" s="24"/>
+      <c r="AL52" s="24"/>
       <c r="AM52" s="12"/>
       <c r="AN52" s="12"/>
     </row>
@@ -7575,25 +7581,25 @@
       <c r="P53" s="12"/>
       <c r="Q53" s="12"/>
       <c r="R53" s="12"/>
-      <c r="S53" s="22"/>
+      <c r="S53" s="24"/>
       <c r="T53" s="12"/>
       <c r="U53" s="12"/>
       <c r="V53" s="12"/>
       <c r="W53" s="12"/>
       <c r="X53" s="12"/>
       <c r="Y53" s="12"/>
-      <c r="Z53" s="22"/>
-      <c r="AA53" s="47"/>
-      <c r="AB53" s="47"/>
-      <c r="AC53" s="47"/>
+      <c r="Z53" s="24"/>
+      <c r="AA53" s="49"/>
+      <c r="AB53" s="49"/>
+      <c r="AC53" s="49"/>
       <c r="AD53" s="12"/>
-      <c r="AE53" s="47"/>
-      <c r="AF53" s="47"/>
-      <c r="AG53" s="59"/>
-      <c r="AH53" s="57"/>
-      <c r="AJ53" s="47"/>
-      <c r="AK53" s="22"/>
-      <c r="AL53" s="22"/>
+      <c r="AE53" s="49"/>
+      <c r="AF53" s="49"/>
+      <c r="AG53" s="61"/>
+      <c r="AH53" s="59"/>
+      <c r="AJ53" s="49"/>
+      <c r="AK53" s="24"/>
+      <c r="AL53" s="24"/>
       <c r="AM53" s="12"/>
       <c r="AN53" s="12"/>
     </row>
@@ -7618,25 +7624,25 @@
       <c r="P54" s="12"/>
       <c r="Q54" s="12"/>
       <c r="R54" s="12"/>
-      <c r="S54" s="22"/>
+      <c r="S54" s="24"/>
       <c r="T54" s="12"/>
       <c r="U54" s="12"/>
       <c r="V54" s="12"/>
       <c r="W54" s="12"/>
       <c r="X54" s="12"/>
       <c r="Y54" s="12"/>
-      <c r="Z54" s="22"/>
-      <c r="AA54" s="47"/>
-      <c r="AB54" s="47"/>
-      <c r="AC54" s="47"/>
+      <c r="Z54" s="24"/>
+      <c r="AA54" s="49"/>
+      <c r="AB54" s="49"/>
+      <c r="AC54" s="49"/>
       <c r="AD54" s="12"/>
-      <c r="AE54" s="47"/>
-      <c r="AF54" s="47"/>
-      <c r="AG54" s="59"/>
-      <c r="AH54" s="57"/>
-      <c r="AJ54" s="47"/>
-      <c r="AK54" s="22"/>
-      <c r="AL54" s="22"/>
+      <c r="AE54" s="49"/>
+      <c r="AF54" s="49"/>
+      <c r="AG54" s="61"/>
+      <c r="AH54" s="59"/>
+      <c r="AJ54" s="49"/>
+      <c r="AK54" s="24"/>
+      <c r="AL54" s="24"/>
       <c r="AM54" s="12"/>
       <c r="AN54" s="12"/>
     </row>
@@ -7661,25 +7667,25 @@
       <c r="P55" s="12"/>
       <c r="Q55" s="12"/>
       <c r="R55" s="12"/>
-      <c r="S55" s="22"/>
+      <c r="S55" s="24"/>
       <c r="T55" s="12"/>
       <c r="U55" s="12"/>
       <c r="V55" s="12"/>
       <c r="W55" s="12"/>
       <c r="X55" s="12"/>
       <c r="Y55" s="12"/>
-      <c r="Z55" s="22"/>
-      <c r="AA55" s="47"/>
-      <c r="AB55" s="47"/>
-      <c r="AC55" s="47"/>
+      <c r="Z55" s="24"/>
+      <c r="AA55" s="49"/>
+      <c r="AB55" s="49"/>
+      <c r="AC55" s="49"/>
       <c r="AD55" s="12"/>
-      <c r="AE55" s="47"/>
-      <c r="AF55" s="47"/>
-      <c r="AG55" s="59"/>
-      <c r="AH55" s="57"/>
-      <c r="AJ55" s="47"/>
-      <c r="AK55" s="22"/>
-      <c r="AL55" s="22"/>
+      <c r="AE55" s="49"/>
+      <c r="AF55" s="49"/>
+      <c r="AG55" s="61"/>
+      <c r="AH55" s="59"/>
+      <c r="AJ55" s="49"/>
+      <c r="AK55" s="24"/>
+      <c r="AL55" s="24"/>
       <c r="AM55" s="12"/>
       <c r="AN55" s="12"/>
     </row>
@@ -7704,25 +7710,25 @@
       <c r="P56" s="12"/>
       <c r="Q56" s="12"/>
       <c r="R56" s="12"/>
-      <c r="S56" s="22"/>
+      <c r="S56" s="24"/>
       <c r="T56" s="12"/>
       <c r="U56" s="12"/>
       <c r="V56" s="12"/>
       <c r="W56" s="12"/>
       <c r="X56" s="12"/>
       <c r="Y56" s="12"/>
-      <c r="Z56" s="22"/>
-      <c r="AA56" s="47"/>
-      <c r="AB56" s="47"/>
-      <c r="AC56" s="47"/>
+      <c r="Z56" s="24"/>
+      <c r="AA56" s="49"/>
+      <c r="AB56" s="49"/>
+      <c r="AC56" s="49"/>
       <c r="AD56" s="12"/>
-      <c r="AE56" s="47"/>
-      <c r="AF56" s="47"/>
-      <c r="AG56" s="59"/>
-      <c r="AH56" s="57"/>
-      <c r="AJ56" s="47"/>
-      <c r="AK56" s="22"/>
-      <c r="AL56" s="22"/>
+      <c r="AE56" s="49"/>
+      <c r="AF56" s="49"/>
+      <c r="AG56" s="61"/>
+      <c r="AH56" s="59"/>
+      <c r="AJ56" s="49"/>
+      <c r="AK56" s="24"/>
+      <c r="AL56" s="24"/>
       <c r="AM56" s="12"/>
       <c r="AN56" s="12"/>
     </row>
@@ -7747,25 +7753,25 @@
       <c r="P57" s="12"/>
       <c r="Q57" s="12"/>
       <c r="R57" s="12"/>
-      <c r="S57" s="22"/>
+      <c r="S57" s="24"/>
       <c r="T57" s="12"/>
       <c r="U57" s="12"/>
       <c r="V57" s="12"/>
       <c r="W57" s="12"/>
       <c r="X57" s="12"/>
       <c r="Y57" s="12"/>
-      <c r="Z57" s="22"/>
-      <c r="AA57" s="47"/>
-      <c r="AB57" s="47"/>
-      <c r="AC57" s="47"/>
+      <c r="Z57" s="24"/>
+      <c r="AA57" s="49"/>
+      <c r="AB57" s="49"/>
+      <c r="AC57" s="49"/>
       <c r="AD57" s="12"/>
-      <c r="AE57" s="47"/>
-      <c r="AF57" s="47"/>
-      <c r="AG57" s="59"/>
-      <c r="AH57" s="57"/>
-      <c r="AJ57" s="47"/>
-      <c r="AK57" s="22"/>
-      <c r="AL57" s="22"/>
+      <c r="AE57" s="49"/>
+      <c r="AF57" s="49"/>
+      <c r="AG57" s="61"/>
+      <c r="AH57" s="59"/>
+      <c r="AJ57" s="49"/>
+      <c r="AK57" s="24"/>
+      <c r="AL57" s="24"/>
       <c r="AM57" s="12"/>
       <c r="AN57" s="12"/>
     </row>
@@ -7790,25 +7796,25 @@
       <c r="P58" s="12"/>
       <c r="Q58" s="12"/>
       <c r="R58" s="12"/>
-      <c r="S58" s="22"/>
+      <c r="S58" s="24"/>
       <c r="T58" s="12"/>
       <c r="U58" s="12"/>
       <c r="V58" s="12"/>
       <c r="W58" s="12"/>
       <c r="X58" s="12"/>
       <c r="Y58" s="12"/>
-      <c r="Z58" s="22"/>
-      <c r="AA58" s="47"/>
-      <c r="AB58" s="47"/>
-      <c r="AC58" s="47"/>
+      <c r="Z58" s="24"/>
+      <c r="AA58" s="49"/>
+      <c r="AB58" s="49"/>
+      <c r="AC58" s="49"/>
       <c r="AD58" s="12"/>
-      <c r="AE58" s="47"/>
-      <c r="AF58" s="47"/>
-      <c r="AG58" s="59"/>
-      <c r="AH58" s="57"/>
-      <c r="AJ58" s="47"/>
-      <c r="AK58" s="22"/>
-      <c r="AL58" s="22"/>
+      <c r="AE58" s="49"/>
+      <c r="AF58" s="49"/>
+      <c r="AG58" s="61"/>
+      <c r="AH58" s="59"/>
+      <c r="AJ58" s="49"/>
+      <c r="AK58" s="24"/>
+      <c r="AL58" s="24"/>
       <c r="AM58" s="12"/>
       <c r="AN58" s="12"/>
     </row>
@@ -7833,25 +7839,25 @@
       <c r="P59" s="12"/>
       <c r="Q59" s="12"/>
       <c r="R59" s="12"/>
-      <c r="S59" s="22"/>
+      <c r="S59" s="24"/>
       <c r="T59" s="12"/>
       <c r="U59" s="12"/>
       <c r="V59" s="12"/>
       <c r="W59" s="12"/>
       <c r="X59" s="12"/>
       <c r="Y59" s="12"/>
-      <c r="Z59" s="22"/>
-      <c r="AA59" s="47"/>
-      <c r="AB59" s="47"/>
-      <c r="AC59" s="47"/>
+      <c r="Z59" s="24"/>
+      <c r="AA59" s="49"/>
+      <c r="AB59" s="49"/>
+      <c r="AC59" s="49"/>
       <c r="AD59" s="12"/>
-      <c r="AE59" s="47"/>
-      <c r="AF59" s="47"/>
-      <c r="AG59" s="59"/>
-      <c r="AH59" s="57"/>
-      <c r="AJ59" s="47"/>
-      <c r="AK59" s="22"/>
-      <c r="AL59" s="22"/>
+      <c r="AE59" s="49"/>
+      <c r="AF59" s="49"/>
+      <c r="AG59" s="61"/>
+      <c r="AH59" s="59"/>
+      <c r="AJ59" s="49"/>
+      <c r="AK59" s="24"/>
+      <c r="AL59" s="24"/>
       <c r="AM59" s="12"/>
       <c r="AN59" s="12"/>
     </row>
@@ -7876,25 +7882,25 @@
       <c r="P60" s="12"/>
       <c r="Q60" s="12"/>
       <c r="R60" s="12"/>
-      <c r="S60" s="22"/>
+      <c r="S60" s="24"/>
       <c r="T60" s="12"/>
       <c r="U60" s="12"/>
       <c r="V60" s="12"/>
       <c r="W60" s="12"/>
       <c r="X60" s="12"/>
       <c r="Y60" s="12"/>
-      <c r="Z60" s="22"/>
-      <c r="AA60" s="47"/>
-      <c r="AB60" s="47"/>
-      <c r="AC60" s="47"/>
+      <c r="Z60" s="24"/>
+      <c r="AA60" s="49"/>
+      <c r="AB60" s="49"/>
+      <c r="AC60" s="49"/>
       <c r="AD60" s="12"/>
-      <c r="AE60" s="47"/>
-      <c r="AF60" s="47"/>
-      <c r="AG60" s="59"/>
-      <c r="AH60" s="57"/>
-      <c r="AJ60" s="47"/>
-      <c r="AK60" s="22"/>
-      <c r="AL60" s="22"/>
+      <c r="AE60" s="49"/>
+      <c r="AF60" s="49"/>
+      <c r="AG60" s="61"/>
+      <c r="AH60" s="59"/>
+      <c r="AJ60" s="49"/>
+      <c r="AK60" s="24"/>
+      <c r="AL60" s="24"/>
       <c r="AM60" s="12"/>
       <c r="AN60" s="12"/>
     </row>
@@ -7919,25 +7925,25 @@
       <c r="P61" s="12"/>
       <c r="Q61" s="12"/>
       <c r="R61" s="12"/>
-      <c r="S61" s="22"/>
+      <c r="S61" s="24"/>
       <c r="T61" s="12"/>
       <c r="U61" s="12"/>
       <c r="V61" s="12"/>
       <c r="W61" s="12"/>
       <c r="X61" s="12"/>
       <c r="Y61" s="12"/>
-      <c r="Z61" s="22"/>
-      <c r="AA61" s="47"/>
-      <c r="AB61" s="47"/>
-      <c r="AC61" s="47"/>
+      <c r="Z61" s="24"/>
+      <c r="AA61" s="49"/>
+      <c r="AB61" s="49"/>
+      <c r="AC61" s="49"/>
       <c r="AD61" s="12"/>
-      <c r="AE61" s="47"/>
-      <c r="AF61" s="47"/>
-      <c r="AG61" s="59"/>
-      <c r="AH61" s="57"/>
-      <c r="AJ61" s="47"/>
-      <c r="AK61" s="22"/>
-      <c r="AL61" s="22"/>
+      <c r="AE61" s="49"/>
+      <c r="AF61" s="49"/>
+      <c r="AG61" s="61"/>
+      <c r="AH61" s="59"/>
+      <c r="AJ61" s="49"/>
+      <c r="AK61" s="24"/>
+      <c r="AL61" s="24"/>
       <c r="AM61" s="12"/>
       <c r="AN61" s="12"/>
     </row>
@@ -7962,25 +7968,25 @@
       <c r="P62" s="12"/>
       <c r="Q62" s="12"/>
       <c r="R62" s="12"/>
-      <c r="S62" s="22"/>
+      <c r="S62" s="24"/>
       <c r="T62" s="12"/>
       <c r="U62" s="12"/>
       <c r="V62" s="12"/>
       <c r="W62" s="12"/>
       <c r="X62" s="12"/>
       <c r="Y62" s="12"/>
-      <c r="Z62" s="22"/>
-      <c r="AA62" s="47"/>
-      <c r="AB62" s="47"/>
-      <c r="AC62" s="47"/>
+      <c r="Z62" s="24"/>
+      <c r="AA62" s="49"/>
+      <c r="AB62" s="49"/>
+      <c r="AC62" s="49"/>
       <c r="AD62" s="12"/>
-      <c r="AE62" s="47"/>
-      <c r="AF62" s="47"/>
-      <c r="AG62" s="59"/>
-      <c r="AH62" s="57"/>
-      <c r="AJ62" s="47"/>
-      <c r="AK62" s="22"/>
-      <c r="AL62" s="22"/>
+      <c r="AE62" s="49"/>
+      <c r="AF62" s="49"/>
+      <c r="AG62" s="61"/>
+      <c r="AH62" s="59"/>
+      <c r="AJ62" s="49"/>
+      <c r="AK62" s="24"/>
+      <c r="AL62" s="24"/>
       <c r="AM62" s="12"/>
       <c r="AN62" s="12"/>
     </row>
@@ -8005,25 +8011,25 @@
       <c r="P63" s="12"/>
       <c r="Q63" s="12"/>
       <c r="R63" s="12"/>
-      <c r="S63" s="22"/>
+      <c r="S63" s="24"/>
       <c r="T63" s="12"/>
       <c r="U63" s="12"/>
       <c r="V63" s="12"/>
       <c r="W63" s="12"/>
       <c r="X63" s="12"/>
       <c r="Y63" s="12"/>
-      <c r="Z63" s="22"/>
-      <c r="AA63" s="47"/>
-      <c r="AB63" s="47"/>
-      <c r="AC63" s="47"/>
+      <c r="Z63" s="24"/>
+      <c r="AA63" s="49"/>
+      <c r="AB63" s="49"/>
+      <c r="AC63" s="49"/>
       <c r="AD63" s="12"/>
-      <c r="AE63" s="47"/>
-      <c r="AF63" s="47"/>
-      <c r="AG63" s="59"/>
-      <c r="AH63" s="57"/>
-      <c r="AJ63" s="47"/>
-      <c r="AK63" s="22"/>
-      <c r="AL63" s="22"/>
+      <c r="AE63" s="49"/>
+      <c r="AF63" s="49"/>
+      <c r="AG63" s="61"/>
+      <c r="AH63" s="59"/>
+      <c r="AJ63" s="49"/>
+      <c r="AK63" s="24"/>
+      <c r="AL63" s="24"/>
       <c r="AM63" s="12"/>
       <c r="AN63" s="12"/>
     </row>
@@ -8048,25 +8054,25 @@
       <c r="P64" s="12"/>
       <c r="Q64" s="12"/>
       <c r="R64" s="12"/>
-      <c r="S64" s="22"/>
+      <c r="S64" s="24"/>
       <c r="T64" s="12"/>
       <c r="U64" s="12"/>
       <c r="V64" s="12"/>
       <c r="W64" s="12"/>
       <c r="X64" s="12"/>
       <c r="Y64" s="12"/>
-      <c r="Z64" s="22"/>
-      <c r="AA64" s="47"/>
-      <c r="AB64" s="47"/>
-      <c r="AC64" s="47"/>
+      <c r="Z64" s="24"/>
+      <c r="AA64" s="49"/>
+      <c r="AB64" s="49"/>
+      <c r="AC64" s="49"/>
       <c r="AD64" s="12"/>
-      <c r="AE64" s="47"/>
-      <c r="AF64" s="47"/>
-      <c r="AG64" s="59"/>
-      <c r="AH64" s="57"/>
-      <c r="AJ64" s="47"/>
-      <c r="AK64" s="22"/>
-      <c r="AL64" s="22"/>
+      <c r="AE64" s="49"/>
+      <c r="AF64" s="49"/>
+      <c r="AG64" s="61"/>
+      <c r="AH64" s="59"/>
+      <c r="AJ64" s="49"/>
+      <c r="AK64" s="24"/>
+      <c r="AL64" s="24"/>
       <c r="AM64" s="12"/>
       <c r="AN64" s="12"/>
     </row>
@@ -8091,25 +8097,25 @@
       <c r="P65" s="12"/>
       <c r="Q65" s="12"/>
       <c r="R65" s="12"/>
-      <c r="S65" s="22"/>
+      <c r="S65" s="24"/>
       <c r="T65" s="12"/>
       <c r="U65" s="12"/>
       <c r="V65" s="12"/>
       <c r="W65" s="12"/>
       <c r="X65" s="12"/>
       <c r="Y65" s="12"/>
-      <c r="Z65" s="22"/>
-      <c r="AA65" s="47"/>
-      <c r="AB65" s="47"/>
-      <c r="AC65" s="47"/>
+      <c r="Z65" s="24"/>
+      <c r="AA65" s="49"/>
+      <c r="AB65" s="49"/>
+      <c r="AC65" s="49"/>
       <c r="AD65" s="12"/>
-      <c r="AE65" s="47"/>
-      <c r="AF65" s="47"/>
-      <c r="AG65" s="59"/>
-      <c r="AH65" s="57"/>
-      <c r="AJ65" s="47"/>
-      <c r="AK65" s="22"/>
-      <c r="AL65" s="22"/>
+      <c r="AE65" s="49"/>
+      <c r="AF65" s="49"/>
+      <c r="AG65" s="61"/>
+      <c r="AH65" s="59"/>
+      <c r="AJ65" s="49"/>
+      <c r="AK65" s="24"/>
+      <c r="AL65" s="24"/>
       <c r="AM65" s="12"/>
       <c r="AN65" s="12"/>
     </row>
@@ -8134,25 +8140,25 @@
       <c r="P66" s="12"/>
       <c r="Q66" s="12"/>
       <c r="R66" s="12"/>
-      <c r="S66" s="22"/>
+      <c r="S66" s="24"/>
       <c r="T66" s="12"/>
       <c r="U66" s="12"/>
       <c r="V66" s="12"/>
       <c r="W66" s="12"/>
       <c r="X66" s="12"/>
       <c r="Y66" s="12"/>
-      <c r="Z66" s="22"/>
-      <c r="AA66" s="47"/>
-      <c r="AB66" s="47"/>
-      <c r="AC66" s="47"/>
+      <c r="Z66" s="24"/>
+      <c r="AA66" s="49"/>
+      <c r="AB66" s="49"/>
+      <c r="AC66" s="49"/>
       <c r="AD66" s="12"/>
-      <c r="AE66" s="47"/>
-      <c r="AF66" s="47"/>
-      <c r="AG66" s="59"/>
-      <c r="AH66" s="57"/>
-      <c r="AJ66" s="47"/>
-      <c r="AK66" s="22"/>
-      <c r="AL66" s="22"/>
+      <c r="AE66" s="49"/>
+      <c r="AF66" s="49"/>
+      <c r="AG66" s="61"/>
+      <c r="AH66" s="59"/>
+      <c r="AJ66" s="49"/>
+      <c r="AK66" s="24"/>
+      <c r="AL66" s="24"/>
       <c r="AM66" s="12"/>
       <c r="AN66" s="12"/>
     </row>
@@ -8177,25 +8183,25 @@
       <c r="P67" s="12"/>
       <c r="Q67" s="12"/>
       <c r="R67" s="12"/>
-      <c r="S67" s="22"/>
+      <c r="S67" s="24"/>
       <c r="T67" s="12"/>
       <c r="U67" s="12"/>
       <c r="V67" s="12"/>
       <c r="W67" s="12"/>
       <c r="X67" s="12"/>
       <c r="Y67" s="12"/>
-      <c r="Z67" s="22"/>
-      <c r="AA67" s="47"/>
-      <c r="AB67" s="47"/>
-      <c r="AC67" s="47"/>
+      <c r="Z67" s="24"/>
+      <c r="AA67" s="49"/>
+      <c r="AB67" s="49"/>
+      <c r="AC67" s="49"/>
       <c r="AD67" s="12"/>
-      <c r="AE67" s="47"/>
-      <c r="AF67" s="47"/>
-      <c r="AG67" s="59"/>
-      <c r="AH67" s="57"/>
-      <c r="AJ67" s="47"/>
-      <c r="AK67" s="22"/>
-      <c r="AL67" s="22"/>
+      <c r="AE67" s="49"/>
+      <c r="AF67" s="49"/>
+      <c r="AG67" s="61"/>
+      <c r="AH67" s="59"/>
+      <c r="AJ67" s="49"/>
+      <c r="AK67" s="24"/>
+      <c r="AL67" s="24"/>
       <c r="AM67" s="12"/>
       <c r="AN67" s="12"/>
     </row>
@@ -8220,25 +8226,25 @@
       <c r="P68" s="12"/>
       <c r="Q68" s="12"/>
       <c r="R68" s="12"/>
-      <c r="S68" s="22"/>
+      <c r="S68" s="24"/>
       <c r="T68" s="12"/>
       <c r="U68" s="12"/>
       <c r="V68" s="12"/>
       <c r="W68" s="12"/>
       <c r="X68" s="12"/>
       <c r="Y68" s="12"/>
-      <c r="Z68" s="22"/>
-      <c r="AA68" s="47"/>
-      <c r="AB68" s="47"/>
-      <c r="AC68" s="47"/>
+      <c r="Z68" s="24"/>
+      <c r="AA68" s="49"/>
+      <c r="AB68" s="49"/>
+      <c r="AC68" s="49"/>
       <c r="AD68" s="12"/>
-      <c r="AE68" s="47"/>
-      <c r="AF68" s="47"/>
-      <c r="AG68" s="59"/>
-      <c r="AH68" s="57"/>
-      <c r="AJ68" s="47"/>
-      <c r="AK68" s="22"/>
-      <c r="AL68" s="22"/>
+      <c r="AE68" s="49"/>
+      <c r="AF68" s="49"/>
+      <c r="AG68" s="61"/>
+      <c r="AH68" s="59"/>
+      <c r="AJ68" s="49"/>
+      <c r="AK68" s="24"/>
+      <c r="AL68" s="24"/>
       <c r="AM68" s="12"/>
       <c r="AN68" s="12"/>
     </row>
@@ -8263,25 +8269,25 @@
       <c r="P69" s="12"/>
       <c r="Q69" s="12"/>
       <c r="R69" s="12"/>
-      <c r="S69" s="22"/>
+      <c r="S69" s="24"/>
       <c r="T69" s="12"/>
       <c r="U69" s="12"/>
       <c r="V69" s="12"/>
       <c r="W69" s="12"/>
       <c r="X69" s="12"/>
       <c r="Y69" s="12"/>
-      <c r="Z69" s="22"/>
-      <c r="AA69" s="47"/>
-      <c r="AB69" s="47"/>
-      <c r="AC69" s="47"/>
+      <c r="Z69" s="24"/>
+      <c r="AA69" s="49"/>
+      <c r="AB69" s="49"/>
+      <c r="AC69" s="49"/>
       <c r="AD69" s="12"/>
-      <c r="AE69" s="47"/>
-      <c r="AF69" s="47"/>
-      <c r="AG69" s="59"/>
-      <c r="AH69" s="57"/>
-      <c r="AJ69" s="47"/>
-      <c r="AK69" s="22"/>
-      <c r="AL69" s="22"/>
+      <c r="AE69" s="49"/>
+      <c r="AF69" s="49"/>
+      <c r="AG69" s="61"/>
+      <c r="AH69" s="59"/>
+      <c r="AJ69" s="49"/>
+      <c r="AK69" s="24"/>
+      <c r="AL69" s="24"/>
       <c r="AM69" s="12"/>
       <c r="AN69" s="12"/>
     </row>
@@ -8306,25 +8312,25 @@
       <c r="P70" s="12"/>
       <c r="Q70" s="12"/>
       <c r="R70" s="12"/>
-      <c r="S70" s="22"/>
+      <c r="S70" s="24"/>
       <c r="T70" s="12"/>
       <c r="U70" s="12"/>
       <c r="V70" s="12"/>
       <c r="W70" s="12"/>
       <c r="X70" s="12"/>
       <c r="Y70" s="12"/>
-      <c r="Z70" s="22"/>
-      <c r="AA70" s="47"/>
-      <c r="AB70" s="47"/>
-      <c r="AC70" s="47"/>
+      <c r="Z70" s="24"/>
+      <c r="AA70" s="49"/>
+      <c r="AB70" s="49"/>
+      <c r="AC70" s="49"/>
       <c r="AD70" s="12"/>
-      <c r="AE70" s="47"/>
-      <c r="AF70" s="47"/>
-      <c r="AG70" s="59"/>
-      <c r="AH70" s="57"/>
-      <c r="AJ70" s="47"/>
-      <c r="AK70" s="22"/>
-      <c r="AL70" s="22"/>
+      <c r="AE70" s="49"/>
+      <c r="AF70" s="49"/>
+      <c r="AG70" s="61"/>
+      <c r="AH70" s="59"/>
+      <c r="AJ70" s="49"/>
+      <c r="AK70" s="24"/>
+      <c r="AL70" s="24"/>
       <c r="AM70" s="12"/>
       <c r="AN70" s="12"/>
     </row>
@@ -8349,25 +8355,25 @@
       <c r="P71" s="12"/>
       <c r="Q71" s="12"/>
       <c r="R71" s="12"/>
-      <c r="S71" s="22"/>
+      <c r="S71" s="24"/>
       <c r="T71" s="12"/>
       <c r="U71" s="12"/>
       <c r="V71" s="12"/>
       <c r="W71" s="12"/>
       <c r="X71" s="12"/>
       <c r="Y71" s="12"/>
-      <c r="Z71" s="22"/>
-      <c r="AA71" s="47"/>
-      <c r="AB71" s="47"/>
-      <c r="AC71" s="47"/>
+      <c r="Z71" s="24"/>
+      <c r="AA71" s="49"/>
+      <c r="AB71" s="49"/>
+      <c r="AC71" s="49"/>
       <c r="AD71" s="12"/>
-      <c r="AE71" s="47"/>
-      <c r="AF71" s="47"/>
-      <c r="AG71" s="59"/>
-      <c r="AH71" s="57"/>
-      <c r="AJ71" s="47"/>
-      <c r="AK71" s="22"/>
-      <c r="AL71" s="22"/>
+      <c r="AE71" s="49"/>
+      <c r="AF71" s="49"/>
+      <c r="AG71" s="61"/>
+      <c r="AH71" s="59"/>
+      <c r="AJ71" s="49"/>
+      <c r="AK71" s="24"/>
+      <c r="AL71" s="24"/>
       <c r="AM71" s="12"/>
       <c r="AN71" s="12"/>
     </row>
@@ -8392,25 +8398,25 @@
       <c r="P72" s="12"/>
       <c r="Q72" s="12"/>
       <c r="R72" s="12"/>
-      <c r="S72" s="22"/>
+      <c r="S72" s="24"/>
       <c r="T72" s="12"/>
       <c r="U72" s="12"/>
       <c r="V72" s="12"/>
       <c r="W72" s="12"/>
       <c r="X72" s="12"/>
       <c r="Y72" s="12"/>
-      <c r="Z72" s="22"/>
-      <c r="AA72" s="47"/>
-      <c r="AB72" s="47"/>
-      <c r="AC72" s="47"/>
+      <c r="Z72" s="24"/>
+      <c r="AA72" s="49"/>
+      <c r="AB72" s="49"/>
+      <c r="AC72" s="49"/>
       <c r="AD72" s="12"/>
-      <c r="AE72" s="47"/>
-      <c r="AF72" s="47"/>
-      <c r="AG72" s="59"/>
-      <c r="AH72" s="57"/>
-      <c r="AJ72" s="47"/>
-      <c r="AK72" s="22"/>
-      <c r="AL72" s="22"/>
+      <c r="AE72" s="49"/>
+      <c r="AF72" s="49"/>
+      <c r="AG72" s="61"/>
+      <c r="AH72" s="59"/>
+      <c r="AJ72" s="49"/>
+      <c r="AK72" s="24"/>
+      <c r="AL72" s="24"/>
       <c r="AM72" s="12"/>
       <c r="AN72" s="12"/>
     </row>
@@ -8435,25 +8441,25 @@
       <c r="P73" s="12"/>
       <c r="Q73" s="12"/>
       <c r="R73" s="12"/>
-      <c r="S73" s="22"/>
+      <c r="S73" s="24"/>
       <c r="T73" s="12"/>
       <c r="U73" s="12"/>
       <c r="V73" s="12"/>
       <c r="W73" s="12"/>
       <c r="X73" s="12"/>
       <c r="Y73" s="12"/>
-      <c r="Z73" s="22"/>
-      <c r="AA73" s="47"/>
-      <c r="AB73" s="47"/>
-      <c r="AC73" s="47"/>
+      <c r="Z73" s="24"/>
+      <c r="AA73" s="49"/>
+      <c r="AB73" s="49"/>
+      <c r="AC73" s="49"/>
       <c r="AD73" s="12"/>
-      <c r="AE73" s="47"/>
-      <c r="AF73" s="47"/>
-      <c r="AG73" s="59"/>
-      <c r="AH73" s="57"/>
-      <c r="AJ73" s="47"/>
-      <c r="AK73" s="22"/>
-      <c r="AL73" s="22"/>
+      <c r="AE73" s="49"/>
+      <c r="AF73" s="49"/>
+      <c r="AG73" s="61"/>
+      <c r="AH73" s="59"/>
+      <c r="AJ73" s="49"/>
+      <c r="AK73" s="24"/>
+      <c r="AL73" s="24"/>
       <c r="AM73" s="12"/>
       <c r="AN73" s="12"/>
     </row>
@@ -8478,25 +8484,25 @@
       <c r="P74" s="12"/>
       <c r="Q74" s="12"/>
       <c r="R74" s="12"/>
-      <c r="S74" s="22"/>
+      <c r="S74" s="24"/>
       <c r="T74" s="12"/>
       <c r="U74" s="12"/>
       <c r="V74" s="12"/>
       <c r="W74" s="12"/>
       <c r="X74" s="12"/>
       <c r="Y74" s="12"/>
-      <c r="Z74" s="22"/>
-      <c r="AA74" s="47"/>
-      <c r="AB74" s="47"/>
-      <c r="AC74" s="47"/>
+      <c r="Z74" s="24"/>
+      <c r="AA74" s="49"/>
+      <c r="AB74" s="49"/>
+      <c r="AC74" s="49"/>
       <c r="AD74" s="12"/>
-      <c r="AE74" s="47"/>
-      <c r="AF74" s="47"/>
-      <c r="AG74" s="59"/>
-      <c r="AH74" s="57"/>
-      <c r="AJ74" s="47"/>
-      <c r="AK74" s="22"/>
-      <c r="AL74" s="22"/>
+      <c r="AE74" s="49"/>
+      <c r="AF74" s="49"/>
+      <c r="AG74" s="61"/>
+      <c r="AH74" s="59"/>
+      <c r="AJ74" s="49"/>
+      <c r="AK74" s="24"/>
+      <c r="AL74" s="24"/>
       <c r="AM74" s="12"/>
       <c r="AN74" s="12"/>
     </row>
@@ -8521,25 +8527,25 @@
       <c r="P75" s="12"/>
       <c r="Q75" s="12"/>
       <c r="R75" s="12"/>
-      <c r="S75" s="22"/>
+      <c r="S75" s="24"/>
       <c r="T75" s="12"/>
       <c r="U75" s="12"/>
       <c r="V75" s="12"/>
       <c r="W75" s="12"/>
       <c r="X75" s="12"/>
       <c r="Y75" s="12"/>
-      <c r="Z75" s="22"/>
-      <c r="AA75" s="47"/>
-      <c r="AB75" s="47"/>
-      <c r="AC75" s="47"/>
+      <c r="Z75" s="24"/>
+      <c r="AA75" s="49"/>
+      <c r="AB75" s="49"/>
+      <c r="AC75" s="49"/>
       <c r="AD75" s="12"/>
-      <c r="AE75" s="47"/>
-      <c r="AF75" s="47"/>
-      <c r="AG75" s="59"/>
-      <c r="AH75" s="57"/>
-      <c r="AJ75" s="47"/>
-      <c r="AK75" s="22"/>
-      <c r="AL75" s="22"/>
+      <c r="AE75" s="49"/>
+      <c r="AF75" s="49"/>
+      <c r="AG75" s="61"/>
+      <c r="AH75" s="59"/>
+      <c r="AJ75" s="49"/>
+      <c r="AK75" s="24"/>
+      <c r="AL75" s="24"/>
       <c r="AM75" s="12"/>
       <c r="AN75" s="12"/>
     </row>
@@ -8564,25 +8570,25 @@
       <c r="P76" s="12"/>
       <c r="Q76" s="12"/>
       <c r="R76" s="12"/>
-      <c r="S76" s="22"/>
+      <c r="S76" s="24"/>
       <c r="T76" s="12"/>
       <c r="U76" s="12"/>
       <c r="V76" s="12"/>
       <c r="W76" s="12"/>
       <c r="X76" s="12"/>
       <c r="Y76" s="12"/>
-      <c r="Z76" s="22"/>
-      <c r="AA76" s="47"/>
-      <c r="AB76" s="47"/>
-      <c r="AC76" s="47"/>
+      <c r="Z76" s="24"/>
+      <c r="AA76" s="49"/>
+      <c r="AB76" s="49"/>
+      <c r="AC76" s="49"/>
       <c r="AD76" s="12"/>
-      <c r="AE76" s="47"/>
-      <c r="AF76" s="47"/>
-      <c r="AG76" s="59"/>
-      <c r="AH76" s="57"/>
-      <c r="AJ76" s="47"/>
-      <c r="AK76" s="22"/>
-      <c r="AL76" s="22"/>
+      <c r="AE76" s="49"/>
+      <c r="AF76" s="49"/>
+      <c r="AG76" s="61"/>
+      <c r="AH76" s="59"/>
+      <c r="AJ76" s="49"/>
+      <c r="AK76" s="24"/>
+      <c r="AL76" s="24"/>
       <c r="AM76" s="12"/>
       <c r="AN76" s="12"/>
     </row>
@@ -8607,25 +8613,25 @@
       <c r="P77" s="12"/>
       <c r="Q77" s="12"/>
       <c r="R77" s="12"/>
-      <c r="S77" s="22"/>
+      <c r="S77" s="24"/>
       <c r="T77" s="12"/>
       <c r="U77" s="12"/>
       <c r="V77" s="12"/>
       <c r="W77" s="12"/>
       <c r="X77" s="12"/>
       <c r="Y77" s="12"/>
-      <c r="Z77" s="22"/>
-      <c r="AA77" s="47"/>
-      <c r="AB77" s="47"/>
-      <c r="AC77" s="47"/>
+      <c r="Z77" s="24"/>
+      <c r="AA77" s="49"/>
+      <c r="AB77" s="49"/>
+      <c r="AC77" s="49"/>
       <c r="AD77" s="12"/>
-      <c r="AE77" s="47"/>
-      <c r="AF77" s="47"/>
-      <c r="AG77" s="59"/>
-      <c r="AH77" s="57"/>
-      <c r="AJ77" s="47"/>
-      <c r="AK77" s="22"/>
-      <c r="AL77" s="22"/>
+      <c r="AE77" s="49"/>
+      <c r="AF77" s="49"/>
+      <c r="AG77" s="61"/>
+      <c r="AH77" s="59"/>
+      <c r="AJ77" s="49"/>
+      <c r="AK77" s="24"/>
+      <c r="AL77" s="24"/>
       <c r="AM77" s="12"/>
       <c r="AN77" s="12"/>
     </row>
@@ -8650,25 +8656,25 @@
       <c r="P78" s="12"/>
       <c r="Q78" s="12"/>
       <c r="R78" s="12"/>
-      <c r="S78" s="22"/>
+      <c r="S78" s="24"/>
       <c r="T78" s="12"/>
       <c r="U78" s="12"/>
       <c r="V78" s="12"/>
       <c r="W78" s="12"/>
       <c r="X78" s="12"/>
       <c r="Y78" s="12"/>
-      <c r="Z78" s="22"/>
-      <c r="AA78" s="47"/>
-      <c r="AB78" s="47"/>
-      <c r="AC78" s="47"/>
+      <c r="Z78" s="24"/>
+      <c r="AA78" s="49"/>
+      <c r="AB78" s="49"/>
+      <c r="AC78" s="49"/>
       <c r="AD78" s="12"/>
-      <c r="AE78" s="47"/>
-      <c r="AF78" s="47"/>
-      <c r="AG78" s="59"/>
-      <c r="AH78" s="57"/>
-      <c r="AJ78" s="47"/>
-      <c r="AK78" s="22"/>
-      <c r="AL78" s="22"/>
+      <c r="AE78" s="49"/>
+      <c r="AF78" s="49"/>
+      <c r="AG78" s="61"/>
+      <c r="AH78" s="59"/>
+      <c r="AJ78" s="49"/>
+      <c r="AK78" s="24"/>
+      <c r="AL78" s="24"/>
       <c r="AM78" s="12"/>
       <c r="AN78" s="12"/>
     </row>
@@ -8693,25 +8699,25 @@
       <c r="P79" s="12"/>
       <c r="Q79" s="12"/>
       <c r="R79" s="12"/>
-      <c r="S79" s="22"/>
+      <c r="S79" s="24"/>
       <c r="T79" s="12"/>
       <c r="U79" s="12"/>
       <c r="V79" s="12"/>
       <c r="W79" s="12"/>
       <c r="X79" s="12"/>
       <c r="Y79" s="12"/>
-      <c r="Z79" s="22"/>
-      <c r="AA79" s="47"/>
-      <c r="AB79" s="47"/>
-      <c r="AC79" s="47"/>
+      <c r="Z79" s="24"/>
+      <c r="AA79" s="49"/>
+      <c r="AB79" s="49"/>
+      <c r="AC79" s="49"/>
       <c r="AD79" s="12"/>
-      <c r="AE79" s="47"/>
-      <c r="AF79" s="47"/>
-      <c r="AG79" s="59"/>
-      <c r="AH79" s="57"/>
-      <c r="AJ79" s="47"/>
-      <c r="AK79" s="22"/>
-      <c r="AL79" s="22"/>
+      <c r="AE79" s="49"/>
+      <c r="AF79" s="49"/>
+      <c r="AG79" s="61"/>
+      <c r="AH79" s="59"/>
+      <c r="AJ79" s="49"/>
+      <c r="AK79" s="24"/>
+      <c r="AL79" s="24"/>
       <c r="AM79" s="12"/>
       <c r="AN79" s="12"/>
     </row>
@@ -8736,25 +8742,25 @@
       <c r="P80" s="12"/>
       <c r="Q80" s="12"/>
       <c r="R80" s="12"/>
-      <c r="S80" s="22"/>
+      <c r="S80" s="24"/>
       <c r="T80" s="12"/>
       <c r="U80" s="12"/>
       <c r="V80" s="12"/>
       <c r="W80" s="12"/>
       <c r="X80" s="12"/>
       <c r="Y80" s="12"/>
-      <c r="Z80" s="22"/>
-      <c r="AA80" s="47"/>
-      <c r="AB80" s="47"/>
-      <c r="AC80" s="47"/>
+      <c r="Z80" s="24"/>
+      <c r="AA80" s="49"/>
+      <c r="AB80" s="49"/>
+      <c r="AC80" s="49"/>
       <c r="AD80" s="12"/>
-      <c r="AE80" s="47"/>
-      <c r="AF80" s="47"/>
-      <c r="AG80" s="59"/>
-      <c r="AH80" s="57"/>
-      <c r="AJ80" s="47"/>
-      <c r="AK80" s="22"/>
-      <c r="AL80" s="22"/>
+      <c r="AE80" s="49"/>
+      <c r="AF80" s="49"/>
+      <c r="AG80" s="61"/>
+      <c r="AH80" s="59"/>
+      <c r="AJ80" s="49"/>
+      <c r="AK80" s="24"/>
+      <c r="AL80" s="24"/>
       <c r="AM80" s="12"/>
       <c r="AN80" s="12"/>
     </row>
@@ -8779,25 +8785,25 @@
       <c r="P81" s="12"/>
       <c r="Q81" s="12"/>
       <c r="R81" s="12"/>
-      <c r="S81" s="22"/>
+      <c r="S81" s="24"/>
       <c r="T81" s="12"/>
       <c r="U81" s="12"/>
       <c r="V81" s="12"/>
       <c r="W81" s="12"/>
       <c r="X81" s="12"/>
       <c r="Y81" s="12"/>
-      <c r="Z81" s="22"/>
-      <c r="AA81" s="47"/>
-      <c r="AB81" s="47"/>
-      <c r="AC81" s="47"/>
+      <c r="Z81" s="24"/>
+      <c r="AA81" s="49"/>
+      <c r="AB81" s="49"/>
+      <c r="AC81" s="49"/>
       <c r="AD81" s="12"/>
-      <c r="AE81" s="47"/>
-      <c r="AF81" s="47"/>
-      <c r="AG81" s="59"/>
-      <c r="AH81" s="57"/>
-      <c r="AJ81" s="47"/>
-      <c r="AK81" s="22"/>
-      <c r="AL81" s="22"/>
+      <c r="AE81" s="49"/>
+      <c r="AF81" s="49"/>
+      <c r="AG81" s="61"/>
+      <c r="AH81" s="59"/>
+      <c r="AJ81" s="49"/>
+      <c r="AK81" s="24"/>
+      <c r="AL81" s="24"/>
       <c r="AM81" s="12"/>
       <c r="AN81" s="12"/>
     </row>
@@ -8822,25 +8828,25 @@
       <c r="P82" s="12"/>
       <c r="Q82" s="12"/>
       <c r="R82" s="12"/>
-      <c r="S82" s="22"/>
+      <c r="S82" s="24"/>
       <c r="T82" s="12"/>
       <c r="U82" s="12"/>
       <c r="V82" s="12"/>
       <c r="W82" s="12"/>
       <c r="X82" s="12"/>
       <c r="Y82" s="12"/>
-      <c r="Z82" s="22"/>
-      <c r="AA82" s="47"/>
-      <c r="AB82" s="47"/>
-      <c r="AC82" s="47"/>
+      <c r="Z82" s="24"/>
+      <c r="AA82" s="49"/>
+      <c r="AB82" s="49"/>
+      <c r="AC82" s="49"/>
       <c r="AD82" s="12"/>
-      <c r="AE82" s="47"/>
-      <c r="AF82" s="47"/>
-      <c r="AG82" s="59"/>
-      <c r="AH82" s="57"/>
-      <c r="AJ82" s="47"/>
-      <c r="AK82" s="22"/>
-      <c r="AL82" s="22"/>
+      <c r="AE82" s="49"/>
+      <c r="AF82" s="49"/>
+      <c r="AG82" s="61"/>
+      <c r="AH82" s="59"/>
+      <c r="AJ82" s="49"/>
+      <c r="AK82" s="24"/>
+      <c r="AL82" s="24"/>
       <c r="AM82" s="12"/>
       <c r="AN82" s="12"/>
     </row>
@@ -8865,25 +8871,25 @@
       <c r="P83" s="12"/>
       <c r="Q83" s="12"/>
       <c r="R83" s="12"/>
-      <c r="S83" s="22"/>
+      <c r="S83" s="24"/>
       <c r="T83" s="12"/>
       <c r="U83" s="12"/>
       <c r="V83" s="12"/>
       <c r="W83" s="12"/>
       <c r="X83" s="12"/>
       <c r="Y83" s="12"/>
-      <c r="Z83" s="22"/>
-      <c r="AA83" s="47"/>
-      <c r="AB83" s="47"/>
-      <c r="AC83" s="47"/>
+      <c r="Z83" s="24"/>
+      <c r="AA83" s="49"/>
+      <c r="AB83" s="49"/>
+      <c r="AC83" s="49"/>
       <c r="AD83" s="12"/>
-      <c r="AE83" s="47"/>
-      <c r="AF83" s="47"/>
-      <c r="AG83" s="59"/>
-      <c r="AH83" s="57"/>
-      <c r="AJ83" s="47"/>
-      <c r="AK83" s="22"/>
-      <c r="AL83" s="22"/>
+      <c r="AE83" s="49"/>
+      <c r="AF83" s="49"/>
+      <c r="AG83" s="61"/>
+      <c r="AH83" s="59"/>
+      <c r="AJ83" s="49"/>
+      <c r="AK83" s="24"/>
+      <c r="AL83" s="24"/>
       <c r="AM83" s="12"/>
       <c r="AN83" s="12"/>
     </row>
@@ -8908,25 +8914,25 @@
       <c r="P84" s="12"/>
       <c r="Q84" s="12"/>
       <c r="R84" s="12"/>
-      <c r="S84" s="22"/>
+      <c r="S84" s="24"/>
       <c r="T84" s="12"/>
       <c r="U84" s="12"/>
       <c r="V84" s="12"/>
       <c r="W84" s="12"/>
       <c r="X84" s="12"/>
       <c r="Y84" s="12"/>
-      <c r="Z84" s="22"/>
-      <c r="AA84" s="47"/>
-      <c r="AB84" s="47"/>
-      <c r="AC84" s="47"/>
+      <c r="Z84" s="24"/>
+      <c r="AA84" s="49"/>
+      <c r="AB84" s="49"/>
+      <c r="AC84" s="49"/>
       <c r="AD84" s="12"/>
-      <c r="AE84" s="47"/>
-      <c r="AF84" s="47"/>
-      <c r="AG84" s="59"/>
-      <c r="AH84" s="57"/>
-      <c r="AJ84" s="47"/>
-      <c r="AK84" s="22"/>
-      <c r="AL84" s="22"/>
+      <c r="AE84" s="49"/>
+      <c r="AF84" s="49"/>
+      <c r="AG84" s="61"/>
+      <c r="AH84" s="59"/>
+      <c r="AJ84" s="49"/>
+      <c r="AK84" s="24"/>
+      <c r="AL84" s="24"/>
       <c r="AM84" s="12"/>
       <c r="AN84" s="12"/>
     </row>
@@ -8951,25 +8957,25 @@
       <c r="P85" s="12"/>
       <c r="Q85" s="12"/>
       <c r="R85" s="12"/>
-      <c r="S85" s="22"/>
+      <c r="S85" s="24"/>
       <c r="T85" s="12"/>
       <c r="U85" s="12"/>
       <c r="V85" s="12"/>
       <c r="W85" s="12"/>
       <c r="X85" s="12"/>
       <c r="Y85" s="12"/>
-      <c r="Z85" s="22"/>
-      <c r="AA85" s="47"/>
-      <c r="AB85" s="47"/>
-      <c r="AC85" s="47"/>
+      <c r="Z85" s="24"/>
+      <c r="AA85" s="49"/>
+      <c r="AB85" s="49"/>
+      <c r="AC85" s="49"/>
       <c r="AD85" s="12"/>
-      <c r="AE85" s="47"/>
-      <c r="AF85" s="47"/>
-      <c r="AG85" s="59"/>
-      <c r="AH85" s="57"/>
-      <c r="AJ85" s="47"/>
-      <c r="AK85" s="22"/>
-      <c r="AL85" s="22"/>
+      <c r="AE85" s="49"/>
+      <c r="AF85" s="49"/>
+      <c r="AG85" s="61"/>
+      <c r="AH85" s="59"/>
+      <c r="AJ85" s="49"/>
+      <c r="AK85" s="24"/>
+      <c r="AL85" s="24"/>
       <c r="AM85" s="12"/>
       <c r="AN85" s="12"/>
     </row>
@@ -8994,25 +9000,25 @@
       <c r="P86" s="12"/>
       <c r="Q86" s="12"/>
       <c r="R86" s="12"/>
-      <c r="S86" s="22"/>
+      <c r="S86" s="24"/>
       <c r="T86" s="12"/>
       <c r="U86" s="12"/>
       <c r="V86" s="12"/>
       <c r="W86" s="12"/>
       <c r="X86" s="12"/>
       <c r="Y86" s="12"/>
-      <c r="Z86" s="22"/>
-      <c r="AA86" s="47"/>
-      <c r="AB86" s="47"/>
-      <c r="AC86" s="47"/>
+      <c r="Z86" s="24"/>
+      <c r="AA86" s="49"/>
+      <c r="AB86" s="49"/>
+      <c r="AC86" s="49"/>
       <c r="AD86" s="12"/>
-      <c r="AE86" s="47"/>
-      <c r="AF86" s="47"/>
-      <c r="AG86" s="59"/>
-      <c r="AH86" s="57"/>
-      <c r="AJ86" s="47"/>
-      <c r="AK86" s="22"/>
-      <c r="AL86" s="22"/>
+      <c r="AE86" s="49"/>
+      <c r="AF86" s="49"/>
+      <c r="AG86" s="61"/>
+      <c r="AH86" s="59"/>
+      <c r="AJ86" s="49"/>
+      <c r="AK86" s="24"/>
+      <c r="AL86" s="24"/>
       <c r="AM86" s="12"/>
       <c r="AN86" s="12"/>
     </row>
@@ -9037,25 +9043,25 @@
       <c r="P87" s="12"/>
       <c r="Q87" s="12"/>
       <c r="R87" s="12"/>
-      <c r="S87" s="22"/>
+      <c r="S87" s="24"/>
       <c r="T87" s="12"/>
       <c r="U87" s="12"/>
       <c r="V87" s="12"/>
       <c r="W87" s="12"/>
       <c r="X87" s="12"/>
       <c r="Y87" s="12"/>
-      <c r="Z87" s="22"/>
-      <c r="AA87" s="47"/>
-      <c r="AB87" s="47"/>
-      <c r="AC87" s="47"/>
+      <c r="Z87" s="24"/>
+      <c r="AA87" s="49"/>
+      <c r="AB87" s="49"/>
+      <c r="AC87" s="49"/>
       <c r="AD87" s="12"/>
-      <c r="AE87" s="47"/>
-      <c r="AF87" s="47"/>
-      <c r="AG87" s="59"/>
-      <c r="AH87" s="57"/>
-      <c r="AJ87" s="47"/>
-      <c r="AK87" s="22"/>
-      <c r="AL87" s="22"/>
+      <c r="AE87" s="49"/>
+      <c r="AF87" s="49"/>
+      <c r="AG87" s="61"/>
+      <c r="AH87" s="59"/>
+      <c r="AJ87" s="49"/>
+      <c r="AK87" s="24"/>
+      <c r="AL87" s="24"/>
       <c r="AM87" s="12"/>
       <c r="AN87" s="12"/>
     </row>
@@ -9080,25 +9086,25 @@
       <c r="P88" s="12"/>
       <c r="Q88" s="12"/>
       <c r="R88" s="12"/>
-      <c r="S88" s="22"/>
+      <c r="S88" s="24"/>
       <c r="T88" s="12"/>
       <c r="U88" s="12"/>
       <c r="V88" s="12"/>
       <c r="W88" s="12"/>
       <c r="X88" s="12"/>
       <c r="Y88" s="12"/>
-      <c r="Z88" s="22"/>
-      <c r="AA88" s="47"/>
-      <c r="AB88" s="47"/>
-      <c r="AC88" s="47"/>
+      <c r="Z88" s="24"/>
+      <c r="AA88" s="49"/>
+      <c r="AB88" s="49"/>
+      <c r="AC88" s="49"/>
       <c r="AD88" s="12"/>
-      <c r="AE88" s="47"/>
-      <c r="AF88" s="47"/>
-      <c r="AG88" s="59"/>
-      <c r="AH88" s="57"/>
-      <c r="AJ88" s="47"/>
-      <c r="AK88" s="22"/>
-      <c r="AL88" s="22"/>
+      <c r="AE88" s="49"/>
+      <c r="AF88" s="49"/>
+      <c r="AG88" s="61"/>
+      <c r="AH88" s="59"/>
+      <c r="AJ88" s="49"/>
+      <c r="AK88" s="24"/>
+      <c r="AL88" s="24"/>
       <c r="AM88" s="12"/>
       <c r="AN88" s="12"/>
     </row>
@@ -9123,25 +9129,25 @@
       <c r="P89" s="12"/>
       <c r="Q89" s="12"/>
       <c r="R89" s="12"/>
-      <c r="S89" s="22"/>
+      <c r="S89" s="24"/>
       <c r="T89" s="12"/>
       <c r="U89" s="12"/>
       <c r="V89" s="12"/>
       <c r="W89" s="12"/>
       <c r="X89" s="12"/>
       <c r="Y89" s="12"/>
-      <c r="Z89" s="22"/>
-      <c r="AA89" s="47"/>
-      <c r="AB89" s="47"/>
-      <c r="AC89" s="47"/>
+      <c r="Z89" s="24"/>
+      <c r="AA89" s="49"/>
+      <c r="AB89" s="49"/>
+      <c r="AC89" s="49"/>
       <c r="AD89" s="12"/>
-      <c r="AE89" s="47"/>
-      <c r="AF89" s="47"/>
-      <c r="AG89" s="59"/>
-      <c r="AH89" s="57"/>
-      <c r="AJ89" s="47"/>
-      <c r="AK89" s="22"/>
-      <c r="AL89" s="22"/>
+      <c r="AE89" s="49"/>
+      <c r="AF89" s="49"/>
+      <c r="AG89" s="61"/>
+      <c r="AH89" s="59"/>
+      <c r="AJ89" s="49"/>
+      <c r="AK89" s="24"/>
+      <c r="AL89" s="24"/>
       <c r="AM89" s="12"/>
       <c r="AN89" s="12"/>
     </row>
@@ -9166,25 +9172,25 @@
       <c r="P90" s="12"/>
       <c r="Q90" s="12"/>
       <c r="R90" s="12"/>
-      <c r="S90" s="22"/>
+      <c r="S90" s="24"/>
       <c r="T90" s="12"/>
       <c r="U90" s="12"/>
       <c r="V90" s="12"/>
       <c r="W90" s="12"/>
       <c r="X90" s="12"/>
       <c r="Y90" s="12"/>
-      <c r="Z90" s="22"/>
-      <c r="AA90" s="47"/>
-      <c r="AB90" s="47"/>
-      <c r="AC90" s="47"/>
+      <c r="Z90" s="24"/>
+      <c r="AA90" s="49"/>
+      <c r="AB90" s="49"/>
+      <c r="AC90" s="49"/>
       <c r="AD90" s="12"/>
-      <c r="AE90" s="47"/>
-      <c r="AF90" s="47"/>
-      <c r="AG90" s="59"/>
-      <c r="AH90" s="57"/>
-      <c r="AJ90" s="47"/>
-      <c r="AK90" s="22"/>
-      <c r="AL90" s="22"/>
+      <c r="AE90" s="49"/>
+      <c r="AF90" s="49"/>
+      <c r="AG90" s="61"/>
+      <c r="AH90" s="59"/>
+      <c r="AJ90" s="49"/>
+      <c r="AK90" s="24"/>
+      <c r="AL90" s="24"/>
       <c r="AM90" s="12"/>
       <c r="AN90" s="12"/>
     </row>
@@ -9209,25 +9215,25 @@
       <c r="P91" s="12"/>
       <c r="Q91" s="12"/>
       <c r="R91" s="12"/>
-      <c r="S91" s="22"/>
+      <c r="S91" s="24"/>
       <c r="T91" s="12"/>
       <c r="U91" s="12"/>
       <c r="V91" s="12"/>
       <c r="W91" s="12"/>
       <c r="X91" s="12"/>
       <c r="Y91" s="12"/>
-      <c r="Z91" s="22"/>
-      <c r="AA91" s="47"/>
-      <c r="AB91" s="47"/>
-      <c r="AC91" s="47"/>
+      <c r="Z91" s="24"/>
+      <c r="AA91" s="49"/>
+      <c r="AB91" s="49"/>
+      <c r="AC91" s="49"/>
       <c r="AD91" s="12"/>
-      <c r="AE91" s="47"/>
-      <c r="AF91" s="47"/>
-      <c r="AG91" s="59"/>
-      <c r="AH91" s="57"/>
-      <c r="AJ91" s="47"/>
-      <c r="AK91" s="22"/>
-      <c r="AL91" s="22"/>
+      <c r="AE91" s="49"/>
+      <c r="AF91" s="49"/>
+      <c r="AG91" s="61"/>
+      <c r="AH91" s="59"/>
+      <c r="AJ91" s="49"/>
+      <c r="AK91" s="24"/>
+      <c r="AL91" s="24"/>
       <c r="AM91" s="12"/>
       <c r="AN91" s="12"/>
     </row>
@@ -9252,25 +9258,25 @@
       <c r="P92" s="12"/>
       <c r="Q92" s="12"/>
       <c r="R92" s="12"/>
-      <c r="S92" s="22"/>
+      <c r="S92" s="24"/>
       <c r="T92" s="12"/>
       <c r="U92" s="12"/>
       <c r="V92" s="12"/>
       <c r="W92" s="12"/>
       <c r="X92" s="12"/>
       <c r="Y92" s="12"/>
-      <c r="Z92" s="22"/>
-      <c r="AA92" s="47"/>
-      <c r="AB92" s="47"/>
-      <c r="AC92" s="47"/>
+      <c r="Z92" s="24"/>
+      <c r="AA92" s="49"/>
+      <c r="AB92" s="49"/>
+      <c r="AC92" s="49"/>
       <c r="AD92" s="12"/>
-      <c r="AE92" s="47"/>
-      <c r="AF92" s="47"/>
-      <c r="AG92" s="59"/>
-      <c r="AH92" s="57"/>
-      <c r="AJ92" s="47"/>
-      <c r="AK92" s="22"/>
-      <c r="AL92" s="22"/>
+      <c r="AE92" s="49"/>
+      <c r="AF92" s="49"/>
+      <c r="AG92" s="61"/>
+      <c r="AH92" s="59"/>
+      <c r="AJ92" s="49"/>
+      <c r="AK92" s="24"/>
+      <c r="AL92" s="24"/>
       <c r="AM92" s="12"/>
       <c r="AN92" s="12"/>
     </row>
@@ -9295,25 +9301,25 @@
       <c r="P93" s="12"/>
       <c r="Q93" s="12"/>
       <c r="R93" s="12"/>
-      <c r="S93" s="22"/>
+      <c r="S93" s="24"/>
       <c r="T93" s="12"/>
       <c r="U93" s="12"/>
       <c r="V93" s="12"/>
       <c r="W93" s="12"/>
       <c r="X93" s="12"/>
       <c r="Y93" s="12"/>
-      <c r="Z93" s="22"/>
-      <c r="AA93" s="47"/>
-      <c r="AB93" s="47"/>
-      <c r="AC93" s="47"/>
+      <c r="Z93" s="24"/>
+      <c r="AA93" s="49"/>
+      <c r="AB93" s="49"/>
+      <c r="AC93" s="49"/>
       <c r="AD93" s="12"/>
-      <c r="AE93" s="47"/>
-      <c r="AF93" s="47"/>
-      <c r="AG93" s="59"/>
-      <c r="AH93" s="57"/>
-      <c r="AJ93" s="47"/>
-      <c r="AK93" s="22"/>
-      <c r="AL93" s="22"/>
+      <c r="AE93" s="49"/>
+      <c r="AF93" s="49"/>
+      <c r="AG93" s="61"/>
+      <c r="AH93" s="59"/>
+      <c r="AJ93" s="49"/>
+      <c r="AK93" s="24"/>
+      <c r="AL93" s="24"/>
       <c r="AM93" s="12"/>
       <c r="AN93" s="12"/>
     </row>
@@ -9338,25 +9344,25 @@
       <c r="P94" s="12"/>
       <c r="Q94" s="12"/>
       <c r="R94" s="12"/>
-      <c r="S94" s="22"/>
+      <c r="S94" s="24"/>
       <c r="T94" s="12"/>
       <c r="U94" s="12"/>
       <c r="V94" s="12"/>
       <c r="W94" s="12"/>
       <c r="X94" s="12"/>
       <c r="Y94" s="12"/>
-      <c r="Z94" s="22"/>
-      <c r="AA94" s="47"/>
-      <c r="AB94" s="47"/>
-      <c r="AC94" s="47"/>
+      <c r="Z94" s="24"/>
+      <c r="AA94" s="49"/>
+      <c r="AB94" s="49"/>
+      <c r="AC94" s="49"/>
       <c r="AD94" s="12"/>
-      <c r="AE94" s="47"/>
-      <c r="AF94" s="47"/>
-      <c r="AG94" s="59"/>
-      <c r="AH94" s="57"/>
-      <c r="AJ94" s="47"/>
-      <c r="AK94" s="22"/>
-      <c r="AL94" s="22"/>
+      <c r="AE94" s="49"/>
+      <c r="AF94" s="49"/>
+      <c r="AG94" s="61"/>
+      <c r="AH94" s="59"/>
+      <c r="AJ94" s="49"/>
+      <c r="AK94" s="24"/>
+      <c r="AL94" s="24"/>
       <c r="AM94" s="12"/>
       <c r="AN94" s="12"/>
     </row>
@@ -9381,25 +9387,25 @@
       <c r="P95" s="12"/>
       <c r="Q95" s="12"/>
       <c r="R95" s="12"/>
-      <c r="S95" s="22"/>
+      <c r="S95" s="24"/>
       <c r="T95" s="12"/>
       <c r="U95" s="12"/>
       <c r="V95" s="12"/>
       <c r="W95" s="12"/>
       <c r="X95" s="12"/>
       <c r="Y95" s="12"/>
-      <c r="Z95" s="22"/>
-      <c r="AA95" s="47"/>
-      <c r="AB95" s="47"/>
-      <c r="AC95" s="47"/>
+      <c r="Z95" s="24"/>
+      <c r="AA95" s="49"/>
+      <c r="AB95" s="49"/>
+      <c r="AC95" s="49"/>
       <c r="AD95" s="12"/>
-      <c r="AE95" s="47"/>
-      <c r="AF95" s="47"/>
-      <c r="AG95" s="59"/>
-      <c r="AH95" s="57"/>
-      <c r="AJ95" s="47"/>
-      <c r="AK95" s="22"/>
-      <c r="AL95" s="22"/>
+      <c r="AE95" s="49"/>
+      <c r="AF95" s="49"/>
+      <c r="AG95" s="61"/>
+      <c r="AH95" s="59"/>
+      <c r="AJ95" s="49"/>
+      <c r="AK95" s="24"/>
+      <c r="AL95" s="24"/>
       <c r="AM95" s="12"/>
       <c r="AN95" s="12"/>
     </row>
@@ -9424,25 +9430,25 @@
       <c r="P96" s="12"/>
       <c r="Q96" s="12"/>
       <c r="R96" s="12"/>
-      <c r="S96" s="22"/>
+      <c r="S96" s="24"/>
       <c r="T96" s="12"/>
       <c r="U96" s="12"/>
       <c r="V96" s="12"/>
       <c r="W96" s="12"/>
       <c r="X96" s="12"/>
       <c r="Y96" s="12"/>
-      <c r="Z96" s="22"/>
-      <c r="AA96" s="47"/>
-      <c r="AB96" s="47"/>
-      <c r="AC96" s="47"/>
+      <c r="Z96" s="24"/>
+      <c r="AA96" s="49"/>
+      <c r="AB96" s="49"/>
+      <c r="AC96" s="49"/>
       <c r="AD96" s="12"/>
-      <c r="AE96" s="47"/>
-      <c r="AF96" s="47"/>
-      <c r="AG96" s="59"/>
-      <c r="AH96" s="57"/>
-      <c r="AJ96" s="47"/>
-      <c r="AK96" s="22"/>
-      <c r="AL96" s="22"/>
+      <c r="AE96" s="49"/>
+      <c r="AF96" s="49"/>
+      <c r="AG96" s="61"/>
+      <c r="AH96" s="59"/>
+      <c r="AJ96" s="49"/>
+      <c r="AK96" s="24"/>
+      <c r="AL96" s="24"/>
       <c r="AM96" s="12"/>
       <c r="AN96" s="12"/>
     </row>
@@ -9467,25 +9473,25 @@
       <c r="P97" s="12"/>
       <c r="Q97" s="12"/>
       <c r="R97" s="12"/>
-      <c r="S97" s="22"/>
+      <c r="S97" s="24"/>
       <c r="T97" s="12"/>
       <c r="U97" s="12"/>
       <c r="V97" s="12"/>
       <c r="W97" s="12"/>
       <c r="X97" s="12"/>
       <c r="Y97" s="12"/>
-      <c r="Z97" s="22"/>
-      <c r="AA97" s="47"/>
-      <c r="AB97" s="47"/>
-      <c r="AC97" s="47"/>
+      <c r="Z97" s="24"/>
+      <c r="AA97" s="49"/>
+      <c r="AB97" s="49"/>
+      <c r="AC97" s="49"/>
       <c r="AD97" s="12"/>
-      <c r="AE97" s="47"/>
-      <c r="AF97" s="47"/>
-      <c r="AG97" s="59"/>
-      <c r="AH97" s="57"/>
-      <c r="AJ97" s="47"/>
-      <c r="AK97" s="22"/>
-      <c r="AL97" s="22"/>
+      <c r="AE97" s="49"/>
+      <c r="AF97" s="49"/>
+      <c r="AG97" s="61"/>
+      <c r="AH97" s="59"/>
+      <c r="AJ97" s="49"/>
+      <c r="AK97" s="24"/>
+      <c r="AL97" s="24"/>
       <c r="AM97" s="12"/>
       <c r="AN97" s="12"/>
     </row>
@@ -9510,25 +9516,25 @@
       <c r="P98" s="12"/>
       <c r="Q98" s="12"/>
       <c r="R98" s="12"/>
-      <c r="S98" s="22"/>
+      <c r="S98" s="24"/>
       <c r="T98" s="12"/>
       <c r="U98" s="12"/>
       <c r="V98" s="12"/>
       <c r="W98" s="12"/>
       <c r="X98" s="12"/>
       <c r="Y98" s="12"/>
-      <c r="Z98" s="22"/>
-      <c r="AA98" s="47"/>
-      <c r="AB98" s="47"/>
-      <c r="AC98" s="47"/>
+      <c r="Z98" s="24"/>
+      <c r="AA98" s="49"/>
+      <c r="AB98" s="49"/>
+      <c r="AC98" s="49"/>
       <c r="AD98" s="12"/>
-      <c r="AE98" s="47"/>
-      <c r="AF98" s="47"/>
-      <c r="AG98" s="59"/>
-      <c r="AH98" s="57"/>
-      <c r="AJ98" s="47"/>
-      <c r="AK98" s="22"/>
-      <c r="AL98" s="22"/>
+      <c r="AE98" s="49"/>
+      <c r="AF98" s="49"/>
+      <c r="AG98" s="61"/>
+      <c r="AH98" s="59"/>
+      <c r="AJ98" s="49"/>
+      <c r="AK98" s="24"/>
+      <c r="AL98" s="24"/>
       <c r="AM98" s="12"/>
       <c r="AN98" s="12"/>
     </row>
@@ -9553,25 +9559,25 @@
       <c r="P99" s="12"/>
       <c r="Q99" s="12"/>
       <c r="R99" s="12"/>
-      <c r="S99" s="22"/>
+      <c r="S99" s="24"/>
       <c r="T99" s="12"/>
       <c r="U99" s="12"/>
       <c r="V99" s="12"/>
       <c r="W99" s="12"/>
       <c r="X99" s="12"/>
       <c r="Y99" s="12"/>
-      <c r="Z99" s="22"/>
-      <c r="AA99" s="47"/>
-      <c r="AB99" s="47"/>
-      <c r="AC99" s="47"/>
+      <c r="Z99" s="24"/>
+      <c r="AA99" s="49"/>
+      <c r="AB99" s="49"/>
+      <c r="AC99" s="49"/>
       <c r="AD99" s="12"/>
-      <c r="AE99" s="47"/>
-      <c r="AF99" s="47"/>
-      <c r="AG99" s="59"/>
-      <c r="AH99" s="57"/>
-      <c r="AJ99" s="47"/>
-      <c r="AK99" s="22"/>
-      <c r="AL99" s="22"/>
+      <c r="AE99" s="49"/>
+      <c r="AF99" s="49"/>
+      <c r="AG99" s="61"/>
+      <c r="AH99" s="59"/>
+      <c r="AJ99" s="49"/>
+      <c r="AK99" s="24"/>
+      <c r="AL99" s="24"/>
       <c r="AM99" s="12"/>
       <c r="AN99" s="12"/>
     </row>
@@ -9596,25 +9602,25 @@
       <c r="P100" s="12"/>
       <c r="Q100" s="12"/>
       <c r="R100" s="12"/>
-      <c r="S100" s="22"/>
+      <c r="S100" s="24"/>
       <c r="T100" s="12"/>
       <c r="U100" s="12"/>
       <c r="V100" s="12"/>
       <c r="W100" s="12"/>
       <c r="X100" s="12"/>
       <c r="Y100" s="12"/>
-      <c r="Z100" s="22"/>
-      <c r="AA100" s="47"/>
-      <c r="AB100" s="47"/>
-      <c r="AC100" s="47"/>
+      <c r="Z100" s="24"/>
+      <c r="AA100" s="49"/>
+      <c r="AB100" s="49"/>
+      <c r="AC100" s="49"/>
       <c r="AD100" s="12"/>
-      <c r="AE100" s="47"/>
-      <c r="AF100" s="47"/>
-      <c r="AG100" s="59"/>
-      <c r="AH100" s="57"/>
-      <c r="AJ100" s="47"/>
-      <c r="AK100" s="22"/>
-      <c r="AL100" s="22"/>
+      <c r="AE100" s="49"/>
+      <c r="AF100" s="49"/>
+      <c r="AG100" s="61"/>
+      <c r="AH100" s="59"/>
+      <c r="AJ100" s="49"/>
+      <c r="AK100" s="24"/>
+      <c r="AL100" s="24"/>
       <c r="AM100" s="12"/>
       <c r="AN100" s="12"/>
     </row>
@@ -9639,25 +9645,25 @@
       <c r="P101" s="12"/>
       <c r="Q101" s="12"/>
       <c r="R101" s="12"/>
-      <c r="S101" s="22"/>
+      <c r="S101" s="24"/>
       <c r="T101" s="12"/>
       <c r="U101" s="12"/>
       <c r="V101" s="12"/>
       <c r="W101" s="12"/>
       <c r="X101" s="12"/>
       <c r="Y101" s="12"/>
-      <c r="Z101" s="22"/>
-      <c r="AA101" s="47"/>
-      <c r="AB101" s="47"/>
-      <c r="AC101" s="47"/>
+      <c r="Z101" s="24"/>
+      <c r="AA101" s="49"/>
+      <c r="AB101" s="49"/>
+      <c r="AC101" s="49"/>
       <c r="AD101" s="12"/>
-      <c r="AE101" s="47"/>
-      <c r="AF101" s="47"/>
-      <c r="AG101" s="59"/>
-      <c r="AH101" s="57"/>
-      <c r="AJ101" s="47"/>
-      <c r="AK101" s="22"/>
-      <c r="AL101" s="22"/>
+      <c r="AE101" s="49"/>
+      <c r="AF101" s="49"/>
+      <c r="AG101" s="61"/>
+      <c r="AH101" s="59"/>
+      <c r="AJ101" s="49"/>
+      <c r="AK101" s="24"/>
+      <c r="AL101" s="24"/>
       <c r="AM101" s="12"/>
       <c r="AN101" s="12"/>
     </row>
@@ -9682,25 +9688,25 @@
       <c r="P102" s="12"/>
       <c r="Q102" s="12"/>
       <c r="R102" s="12"/>
-      <c r="S102" s="22"/>
+      <c r="S102" s="24"/>
       <c r="T102" s="12"/>
       <c r="U102" s="12"/>
       <c r="V102" s="12"/>
       <c r="W102" s="12"/>
       <c r="X102" s="12"/>
       <c r="Y102" s="12"/>
-      <c r="Z102" s="22"/>
-      <c r="AA102" s="47"/>
-      <c r="AB102" s="47"/>
-      <c r="AC102" s="47"/>
+      <c r="Z102" s="24"/>
+      <c r="AA102" s="49"/>
+      <c r="AB102" s="49"/>
+      <c r="AC102" s="49"/>
       <c r="AD102" s="12"/>
-      <c r="AE102" s="47"/>
-      <c r="AF102" s="47"/>
-      <c r="AG102" s="59"/>
-      <c r="AH102" s="57"/>
-      <c r="AJ102" s="47"/>
-      <c r="AK102" s="22"/>
-      <c r="AL102" s="22"/>
+      <c r="AE102" s="49"/>
+      <c r="AF102" s="49"/>
+      <c r="AG102" s="61"/>
+      <c r="AH102" s="59"/>
+      <c r="AJ102" s="49"/>
+      <c r="AK102" s="24"/>
+      <c r="AL102" s="24"/>
       <c r="AM102" s="12"/>
       <c r="AN102" s="12"/>
     </row>
@@ -9725,25 +9731,25 @@
       <c r="P103" s="12"/>
       <c r="Q103" s="12"/>
       <c r="R103" s="12"/>
-      <c r="S103" s="22"/>
+      <c r="S103" s="24"/>
       <c r="T103" s="12"/>
       <c r="U103" s="12"/>
       <c r="V103" s="12"/>
       <c r="W103" s="12"/>
       <c r="X103" s="12"/>
       <c r="Y103" s="12"/>
-      <c r="Z103" s="22"/>
-      <c r="AA103" s="47"/>
-      <c r="AB103" s="47"/>
-      <c r="AC103" s="47"/>
+      <c r="Z103" s="24"/>
+      <c r="AA103" s="49"/>
+      <c r="AB103" s="49"/>
+      <c r="AC103" s="49"/>
       <c r="AD103" s="12"/>
-      <c r="AE103" s="47"/>
-      <c r="AF103" s="47"/>
-      <c r="AG103" s="59"/>
-      <c r="AH103" s="57"/>
-      <c r="AJ103" s="47"/>
-      <c r="AK103" s="22"/>
-      <c r="AL103" s="22"/>
+      <c r="AE103" s="49"/>
+      <c r="AF103" s="49"/>
+      <c r="AG103" s="61"/>
+      <c r="AH103" s="59"/>
+      <c r="AJ103" s="49"/>
+      <c r="AK103" s="24"/>
+      <c r="AL103" s="24"/>
       <c r="AM103" s="12"/>
       <c r="AN103" s="12"/>
     </row>
@@ -9768,25 +9774,25 @@
       <c r="P104" s="12"/>
       <c r="Q104" s="12"/>
       <c r="R104" s="12"/>
-      <c r="S104" s="22"/>
+      <c r="S104" s="24"/>
       <c r="T104" s="12"/>
       <c r="U104" s="12"/>
       <c r="V104" s="12"/>
       <c r="W104" s="12"/>
       <c r="X104" s="12"/>
       <c r="Y104" s="12"/>
-      <c r="Z104" s="22"/>
-      <c r="AA104" s="47"/>
-      <c r="AB104" s="47"/>
-      <c r="AC104" s="47"/>
+      <c r="Z104" s="24"/>
+      <c r="AA104" s="49"/>
+      <c r="AB104" s="49"/>
+      <c r="AC104" s="49"/>
       <c r="AD104" s="12"/>
-      <c r="AE104" s="47"/>
-      <c r="AF104" s="47"/>
-      <c r="AG104" s="59"/>
-      <c r="AH104" s="57"/>
-      <c r="AJ104" s="47"/>
-      <c r="AK104" s="22"/>
-      <c r="AL104" s="22"/>
+      <c r="AE104" s="49"/>
+      <c r="AF104" s="49"/>
+      <c r="AG104" s="61"/>
+      <c r="AH104" s="59"/>
+      <c r="AJ104" s="49"/>
+      <c r="AK104" s="24"/>
+      <c r="AL104" s="24"/>
       <c r="AM104" s="12"/>
       <c r="AN104" s="12"/>
     </row>
@@ -9811,25 +9817,25 @@
       <c r="P105" s="12"/>
       <c r="Q105" s="12"/>
       <c r="R105" s="12"/>
-      <c r="S105" s="22"/>
+      <c r="S105" s="24"/>
       <c r="T105" s="12"/>
       <c r="U105" s="12"/>
       <c r="V105" s="12"/>
       <c r="W105" s="12"/>
       <c r="X105" s="12"/>
       <c r="Y105" s="12"/>
-      <c r="Z105" s="22"/>
-      <c r="AA105" s="47"/>
-      <c r="AB105" s="47"/>
-      <c r="AC105" s="47"/>
+      <c r="Z105" s="24"/>
+      <c r="AA105" s="49"/>
+      <c r="AB105" s="49"/>
+      <c r="AC105" s="49"/>
       <c r="AD105" s="12"/>
-      <c r="AE105" s="47"/>
-      <c r="AF105" s="47"/>
-      <c r="AG105" s="59"/>
-      <c r="AH105" s="57"/>
-      <c r="AJ105" s="47"/>
-      <c r="AK105" s="22"/>
-      <c r="AL105" s="22"/>
+      <c r="AE105" s="49"/>
+      <c r="AF105" s="49"/>
+      <c r="AG105" s="61"/>
+      <c r="AH105" s="59"/>
+      <c r="AJ105" s="49"/>
+      <c r="AK105" s="24"/>
+      <c r="AL105" s="24"/>
       <c r="AM105" s="12"/>
       <c r="AN105" s="12"/>
     </row>
@@ -9854,25 +9860,25 @@
       <c r="P106" s="12"/>
       <c r="Q106" s="12"/>
       <c r="R106" s="12"/>
-      <c r="S106" s="22"/>
+      <c r="S106" s="24"/>
       <c r="T106" s="12"/>
       <c r="U106" s="12"/>
       <c r="V106" s="12"/>
       <c r="W106" s="12"/>
       <c r="X106" s="12"/>
       <c r="Y106" s="12"/>
-      <c r="Z106" s="22"/>
-      <c r="AA106" s="47"/>
-      <c r="AB106" s="47"/>
-      <c r="AC106" s="47"/>
+      <c r="Z106" s="24"/>
+      <c r="AA106" s="49"/>
+      <c r="AB106" s="49"/>
+      <c r="AC106" s="49"/>
       <c r="AD106" s="12"/>
-      <c r="AE106" s="47"/>
-      <c r="AF106" s="47"/>
-      <c r="AG106" s="59"/>
-      <c r="AH106" s="57"/>
-      <c r="AJ106" s="47"/>
-      <c r="AK106" s="22"/>
-      <c r="AL106" s="22"/>
+      <c r="AE106" s="49"/>
+      <c r="AF106" s="49"/>
+      <c r="AG106" s="61"/>
+      <c r="AH106" s="59"/>
+      <c r="AJ106" s="49"/>
+      <c r="AK106" s="24"/>
+      <c r="AL106" s="24"/>
       <c r="AM106" s="12"/>
       <c r="AN106" s="12"/>
     </row>
@@ -9897,25 +9903,25 @@
       <c r="P107" s="12"/>
       <c r="Q107" s="12"/>
       <c r="R107" s="12"/>
-      <c r="S107" s="22"/>
+      <c r="S107" s="24"/>
       <c r="T107" s="12"/>
       <c r="U107" s="12"/>
       <c r="V107" s="12"/>
       <c r="W107" s="12"/>
       <c r="X107" s="12"/>
       <c r="Y107" s="12"/>
-      <c r="Z107" s="22"/>
-      <c r="AA107" s="47"/>
-      <c r="AB107" s="47"/>
-      <c r="AC107" s="47"/>
+      <c r="Z107" s="24"/>
+      <c r="AA107" s="49"/>
+      <c r="AB107" s="49"/>
+      <c r="AC107" s="49"/>
       <c r="AD107" s="12"/>
-      <c r="AE107" s="47"/>
-      <c r="AF107" s="47"/>
-      <c r="AG107" s="59"/>
-      <c r="AH107" s="57"/>
-      <c r="AJ107" s="47"/>
-      <c r="AK107" s="22"/>
-      <c r="AL107" s="22"/>
+      <c r="AE107" s="49"/>
+      <c r="AF107" s="49"/>
+      <c r="AG107" s="61"/>
+      <c r="AH107" s="59"/>
+      <c r="AJ107" s="49"/>
+      <c r="AK107" s="24"/>
+      <c r="AL107" s="24"/>
       <c r="AM107" s="12"/>
       <c r="AN107" s="12"/>
     </row>
@@ -9940,25 +9946,25 @@
       <c r="P108" s="12"/>
       <c r="Q108" s="12"/>
       <c r="R108" s="12"/>
-      <c r="S108" s="22"/>
+      <c r="S108" s="24"/>
       <c r="T108" s="12"/>
       <c r="U108" s="12"/>
       <c r="V108" s="12"/>
       <c r="W108" s="12"/>
       <c r="X108" s="12"/>
       <c r="Y108" s="12"/>
-      <c r="Z108" s="22"/>
-      <c r="AA108" s="47"/>
-      <c r="AB108" s="47"/>
-      <c r="AC108" s="47"/>
+      <c r="Z108" s="24"/>
+      <c r="AA108" s="49"/>
+      <c r="AB108" s="49"/>
+      <c r="AC108" s="49"/>
       <c r="AD108" s="12"/>
-      <c r="AE108" s="47"/>
-      <c r="AF108" s="47"/>
-      <c r="AG108" s="59"/>
-      <c r="AH108" s="57"/>
-      <c r="AJ108" s="47"/>
-      <c r="AK108" s="22"/>
-      <c r="AL108" s="22"/>
+      <c r="AE108" s="49"/>
+      <c r="AF108" s="49"/>
+      <c r="AG108" s="61"/>
+      <c r="AH108" s="59"/>
+      <c r="AJ108" s="49"/>
+      <c r="AK108" s="24"/>
+      <c r="AL108" s="24"/>
       <c r="AM108" s="12"/>
       <c r="AN108" s="12"/>
     </row>
@@ -9983,25 +9989,25 @@
       <c r="P109" s="12"/>
       <c r="Q109" s="12"/>
       <c r="R109" s="12"/>
-      <c r="S109" s="22"/>
+      <c r="S109" s="24"/>
       <c r="T109" s="12"/>
       <c r="U109" s="12"/>
       <c r="V109" s="12"/>
       <c r="W109" s="12"/>
       <c r="X109" s="12"/>
       <c r="Y109" s="12"/>
-      <c r="Z109" s="22"/>
-      <c r="AA109" s="47"/>
-      <c r="AB109" s="47"/>
-      <c r="AC109" s="47"/>
+      <c r="Z109" s="24"/>
+      <c r="AA109" s="49"/>
+      <c r="AB109" s="49"/>
+      <c r="AC109" s="49"/>
       <c r="AD109" s="12"/>
-      <c r="AE109" s="47"/>
-      <c r="AF109" s="47"/>
-      <c r="AG109" s="59"/>
-      <c r="AH109" s="57"/>
-      <c r="AJ109" s="47"/>
-      <c r="AK109" s="22"/>
-      <c r="AL109" s="22"/>
+      <c r="AE109" s="49"/>
+      <c r="AF109" s="49"/>
+      <c r="AG109" s="61"/>
+      <c r="AH109" s="59"/>
+      <c r="AJ109" s="49"/>
+      <c r="AK109" s="24"/>
+      <c r="AL109" s="24"/>
       <c r="AM109" s="12"/>
       <c r="AN109" s="12"/>
     </row>
@@ -10026,25 +10032,25 @@
       <c r="P110" s="12"/>
       <c r="Q110" s="12"/>
       <c r="R110" s="12"/>
-      <c r="S110" s="22"/>
+      <c r="S110" s="24"/>
       <c r="T110" s="12"/>
       <c r="U110" s="12"/>
       <c r="V110" s="12"/>
       <c r="W110" s="12"/>
       <c r="X110" s="12"/>
       <c r="Y110" s="12"/>
-      <c r="Z110" s="22"/>
-      <c r="AA110" s="47"/>
-      <c r="AB110" s="47"/>
-      <c r="AC110" s="47"/>
+      <c r="Z110" s="24"/>
+      <c r="AA110" s="49"/>
+      <c r="AB110" s="49"/>
+      <c r="AC110" s="49"/>
       <c r="AD110" s="12"/>
-      <c r="AE110" s="47"/>
-      <c r="AF110" s="47"/>
-      <c r="AG110" s="59"/>
-      <c r="AH110" s="57"/>
-      <c r="AJ110" s="47"/>
-      <c r="AK110" s="22"/>
-      <c r="AL110" s="22"/>
+      <c r="AE110" s="49"/>
+      <c r="AF110" s="49"/>
+      <c r="AG110" s="61"/>
+      <c r="AH110" s="59"/>
+      <c r="AJ110" s="49"/>
+      <c r="AK110" s="24"/>
+      <c r="AL110" s="24"/>
       <c r="AM110" s="12"/>
       <c r="AN110" s="12"/>
     </row>
@@ -10069,25 +10075,25 @@
       <c r="P111" s="12"/>
       <c r="Q111" s="12"/>
       <c r="R111" s="12"/>
-      <c r="S111" s="22"/>
+      <c r="S111" s="24"/>
       <c r="T111" s="12"/>
       <c r="U111" s="12"/>
       <c r="V111" s="12"/>
       <c r="W111" s="12"/>
       <c r="X111" s="12"/>
       <c r="Y111" s="12"/>
-      <c r="Z111" s="22"/>
-      <c r="AA111" s="47"/>
-      <c r="AB111" s="47"/>
-      <c r="AC111" s="47"/>
+      <c r="Z111" s="24"/>
+      <c r="AA111" s="49"/>
+      <c r="AB111" s="49"/>
+      <c r="AC111" s="49"/>
       <c r="AD111" s="12"/>
-      <c r="AE111" s="47"/>
-      <c r="AF111" s="47"/>
-      <c r="AG111" s="59"/>
-      <c r="AH111" s="57"/>
-      <c r="AJ111" s="47"/>
-      <c r="AK111" s="22"/>
-      <c r="AL111" s="22"/>
+      <c r="AE111" s="49"/>
+      <c r="AF111" s="49"/>
+      <c r="AG111" s="61"/>
+      <c r="AH111" s="59"/>
+      <c r="AJ111" s="49"/>
+      <c r="AK111" s="24"/>
+      <c r="AL111" s="24"/>
       <c r="AM111" s="12"/>
       <c r="AN111" s="12"/>
     </row>
@@ -10112,25 +10118,25 @@
       <c r="P112" s="12"/>
       <c r="Q112" s="12"/>
       <c r="R112" s="12"/>
-      <c r="S112" s="22"/>
+      <c r="S112" s="24"/>
       <c r="T112" s="12"/>
       <c r="U112" s="12"/>
       <c r="V112" s="12"/>
       <c r="W112" s="12"/>
       <c r="X112" s="12"/>
       <c r="Y112" s="12"/>
-      <c r="Z112" s="22"/>
-      <c r="AA112" s="47"/>
-      <c r="AB112" s="47"/>
-      <c r="AC112" s="47"/>
+      <c r="Z112" s="24"/>
+      <c r="AA112" s="49"/>
+      <c r="AB112" s="49"/>
+      <c r="AC112" s="49"/>
       <c r="AD112" s="12"/>
-      <c r="AE112" s="47"/>
-      <c r="AF112" s="47"/>
-      <c r="AG112" s="59"/>
-      <c r="AH112" s="57"/>
-      <c r="AJ112" s="47"/>
-      <c r="AK112" s="22"/>
-      <c r="AL112" s="22"/>
+      <c r="AE112" s="49"/>
+      <c r="AF112" s="49"/>
+      <c r="AG112" s="61"/>
+      <c r="AH112" s="59"/>
+      <c r="AJ112" s="49"/>
+      <c r="AK112" s="24"/>
+      <c r="AL112" s="24"/>
       <c r="AM112" s="12"/>
       <c r="AN112" s="12"/>
     </row>
@@ -10155,25 +10161,25 @@
       <c r="P113" s="12"/>
       <c r="Q113" s="12"/>
       <c r="R113" s="12"/>
-      <c r="S113" s="22"/>
+      <c r="S113" s="24"/>
       <c r="T113" s="12"/>
       <c r="U113" s="12"/>
       <c r="V113" s="12"/>
       <c r="W113" s="12"/>
       <c r="X113" s="12"/>
       <c r="Y113" s="12"/>
-      <c r="Z113" s="22"/>
-      <c r="AA113" s="47"/>
-      <c r="AB113" s="47"/>
-      <c r="AC113" s="47"/>
+      <c r="Z113" s="24"/>
+      <c r="AA113" s="49"/>
+      <c r="AB113" s="49"/>
+      <c r="AC113" s="49"/>
       <c r="AD113" s="12"/>
-      <c r="AE113" s="47"/>
-      <c r="AF113" s="47"/>
-      <c r="AG113" s="59"/>
-      <c r="AH113" s="57"/>
-      <c r="AJ113" s="47"/>
-      <c r="AK113" s="22"/>
-      <c r="AL113" s="22"/>
+      <c r="AE113" s="49"/>
+      <c r="AF113" s="49"/>
+      <c r="AG113" s="61"/>
+      <c r="AH113" s="59"/>
+      <c r="AJ113" s="49"/>
+      <c r="AK113" s="24"/>
+      <c r="AL113" s="24"/>
       <c r="AM113" s="12"/>
       <c r="AN113" s="12"/>
     </row>
@@ -10198,25 +10204,25 @@
       <c r="P114" s="12"/>
       <c r="Q114" s="12"/>
       <c r="R114" s="12"/>
-      <c r="S114" s="22"/>
+      <c r="S114" s="24"/>
       <c r="T114" s="12"/>
       <c r="U114" s="12"/>
       <c r="V114" s="12"/>
       <c r="W114" s="12"/>
       <c r="X114" s="12"/>
       <c r="Y114" s="12"/>
-      <c r="Z114" s="22"/>
-      <c r="AA114" s="47"/>
-      <c r="AB114" s="47"/>
-      <c r="AC114" s="47"/>
+      <c r="Z114" s="24"/>
+      <c r="AA114" s="49"/>
+      <c r="AB114" s="49"/>
+      <c r="AC114" s="49"/>
       <c r="AD114" s="12"/>
-      <c r="AE114" s="47"/>
-      <c r="AF114" s="47"/>
-      <c r="AG114" s="59"/>
-      <c r="AH114" s="57"/>
-      <c r="AJ114" s="47"/>
-      <c r="AK114" s="22"/>
-      <c r="AL114" s="22"/>
+      <c r="AE114" s="49"/>
+      <c r="AF114" s="49"/>
+      <c r="AG114" s="61"/>
+      <c r="AH114" s="59"/>
+      <c r="AJ114" s="49"/>
+      <c r="AK114" s="24"/>
+      <c r="AL114" s="24"/>
       <c r="AM114" s="12"/>
       <c r="AN114" s="12"/>
     </row>
@@ -10241,25 +10247,25 @@
       <c r="P115" s="12"/>
       <c r="Q115" s="12"/>
       <c r="R115" s="12"/>
-      <c r="S115" s="22"/>
+      <c r="S115" s="24"/>
       <c r="T115" s="12"/>
       <c r="U115" s="12"/>
       <c r="V115" s="12"/>
       <c r="W115" s="12"/>
       <c r="X115" s="12"/>
       <c r="Y115" s="12"/>
-      <c r="Z115" s="22"/>
-      <c r="AA115" s="47"/>
-      <c r="AB115" s="47"/>
-      <c r="AC115" s="47"/>
+      <c r="Z115" s="24"/>
+      <c r="AA115" s="49"/>
+      <c r="AB115" s="49"/>
+      <c r="AC115" s="49"/>
       <c r="AD115" s="12"/>
-      <c r="AE115" s="47"/>
-      <c r="AF115" s="47"/>
-      <c r="AG115" s="59"/>
-      <c r="AH115" s="57"/>
-      <c r="AJ115" s="47"/>
-      <c r="AK115" s="22"/>
-      <c r="AL115" s="22"/>
+      <c r="AE115" s="49"/>
+      <c r="AF115" s="49"/>
+      <c r="AG115" s="61"/>
+      <c r="AH115" s="59"/>
+      <c r="AJ115" s="49"/>
+      <c r="AK115" s="24"/>
+      <c r="AL115" s="24"/>
       <c r="AM115" s="12"/>
       <c r="AN115" s="12"/>
     </row>
@@ -10284,25 +10290,25 @@
       <c r="P116" s="12"/>
       <c r="Q116" s="12"/>
       <c r="R116" s="12"/>
-      <c r="S116" s="22"/>
+      <c r="S116" s="24"/>
       <c r="T116" s="12"/>
       <c r="U116" s="12"/>
       <c r="V116" s="12"/>
       <c r="W116" s="12"/>
       <c r="X116" s="12"/>
       <c r="Y116" s="12"/>
-      <c r="Z116" s="22"/>
-      <c r="AA116" s="47"/>
-      <c r="AB116" s="47"/>
-      <c r="AC116" s="47"/>
+      <c r="Z116" s="24"/>
+      <c r="AA116" s="49"/>
+      <c r="AB116" s="49"/>
+      <c r="AC116" s="49"/>
       <c r="AD116" s="12"/>
-      <c r="AE116" s="47"/>
-      <c r="AF116" s="47"/>
-      <c r="AG116" s="59"/>
-      <c r="AH116" s="57"/>
-      <c r="AJ116" s="47"/>
-      <c r="AK116" s="22"/>
-      <c r="AL116" s="22"/>
+      <c r="AE116" s="49"/>
+      <c r="AF116" s="49"/>
+      <c r="AG116" s="61"/>
+      <c r="AH116" s="59"/>
+      <c r="AJ116" s="49"/>
+      <c r="AK116" s="24"/>
+      <c r="AL116" s="24"/>
       <c r="AM116" s="12"/>
       <c r="AN116" s="12"/>
     </row>
@@ -10327,25 +10333,25 @@
       <c r="P117" s="12"/>
       <c r="Q117" s="12"/>
       <c r="R117" s="12"/>
-      <c r="S117" s="22"/>
+      <c r="S117" s="24"/>
       <c r="T117" s="12"/>
       <c r="U117" s="12"/>
       <c r="V117" s="12"/>
       <c r="W117" s="12"/>
       <c r="X117" s="12"/>
       <c r="Y117" s="12"/>
-      <c r="Z117" s="22"/>
-      <c r="AA117" s="47"/>
-      <c r="AB117" s="47"/>
-      <c r="AC117" s="47"/>
+      <c r="Z117" s="24"/>
+      <c r="AA117" s="49"/>
+      <c r="AB117" s="49"/>
+      <c r="AC117" s="49"/>
       <c r="AD117" s="12"/>
-      <c r="AE117" s="47"/>
-      <c r="AF117" s="47"/>
-      <c r="AG117" s="59"/>
-      <c r="AH117" s="57"/>
-      <c r="AJ117" s="47"/>
-      <c r="AK117" s="22"/>
-      <c r="AL117" s="22"/>
+      <c r="AE117" s="49"/>
+      <c r="AF117" s="49"/>
+      <c r="AG117" s="61"/>
+      <c r="AH117" s="59"/>
+      <c r="AJ117" s="49"/>
+      <c r="AK117" s="24"/>
+      <c r="AL117" s="24"/>
       <c r="AM117" s="12"/>
       <c r="AN117" s="12"/>
     </row>
@@ -10370,25 +10376,25 @@
       <c r="P118" s="12"/>
       <c r="Q118" s="12"/>
       <c r="R118" s="12"/>
-      <c r="S118" s="22"/>
+      <c r="S118" s="24"/>
       <c r="T118" s="12"/>
       <c r="U118" s="12"/>
       <c r="V118" s="12"/>
       <c r="W118" s="12"/>
       <c r="X118" s="12"/>
       <c r="Y118" s="12"/>
-      <c r="Z118" s="22"/>
-      <c r="AA118" s="47"/>
-      <c r="AB118" s="47"/>
-      <c r="AC118" s="47"/>
+      <c r="Z118" s="24"/>
+      <c r="AA118" s="49"/>
+      <c r="AB118" s="49"/>
+      <c r="AC118" s="49"/>
       <c r="AD118" s="12"/>
-      <c r="AE118" s="47"/>
-      <c r="AF118" s="47"/>
-      <c r="AG118" s="59"/>
-      <c r="AH118" s="57"/>
-      <c r="AJ118" s="47"/>
-      <c r="AK118" s="22"/>
-      <c r="AL118" s="22"/>
+      <c r="AE118" s="49"/>
+      <c r="AF118" s="49"/>
+      <c r="AG118" s="61"/>
+      <c r="AH118" s="59"/>
+      <c r="AJ118" s="49"/>
+      <c r="AK118" s="24"/>
+      <c r="AL118" s="24"/>
       <c r="AM118" s="12"/>
       <c r="AN118" s="12"/>
     </row>
@@ -10413,25 +10419,25 @@
       <c r="P119" s="12"/>
       <c r="Q119" s="12"/>
       <c r="R119" s="12"/>
-      <c r="S119" s="22"/>
+      <c r="S119" s="24"/>
       <c r="T119" s="12"/>
       <c r="U119" s="12"/>
       <c r="V119" s="12"/>
       <c r="W119" s="12"/>
       <c r="X119" s="12"/>
       <c r="Y119" s="12"/>
-      <c r="Z119" s="22"/>
-      <c r="AA119" s="47"/>
-      <c r="AB119" s="47"/>
-      <c r="AC119" s="47"/>
+      <c r="Z119" s="24"/>
+      <c r="AA119" s="49"/>
+      <c r="AB119" s="49"/>
+      <c r="AC119" s="49"/>
       <c r="AD119" s="12"/>
-      <c r="AE119" s="47"/>
-      <c r="AF119" s="47"/>
-      <c r="AG119" s="59"/>
-      <c r="AH119" s="57"/>
-      <c r="AJ119" s="47"/>
-      <c r="AK119" s="22"/>
-      <c r="AL119" s="22"/>
+      <c r="AE119" s="49"/>
+      <c r="AF119" s="49"/>
+      <c r="AG119" s="61"/>
+      <c r="AH119" s="59"/>
+      <c r="AJ119" s="49"/>
+      <c r="AK119" s="24"/>
+      <c r="AL119" s="24"/>
       <c r="AM119" s="12"/>
       <c r="AN119" s="12"/>
     </row>
@@ -10456,25 +10462,25 @@
       <c r="P120" s="12"/>
       <c r="Q120" s="12"/>
       <c r="R120" s="12"/>
-      <c r="S120" s="22"/>
+      <c r="S120" s="24"/>
       <c r="T120" s="12"/>
       <c r="U120" s="12"/>
       <c r="V120" s="12"/>
       <c r="W120" s="12"/>
       <c r="X120" s="12"/>
       <c r="Y120" s="12"/>
-      <c r="Z120" s="22"/>
-      <c r="AA120" s="47"/>
-      <c r="AB120" s="47"/>
-      <c r="AC120" s="47"/>
+      <c r="Z120" s="24"/>
+      <c r="AA120" s="49"/>
+      <c r="AB120" s="49"/>
+      <c r="AC120" s="49"/>
       <c r="AD120" s="12"/>
-      <c r="AE120" s="47"/>
-      <c r="AF120" s="47"/>
-      <c r="AG120" s="59"/>
-      <c r="AH120" s="57"/>
-      <c r="AJ120" s="47"/>
-      <c r="AK120" s="22"/>
-      <c r="AL120" s="22"/>
+      <c r="AE120" s="49"/>
+      <c r="AF120" s="49"/>
+      <c r="AG120" s="61"/>
+      <c r="AH120" s="59"/>
+      <c r="AJ120" s="49"/>
+      <c r="AK120" s="24"/>
+      <c r="AL120" s="24"/>
       <c r="AM120" s="12"/>
       <c r="AN120" s="12"/>
     </row>
@@ -10499,25 +10505,25 @@
       <c r="P121" s="12"/>
       <c r="Q121" s="12"/>
       <c r="R121" s="12"/>
-      <c r="S121" s="22"/>
+      <c r="S121" s="24"/>
       <c r="T121" s="12"/>
       <c r="U121" s="12"/>
       <c r="V121" s="12"/>
       <c r="W121" s="12"/>
       <c r="X121" s="12"/>
       <c r="Y121" s="12"/>
-      <c r="Z121" s="22"/>
-      <c r="AA121" s="47"/>
-      <c r="AB121" s="47"/>
-      <c r="AC121" s="47"/>
+      <c r="Z121" s="24"/>
+      <c r="AA121" s="49"/>
+      <c r="AB121" s="49"/>
+      <c r="AC121" s="49"/>
       <c r="AD121" s="12"/>
-      <c r="AE121" s="47"/>
-      <c r="AF121" s="47"/>
-      <c r="AG121" s="59"/>
-      <c r="AH121" s="57"/>
-      <c r="AJ121" s="47"/>
-      <c r="AK121" s="22"/>
-      <c r="AL121" s="22"/>
+      <c r="AE121" s="49"/>
+      <c r="AF121" s="49"/>
+      <c r="AG121" s="61"/>
+      <c r="AH121" s="59"/>
+      <c r="AJ121" s="49"/>
+      <c r="AK121" s="24"/>
+      <c r="AL121" s="24"/>
       <c r="AM121" s="12"/>
       <c r="AN121" s="12"/>
     </row>
@@ -10542,25 +10548,25 @@
       <c r="P122" s="12"/>
       <c r="Q122" s="12"/>
       <c r="R122" s="12"/>
-      <c r="S122" s="22"/>
+      <c r="S122" s="24"/>
       <c r="T122" s="12"/>
       <c r="U122" s="12"/>
       <c r="V122" s="12"/>
       <c r="W122" s="12"/>
       <c r="X122" s="12"/>
       <c r="Y122" s="12"/>
-      <c r="Z122" s="22"/>
-      <c r="AA122" s="47"/>
-      <c r="AB122" s="47"/>
-      <c r="AC122" s="47"/>
+      <c r="Z122" s="24"/>
+      <c r="AA122" s="49"/>
+      <c r="AB122" s="49"/>
+      <c r="AC122" s="49"/>
       <c r="AD122" s="12"/>
-      <c r="AE122" s="47"/>
-      <c r="AF122" s="47"/>
-      <c r="AG122" s="59"/>
-      <c r="AH122" s="57"/>
-      <c r="AJ122" s="47"/>
-      <c r="AK122" s="22"/>
-      <c r="AL122" s="22"/>
+      <c r="AE122" s="49"/>
+      <c r="AF122" s="49"/>
+      <c r="AG122" s="61"/>
+      <c r="AH122" s="59"/>
+      <c r="AJ122" s="49"/>
+      <c r="AK122" s="24"/>
+      <c r="AL122" s="24"/>
       <c r="AM122" s="12"/>
       <c r="AN122" s="12"/>
     </row>
@@ -10583,7 +10589,7 @@
       <c r="R123" s="1"/>
       <c r="T123" s="1"/>
       <c r="Y123" s="1"/>
-      <c r="AI123" s="63"/>
+      <c r="AI123" s="65"/>
     </row>
     <row r="124" spans="1:25">
       <c r="A124" s="1"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂-JH_00001.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂-JH_00001.xlsx
@@ -262,14 +262,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -324,17 +324,11 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -346,8 +340,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -362,7 +357,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,9 +378,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,25 +396,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -423,17 +425,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -446,16 +446,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -531,7 +531,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,7 +543,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,151 +687,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,8 +757,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -768,6 +768,62 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -789,65 +845,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -856,148 +856,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1014,7 +1014,7 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1026,7 +1026,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1035,7 +1035,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1044,7 +1044,7 @@
     <xf numFmtId="178" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1146,7 +1146,7 @@
     <xf numFmtId="10" fontId="6" fillId="9" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1161,7 +1161,7 @@
     <xf numFmtId="178" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1170,7 +1170,7 @@
     <xf numFmtId="178" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1197,7 +1197,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3355,11 +3355,11 @@
   <dimension ref="A1:AN493"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="AE19" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B31" sqref="B31"/>
+      <selection pane="bottomRight" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3844,7 +3844,7 @@
         <v>39.09</v>
       </c>
       <c r="J7" s="20">
-        <f t="shared" ref="J7:J30" si="0">IF(B7&gt;(D7-(D7-E7)/2),1,-1)</f>
+        <f t="shared" ref="J7:J31" si="0">IF(B7&gt;(D7-(D7-E7)/2),1,-1)</f>
         <v>-1</v>
       </c>
       <c r="K7" s="21">
@@ -3861,7 +3861,7 @@
       <c r="S7" s="24"/>
       <c r="T7" s="12"/>
       <c r="U7" s="41" t="str">
-        <f t="shared" ref="U7:U30" si="1">IF(B7&lt;G7,"是","否")</f>
+        <f t="shared" ref="U7:U31" si="1">IF(B7&lt;G7,"是","否")</f>
         <v>否</v>
       </c>
       <c r="V7" s="42" t="s">
@@ -3881,7 +3881,7 @@
       <c r="AA7" s="49"/>
       <c r="AB7" s="49"/>
       <c r="AC7" s="12">
-        <f t="shared" ref="AC7:AC30" si="3">D7-E7</f>
+        <f t="shared" ref="AC7:AC31" si="3">D7-E7</f>
         <v>0.75</v>
       </c>
       <c r="AD7" s="12"/>
@@ -3940,7 +3940,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="22">
-        <f t="shared" ref="K8:K30" si="4">(B8-B7)/B7</f>
+        <f t="shared" ref="K8:K31" si="4">(B8-B7)/B7</f>
         <v>0.0743321718931476</v>
       </c>
       <c r="L8" s="12" t="s">
@@ -4243,7 +4243,7 @@
       </c>
       <c r="O11" s="12"/>
       <c r="P11" s="25">
-        <f t="shared" ref="P11:P30" si="7">COUNTIF(J7:J11,"&gt;0")/5</f>
+        <f t="shared" ref="P11:P31" si="7">COUNTIF(J7:J11,"&gt;0")/5</f>
         <v>0.6</v>
       </c>
       <c r="Q11" s="12"/>
@@ -4756,7 +4756,7 @@
         <v>0.6</v>
       </c>
       <c r="O16" s="24">
-        <f t="shared" ref="O16:O30" si="8">COUNTIF(K7:K16,"&gt;0")/10</f>
+        <f t="shared" ref="O16:O31" si="8">COUNTIF(K7:K16,"&gt;0")/10</f>
         <v>0.5</v>
       </c>
       <c r="P16" s="26">
@@ -4764,7 +4764,7 @@
         <v>0.4</v>
       </c>
       <c r="Q16" s="25">
-        <f t="shared" ref="Q16:Q30" si="9">COUNTIF(J7:J16,"&gt;0")/10</f>
+        <f t="shared" ref="Q16:Q31" si="9">COUNTIF(J7:J16,"&gt;0")/10</f>
         <v>0.5</v>
       </c>
       <c r="R16" s="12"/>
@@ -5322,11 +5322,11 @@
         <v>0.533333333333333</v>
       </c>
       <c r="S21" s="24">
-        <f t="shared" ref="S21:S30" si="12">(F21-F7)/F7</f>
+        <f t="shared" ref="S21:S31" si="12">(F21-F7)/F7</f>
         <v>-0.296218487394958</v>
       </c>
       <c r="T21" s="24">
-        <f t="shared" ref="T21:T30" si="13">(B21-B7)/B7</f>
+        <f t="shared" ref="T21:T31" si="13">(B21-B7)/B7</f>
         <v>0.093205574912892</v>
       </c>
       <c r="U21" s="41" t="str">
@@ -5343,7 +5343,7 @@
         <v>2</v>
       </c>
       <c r="Y21" s="48">
-        <f t="shared" ref="Y21:Y30" si="14">$I21/$I$6</f>
+        <f t="shared" ref="Y21:Y31" si="14">$I21/$I$6</f>
         <v>1.13342391304348</v>
       </c>
       <c r="Z21" s="24">
@@ -5351,7 +5351,7 @@
         <v>-0.0187646598905395</v>
       </c>
       <c r="AA21" s="24">
-        <f t="shared" ref="AA21:AA30" si="15">(B21-B7)/B7</f>
+        <f t="shared" ref="AA21:AA31" si="15">(B21-B7)/B7</f>
         <v>0.093205574912892</v>
       </c>
       <c r="AB21" s="49"/>
@@ -5585,7 +5585,7 @@
         <v>1.12934782608696</v>
       </c>
       <c r="Z23" s="24">
-        <f t="shared" ref="Z23:Z30" si="16">(B23-B19)/B19</f>
+        <f t="shared" ref="Z23:Z31" si="16">(B23-B19)/B19</f>
         <v>0.0214995968825584</v>
       </c>
       <c r="AA23" s="24">
@@ -5669,7 +5669,7 @@
       <c r="L24" s="12"/>
       <c r="M24" s="12"/>
       <c r="N24" s="25">
-        <f t="shared" ref="N24:N30" si="17">COUNTIF(K20:K24,"&gt;0")/5</f>
+        <f t="shared" ref="N24:N31" si="17">COUNTIF(K20:K24,"&gt;0")/5</f>
         <v>0.8</v>
       </c>
       <c r="O24" s="25">
@@ -6564,45 +6564,45 @@
         <v>48.26</v>
       </c>
       <c r="J31" s="20">
-        <f>IF(B31&gt;(D31-(D31-E31)/2),1,-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="K31" s="21">
-        <f>(B31-B30)/B30</f>
+        <f t="shared" si="4"/>
         <v>-0.0287290278096989</v>
       </c>
       <c r="L31" s="12"/>
       <c r="M31" s="12"/>
       <c r="N31" s="26">
-        <f>COUNTIF(K27:K31,"&gt;0")/5</f>
+        <f t="shared" si="17"/>
         <v>0.6</v>
       </c>
       <c r="O31" s="25">
-        <f>COUNTIF(K22:K31,"&gt;0")/10</f>
+        <f t="shared" si="8"/>
         <v>0.7</v>
       </c>
       <c r="P31" s="26">
-        <f>COUNTIF(J27:J31,"&gt;0")/5</f>
+        <f t="shared" si="7"/>
         <v>0.4</v>
       </c>
       <c r="Q31" s="25">
-        <f>COUNTIF(J22:J31,"&gt;0")/10</f>
+        <f t="shared" si="9"/>
         <v>0.6</v>
       </c>
       <c r="R31" s="25">
-        <f>COUNTIF(K17:K31,"&gt;0")/15</f>
+        <f t="shared" si="18"/>
         <v>0.666666666666667</v>
       </c>
       <c r="S31" s="25">
-        <f>(F31-F17)/F17</f>
+        <f t="shared" si="12"/>
         <v>0.608384945212006</v>
       </c>
       <c r="T31" s="24">
-        <f>(B31-B17)/B17</f>
+        <f t="shared" si="13"/>
         <v>0.101381287464165</v>
       </c>
       <c r="U31" s="41" t="str">
-        <f>IF(B31&lt;G31,"是","否")</f>
+        <f t="shared" si="1"/>
         <v>否</v>
       </c>
       <c r="V31" s="42" t="s">
@@ -6615,15 +6615,15 @@
         <v>2</v>
       </c>
       <c r="Y31" s="48">
-        <f>$I31/$I$6</f>
+        <f t="shared" si="14"/>
         <v>1.31141304347826</v>
       </c>
       <c r="Z31" s="24">
-        <f>(B31-B27)/B27</f>
+        <f t="shared" si="16"/>
         <v>-0.0126168224299065</v>
       </c>
       <c r="AA31" s="24">
-        <f>(B31-B17)/B17</f>
+        <f t="shared" si="15"/>
         <v>0.101381287464165</v>
       </c>
       <c r="AB31" s="44">
@@ -6631,7 +6631,7 @@
         <v>0.733333333333333</v>
       </c>
       <c r="AC31" s="35">
-        <f>D31-E31</f>
+        <f t="shared" si="3"/>
         <v>2.37</v>
       </c>
       <c r="AD31" s="12"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂-JH_00001.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂-JH_00001.xlsx
@@ -262,14 +262,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="178" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -324,27 +324,25 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -363,8 +361,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,17 +392,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -396,7 +410,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -412,7 +426,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -426,38 +447,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -531,19 +531,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,31 +579,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,19 +603,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -621,7 +621,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,67 +693,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,8 +757,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -787,32 +826,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -828,26 +841,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -856,124 +856,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -982,22 +982,22 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1011,10 +1011,10 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1026,10 +1026,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1041,7 +1041,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1158,34 +1158,34 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1197,7 +1197,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1670,7 +1670,7 @@
             <v>0.560000000000002</v>
           </cell>
           <cell r="AD8">
-            <v>20.755000000001</v>
+            <v>20.7550000000001</v>
           </cell>
           <cell r="AE8">
             <v>72.07</v>
@@ -2529,20 +2529,38 @@
           <cell r="S18">
             <v>161.03402</v>
           </cell>
-        </row>
-        <row r="18">
+          <cell r="T18">
+            <v>44558</v>
+          </cell>
+          <cell r="U18">
+            <v>15.65</v>
+          </cell>
+          <cell r="V18">
+            <v>100</v>
+          </cell>
+          <cell r="W18">
+            <v>5</v>
+          </cell>
           <cell r="X18">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="18">
+            <v>1.565</v>
+          </cell>
+          <cell r="Y18">
+            <v>0.313</v>
+          </cell>
           <cell r="Z18">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="AC18" t="e">
-            <v>#DIV/0!</v>
+            <v>1558.122</v>
+          </cell>
+          <cell r="AA18">
+            <v>15.69</v>
+          </cell>
+          <cell r="AB18">
+            <v>15.05</v>
+          </cell>
+          <cell r="AC18">
+            <v>0.937500000000001</v>
+          </cell>
+          <cell r="AD18">
+            <v>-147.91202</v>
           </cell>
         </row>
         <row r="19">
@@ -2603,20 +2621,38 @@
           <cell r="S19">
             <v>348.06876</v>
           </cell>
-        </row>
-        <row r="19">
+          <cell r="T19">
+            <v>44558</v>
+          </cell>
+          <cell r="U19">
+            <v>15.65</v>
+          </cell>
+          <cell r="V19">
+            <v>200</v>
+          </cell>
+          <cell r="W19">
+            <v>5</v>
+          </cell>
           <cell r="X19">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="19">
+            <v>3.13</v>
+          </cell>
+          <cell r="Y19">
+            <v>0.626</v>
+          </cell>
           <cell r="Z19">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="AC19" t="e">
-            <v>#DIV/0!</v>
+            <v>3121.244</v>
+          </cell>
+          <cell r="AA19">
+            <v>15.69</v>
+          </cell>
+          <cell r="AB19">
+            <v>15.05</v>
+          </cell>
+          <cell r="AC19">
+            <v>0.937500000000001</v>
+          </cell>
+          <cell r="AD19">
+            <v>-321.82476</v>
           </cell>
         </row>
         <row r="20">
@@ -3080,10 +3116,142 @@
           <cell r="S25">
             <v>1522.35484</v>
           </cell>
+          <cell r="T25">
+            <v>44558</v>
+          </cell>
+          <cell r="U25">
+            <v>31.39</v>
+          </cell>
+          <cell r="V25">
+            <v>300</v>
+          </cell>
+          <cell r="W25">
+            <v>5</v>
+          </cell>
+          <cell r="X25">
+            <v>9.417</v>
+          </cell>
+          <cell r="Y25">
+            <v>1.8834</v>
+          </cell>
+          <cell r="Z25">
+            <v>9400.6996</v>
+          </cell>
+          <cell r="AA25">
+            <v>31.59</v>
+          </cell>
+          <cell r="AB25">
+            <v>30.01</v>
+          </cell>
+          <cell r="AC25">
+            <v>0.873417721518988</v>
+          </cell>
+          <cell r="AD25">
+            <v>527.02218</v>
+          </cell>
         </row>
         <row r="27">
           <cell r="A27" t="str">
             <v>JG_0000022</v>
+          </cell>
+          <cell r="B27" t="str">
+            <v>JH_00038</v>
+          </cell>
+          <cell r="C27">
+            <v>603599</v>
+          </cell>
+          <cell r="D27" t="str">
+            <v>广信股份</v>
+          </cell>
+          <cell r="E27">
+            <v>44558</v>
+          </cell>
+          <cell r="F27">
+            <v>40.38</v>
+          </cell>
+          <cell r="G27">
+            <v>200</v>
+          </cell>
+          <cell r="H27">
+            <v>5</v>
+          </cell>
+          <cell r="I27">
+            <v>0.16152</v>
+          </cell>
+          <cell r="J27">
+            <v>8081.16152</v>
+          </cell>
+          <cell r="K27">
+            <v>41.06</v>
+          </cell>
+          <cell r="L27">
+            <v>38.43</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="P27">
+            <v>15.12</v>
+          </cell>
+          <cell r="Q27">
+            <v>0.258555133079848</v>
+          </cell>
+          <cell r="R27">
+            <v>38</v>
+          </cell>
+          <cell r="S27">
+            <v>486.161520000001</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>JG_0000023</v>
+          </cell>
+          <cell r="B28" t="str">
+            <v>JH_00026</v>
+          </cell>
+          <cell r="C28">
+            <v>603995</v>
+          </cell>
+          <cell r="D28" t="str">
+            <v>甬金股份</v>
+          </cell>
+          <cell r="E28">
+            <v>44558</v>
+          </cell>
+          <cell r="F28">
+            <v>55.97</v>
+          </cell>
+          <cell r="G28">
+            <v>200</v>
+          </cell>
+          <cell r="H28">
+            <v>5</v>
+          </cell>
+          <cell r="I28">
+            <v>0.22388</v>
+          </cell>
+          <cell r="J28">
+            <v>11199.22388</v>
+          </cell>
+          <cell r="K28">
+            <v>59</v>
+          </cell>
+          <cell r="L28">
+            <v>54.81</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="P28">
+            <v>21.87</v>
+          </cell>
+          <cell r="Q28">
+            <v>0.723150357995227</v>
+          </cell>
+          <cell r="R28">
+            <v>52</v>
+          </cell>
+          <cell r="S28">
+            <v>804.22388</v>
           </cell>
         </row>
       </sheetData>
@@ -3355,11 +3523,11 @@
   <dimension ref="A1:AN493"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="AE19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="E19" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A31" sqref="A31"/>
+      <selection pane="bottomRight" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -6551,7 +6719,7 @@
       <c r="E31" s="14">
         <v>41.6</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="14">
         <v>33.76</v>
       </c>
       <c r="G31" s="11">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂-JH_00001.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂-JH_00001.xlsx
@@ -262,14 +262,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -331,24 +331,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,19 +346,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -381,14 +371,6 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -400,19 +382,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -432,8 +414,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -446,8 +429,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -462,7 +462,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -531,7 +531,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,13 +549,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,7 +573,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,127 +693,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -763,11 +763,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -783,30 +789,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -851,157 +833,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1011,10 +1011,10 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1026,25 +1026,25 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1146,7 +1146,7 @@
     <xf numFmtId="10" fontId="6" fillId="9" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1158,34 +1158,34 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1197,7 +1197,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2527,7 +2530,7 @@
             <v>15.5</v>
           </cell>
           <cell r="S18">
-            <v>161.03402</v>
+            <v>0</v>
           </cell>
           <cell r="T18">
             <v>44558</v>
@@ -2619,7 +2622,7 @@
             <v>15.5</v>
           </cell>
           <cell r="S19">
-            <v>348.06876</v>
+            <v>0</v>
           </cell>
           <cell r="T19">
             <v>44558</v>
@@ -2711,7 +2714,7 @@
             <v>59.29</v>
           </cell>
           <cell r="S20">
-            <v>556.1295</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="20">
@@ -3114,7 +3117,7 @@
             <v>27.05</v>
           </cell>
           <cell r="S25">
-            <v>1522.35484</v>
+            <v>766.35484</v>
           </cell>
           <cell r="T25">
             <v>44558</v>
@@ -3523,11 +3526,11 @@
   <dimension ref="A1:AN493"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="E19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F31" sqref="F31"/>
+      <selection pane="bottomRight" activeCell="J3" sqref="J3:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -6571,7 +6574,7 @@
         <f>(AH29-VLOOKUP([1]交易计划及执行表!$A$23,[1]交易计划及执行表!$A$4:$AF10028,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$23,[1]交易计划及执行表!$A$4:$AF10028,7,FALSE)</f>
         <v>-450</v>
       </c>
-      <c r="AK29" s="25">
+      <c r="AK29" s="65">
         <f>($B29-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10027,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10027,6,FALSE)</f>
         <v>0.294693151497184</v>
       </c>
@@ -6693,7 +6696,7 @@
         <v>312</v>
       </c>
       <c r="AJ30" s="49"/>
-      <c r="AK30" s="25">
+      <c r="AK30" s="65">
         <f>($B30-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10028,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10028,6,FALSE)</f>
         <v>0.289949599762822</v>
       </c>
@@ -6815,7 +6818,7 @@
         <v>333.000000000001</v>
       </c>
       <c r="AJ31" s="49"/>
-      <c r="AK31" s="25">
+      <c r="AK31" s="65">
         <f>($B31-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10029,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$AF10029,6,FALSE)</f>
         <v>0.252890601838126</v>
       </c>
@@ -10757,7 +10760,7 @@
       <c r="R123" s="1"/>
       <c r="T123" s="1"/>
       <c r="Y123" s="1"/>
-      <c r="AI123" s="65"/>
+      <c r="AI123" s="66"/>
     </row>
     <row r="124" spans="1:25">
       <c r="A124" s="1"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂-JH_00001.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂-JH_00001.xlsx
@@ -3530,7 +3530,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J3" sqref="J3:J5"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂-JH_00001.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂-JH_00001.xlsx
@@ -262,13 +262,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="177" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_);\(0.00\)"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -345,6 +345,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -360,8 +368,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -370,7 +393,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -385,7 +415,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -401,32 +439,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -438,24 +453,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -537,7 +537,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,7 +573,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,13 +591,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,13 +615,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,25 +669,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,79 +699,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -778,26 +778,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -821,18 +806,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -851,147 +825,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1017,7 +1017,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -1032,7 +1032,7 @@
     <xf numFmtId="178" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1155,7 +1155,7 @@
     <xf numFmtId="10" fontId="6" fillId="9" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1167,7 +1167,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1176,25 +1176,25 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3535,7 +3535,7 @@
   <dimension ref="A1:AN493"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="N15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="L6" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -4024,7 +4024,7 @@
         <v>39.09</v>
       </c>
       <c r="J7" s="23">
-        <f t="shared" ref="J7:J31" si="0">IF(B7&gt;(D7-(D7-E7)/2),1,-1)</f>
+        <f t="shared" ref="J7:J33" si="0">IF(B7&gt;(D7-(D7-E7)/2),1,-1)</f>
         <v>-1</v>
       </c>
       <c r="K7" s="24">
@@ -4041,7 +4041,7 @@
       <c r="S7" s="27"/>
       <c r="T7" s="22"/>
       <c r="U7" s="44" t="str">
-        <f t="shared" ref="U7:U31" si="1">IF(B7&lt;G7,"是","否")</f>
+        <f t="shared" ref="U7:U33" si="1">IF(B7&lt;G7,"是","否")</f>
         <v>否</v>
       </c>
       <c r="V7" s="45" t="s">
@@ -4061,7 +4061,7 @@
       <c r="AA7" s="52"/>
       <c r="AB7" s="52"/>
       <c r="AC7" s="22">
-        <f t="shared" ref="AC7:AC31" si="3">D7-E7</f>
+        <f t="shared" ref="AC7:AC33" si="3">D7-E7</f>
         <v>0.75</v>
       </c>
       <c r="AD7" s="22"/>
@@ -4120,7 +4120,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="25">
-        <f t="shared" ref="K8:K31" si="4">(B8-B7)/B7</f>
+        <f t="shared" ref="K8:K33" si="4">(B8-B7)/B7</f>
         <v>0.0743321718931476</v>
       </c>
       <c r="L8" s="22" t="s">
@@ -4423,7 +4423,7 @@
       </c>
       <c r="O11" s="22"/>
       <c r="P11" s="28">
-        <f t="shared" ref="P11:P31" si="7">COUNTIF(J7:J11,"&gt;0")/5</f>
+        <f t="shared" ref="P11:P33" si="7">COUNTIF(J7:J11,"&gt;0")/5</f>
         <v>0.6</v>
       </c>
       <c r="Q11" s="22"/>
@@ -4936,7 +4936,7 @@
         <v>0.6</v>
       </c>
       <c r="O16" s="27">
-        <f t="shared" ref="O16:O31" si="8">COUNTIF(K7:K16,"&gt;0")/10</f>
+        <f t="shared" ref="O16:O33" si="8">COUNTIF(K7:K16,"&gt;0")/10</f>
         <v>0.5</v>
       </c>
       <c r="P16" s="29">
@@ -4944,7 +4944,7 @@
         <v>0.4</v>
       </c>
       <c r="Q16" s="28">
-        <f t="shared" ref="Q16:Q31" si="9">COUNTIF(J7:J16,"&gt;0")/10</f>
+        <f t="shared" ref="Q16:Q33" si="9">COUNTIF(J7:J16,"&gt;0")/10</f>
         <v>0.5</v>
       </c>
       <c r="R16" s="22"/>
@@ -5502,11 +5502,11 @@
         <v>0.533333333333333</v>
       </c>
       <c r="S21" s="27">
-        <f t="shared" ref="S21:S31" si="12">(F21-F7)/F7</f>
+        <f t="shared" ref="S21:S33" si="12">(F21-F7)/F7</f>
         <v>-0.296218487394958</v>
       </c>
       <c r="T21" s="27">
-        <f t="shared" ref="T21:T31" si="13">(B21-B7)/B7</f>
+        <f t="shared" ref="T21:T33" si="13">(B21-B7)/B7</f>
         <v>0.093205574912892</v>
       </c>
       <c r="U21" s="44" t="str">
@@ -5523,7 +5523,7 @@
         <v>2</v>
       </c>
       <c r="Y21" s="51">
-        <f t="shared" ref="Y21:Y31" si="14">$I21/$I$6</f>
+        <f t="shared" ref="Y21:Y33" si="14">$I21/$I$6</f>
         <v>1.13342391304348</v>
       </c>
       <c r="Z21" s="27">
@@ -5531,7 +5531,7 @@
         <v>-0.0187646598905395</v>
       </c>
       <c r="AA21" s="27">
-        <f t="shared" ref="AA21:AA31" si="15">(B21-B7)/B7</f>
+        <f t="shared" ref="AA21:AA33" si="15">(B21-B7)/B7</f>
         <v>0.093205574912892</v>
       </c>
       <c r="AB21" s="52"/>
@@ -5765,7 +5765,7 @@
         <v>1.12934782608696</v>
       </c>
       <c r="Z23" s="27">
-        <f t="shared" ref="Z23:Z31" si="16">(B23-B19)/B19</f>
+        <f t="shared" ref="Z23:Z33" si="16">(B23-B19)/B19</f>
         <v>0.0214995968825584</v>
       </c>
       <c r="AA23" s="27">
@@ -5849,7 +5849,7 @@
       <c r="L24" s="22"/>
       <c r="M24" s="22"/>
       <c r="N24" s="28">
-        <f t="shared" ref="N24:N31" si="17">COUNTIF(K20:K24,"&gt;0")/5</f>
+        <f t="shared" ref="N24:N33" si="17">COUNTIF(K20:K24,"&gt;0")/5</f>
         <v>0.8</v>
       </c>
       <c r="O24" s="28">
@@ -6866,45 +6866,45 @@
         <v>46.88</v>
       </c>
       <c r="J32" s="23">
-        <f>IF(B32&gt;(D32-(D32-E32)/2),1,-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="K32" s="26">
-        <f>(B32-B31)/B31</f>
+        <f t="shared" si="4"/>
         <v>-0.0522953147184099</v>
       </c>
       <c r="L32" s="22"/>
       <c r="M32" s="22"/>
       <c r="N32" s="29">
-        <f>COUNTIF(K28:K32,"&gt;0")/5</f>
+        <f t="shared" si="17"/>
         <v>0.4</v>
       </c>
       <c r="O32" s="28">
-        <f>COUNTIF(K23:K32,"&gt;0")/10</f>
+        <f t="shared" si="8"/>
         <v>0.7</v>
       </c>
       <c r="P32" s="29">
-        <f>COUNTIF(J28:J32,"&gt;0")/5</f>
+        <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
       <c r="Q32" s="28">
-        <f>COUNTIF(J23:J32,"&gt;0")/10</f>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="R32" s="28">
-        <f>COUNTIF(K18:K32,"&gt;0")/15</f>
+        <f t="shared" si="18"/>
         <v>0.6</v>
       </c>
       <c r="S32" s="28">
-        <f>(F32-F18)/F18</f>
+        <f t="shared" si="12"/>
         <v>0.99096528768426</v>
       </c>
       <c r="T32" s="27">
-        <f>(B32-B18)/B18</f>
+        <f t="shared" si="13"/>
         <v>0.054224795998947</v>
       </c>
       <c r="U32" s="44" t="str">
-        <f>IF(B32&lt;G32,"是","否")</f>
+        <f t="shared" si="1"/>
         <v>否</v>
       </c>
       <c r="V32" s="45" t="s">
@@ -6917,15 +6917,15 @@
         <v>3</v>
       </c>
       <c r="Y32" s="51">
-        <f>$I32/$I$6</f>
+        <f t="shared" si="14"/>
         <v>1.27391304347826</v>
       </c>
       <c r="Z32" s="27">
-        <f>(B32-B28)/B28</f>
+        <f t="shared" si="16"/>
         <v>-0.0761245674740485</v>
       </c>
       <c r="AA32" s="27">
-        <f>(B32-B18)/B18</f>
+        <f t="shared" si="15"/>
         <v>0.054224795998947</v>
       </c>
       <c r="AB32" s="47">
@@ -6933,7 +6933,7 @@
         <v>0.666666666666667</v>
       </c>
       <c r="AC32" s="38">
-        <f>D32-E32</f>
+        <f t="shared" si="3"/>
         <v>2.84</v>
       </c>
       <c r="AD32" s="22"/>
@@ -6986,45 +6986,45 @@
         <v>44.42</v>
       </c>
       <c r="J33" s="20">
-        <f>IF(B33&gt;(D33-(D33-E33)/2),1,-1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K33" s="24">
-        <f>(B33-B32)/B32</f>
+        <f t="shared" si="4"/>
         <v>0.0209737827715357</v>
       </c>
       <c r="L33" s="22"/>
       <c r="M33" s="22"/>
       <c r="N33" s="29">
-        <f>COUNTIF(K29:K33,"&gt;0")/5</f>
+        <f t="shared" si="17"/>
         <v>0.4</v>
       </c>
       <c r="O33" s="28">
-        <f>COUNTIF(K24:K33,"&gt;0")/10</f>
+        <f t="shared" si="8"/>
         <v>0.7</v>
       </c>
       <c r="P33" s="29">
-        <f>COUNTIF(J29:J33,"&gt;0")/5</f>
+        <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
       <c r="Q33" s="28">
-        <f>COUNTIF(J24:J33,"&gt;0")/10</f>
+        <f t="shared" si="9"/>
         <v>0.6</v>
       </c>
       <c r="R33" s="28">
-        <f>COUNTIF(K19:K33,"&gt;0")/15</f>
+        <f t="shared" si="18"/>
         <v>0.666666666666667</v>
       </c>
       <c r="S33" s="28">
-        <f>(F33-F19)/F19</f>
+        <f t="shared" si="12"/>
         <v>0.102941176470588</v>
       </c>
       <c r="T33" s="27">
-        <f>(B33-B19)/B19</f>
+        <f t="shared" si="13"/>
         <v>0.0988981456597689</v>
       </c>
       <c r="U33" s="44" t="str">
-        <f>IF(B33&lt;G33,"是","否")</f>
+        <f t="shared" si="1"/>
         <v>否</v>
       </c>
       <c r="V33" s="45" t="s">
@@ -7037,15 +7037,15 @@
         <v>4</v>
       </c>
       <c r="Y33" s="51">
-        <f>$I33/$I$6</f>
+        <f t="shared" si="14"/>
         <v>1.2070652173913</v>
       </c>
       <c r="Z33" s="27">
-        <f>(B33-B29)/B29</f>
+        <f t="shared" si="16"/>
         <v>-0.063659262651706</v>
       </c>
       <c r="AA33" s="27">
-        <f>(B33-B19)/B19</f>
+        <f t="shared" si="15"/>
         <v>0.0988981456597689</v>
       </c>
       <c r="AB33" s="47">
@@ -7053,7 +7053,7 @@
         <v>0.666666666666667</v>
       </c>
       <c r="AC33" s="38">
-        <f>D33-E33</f>
+        <f t="shared" si="3"/>
         <v>1.46</v>
       </c>
       <c r="AD33" s="22"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂-JH_00001.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂-JH_00001.xlsx
@@ -263,13 +263,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="177" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -325,21 +325,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,6 +361,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -368,10 +377,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -385,52 +395,6 @@
     <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -462,7 +426,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -531,19 +531,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,7 +567,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,25 +621,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,49 +687,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,43 +699,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,32 +757,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -806,22 +782,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -851,129 +812,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -982,22 +982,22 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1017,7 +1017,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -1032,7 +1032,7 @@
     <xf numFmtId="178" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1167,7 +1167,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1176,25 +1176,25 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1314,70 +1314,39 @@
           <cell r="J4">
             <v>5245</v>
           </cell>
-          <cell r="K4">
-            <v>26.5</v>
-          </cell>
-          <cell r="L4">
-            <v>25.21</v>
-          </cell>
-          <cell r="M4">
-            <v>28.15</v>
-          </cell>
-          <cell r="N4">
-            <v>21.87</v>
-          </cell>
-          <cell r="O4">
-            <v>6.28</v>
-          </cell>
-          <cell r="P4">
-            <v>150.88</v>
-          </cell>
-          <cell r="Q4">
-            <v>0.232558139534884</v>
-          </cell>
         </row>
         <row r="4">
+          <cell r="L4">
+            <v>0</v>
+          </cell>
+          <cell r="M4">
+            <v>44526</v>
+          </cell>
+          <cell r="N4">
+            <v>24.89</v>
+          </cell>
+          <cell r="O4">
+            <v>100</v>
+          </cell>
+          <cell r="P4">
+            <v>5</v>
+          </cell>
+          <cell r="Q4">
+            <v>2.489</v>
+          </cell>
+          <cell r="R4">
+            <v>0</v>
+          </cell>
           <cell r="S4">
-            <v>0</v>
+            <v>2481.511</v>
           </cell>
           <cell r="T4">
-            <v>44526</v>
-          </cell>
-          <cell r="U4">
-            <v>24.89</v>
-          </cell>
-          <cell r="V4">
-            <v>100</v>
-          </cell>
-          <cell r="W4">
-            <v>5</v>
-          </cell>
-          <cell r="X4">
-            <v>2.489</v>
-          </cell>
-          <cell r="Y4">
-            <v>0</v>
-          </cell>
-          <cell r="Z4">
-            <v>2481.511</v>
-          </cell>
-          <cell r="AA4">
-            <v>27.43</v>
-          </cell>
-          <cell r="AB4">
-            <v>24.74</v>
-          </cell>
-          <cell r="AC4">
-            <v>0.0557620817843874</v>
-          </cell>
-          <cell r="AD4">
             <v>-1.25900000000001</v>
           </cell>
-          <cell r="AE4">
-            <v>26.2</v>
-          </cell>
-          <cell r="AF4">
-            <v>26.295</v>
+          <cell r="U4" t="str">
+            <v>1.入场时，忽略了距离最高点的距离;
+2.入场时，忽略了成交量的情况。
+3.作出出场决定时，一定要立即出场。不然也至少要设置最低的止损线。</v>
           </cell>
         </row>
         <row r="5">
@@ -1386,38 +1355,29 @@
           </cell>
         </row>
         <row r="5">
+          <cell r="L5">
+            <v>0</v>
+          </cell>
+          <cell r="M5">
+            <v>44531</v>
+          </cell>
+          <cell r="N5">
+            <v>27.7</v>
+          </cell>
+          <cell r="O5">
+            <v>100</v>
+          </cell>
+          <cell r="P5">
+            <v>5</v>
+          </cell>
+          <cell r="Q5">
+            <v>2.77</v>
+          </cell>
+          <cell r="R5">
+            <v>0</v>
+          </cell>
           <cell r="S5">
-            <v>0</v>
-          </cell>
-          <cell r="T5">
-            <v>44531</v>
-          </cell>
-          <cell r="U5">
-            <v>27.7</v>
-          </cell>
-          <cell r="V5">
-            <v>100</v>
-          </cell>
-          <cell r="W5">
-            <v>5</v>
-          </cell>
-          <cell r="X5">
-            <v>2.77</v>
-          </cell>
-          <cell r="Y5">
-            <v>0</v>
-          </cell>
-          <cell r="Z5">
             <v>2762.23</v>
-          </cell>
-          <cell r="AA5">
-            <v>28.7</v>
-          </cell>
-          <cell r="AB5">
-            <v>27.5</v>
-          </cell>
-          <cell r="AC5">
-            <v>0.166666666666666</v>
           </cell>
         </row>
         <row r="6">
@@ -1452,47 +1412,33 @@
             <v>3378.06746</v>
           </cell>
           <cell r="K6">
-            <v>35.36</v>
+            <v>34.7</v>
           </cell>
           <cell r="L6">
-            <v>33.1</v>
+            <v>0</v>
           </cell>
           <cell r="M6">
-            <v>35.48</v>
+            <v>44560</v>
           </cell>
           <cell r="N6">
-            <v>31.36</v>
+            <v>39.96</v>
           </cell>
           <cell r="O6">
-            <v>4.12</v>
+            <v>100</v>
           </cell>
           <cell r="P6">
-            <v>37.41</v>
+            <v>5</v>
           </cell>
           <cell r="Q6">
-            <v>0.721238938053099</v>
-          </cell>
-          <cell r="R6">
-            <v>34.7</v>
-          </cell>
-          <cell r="S6">
-            <v>0</v>
+            <v>3.996</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="X6">
-            <v>0</v>
-          </cell>
-          <cell r="Y6">
-            <v>0</v>
-          </cell>
-          <cell r="Z6">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="AD6">
-            <v>0</v>
+          <cell r="S6">
+            <v>3987.004</v>
+          </cell>
+          <cell r="T6">
+            <v>608.93654</v>
           </cell>
         </row>
         <row r="7">
@@ -1527,70 +1473,34 @@
             <v>3275.0654</v>
           </cell>
           <cell r="K7">
-            <v>33.9</v>
+            <v>30.89</v>
           </cell>
           <cell r="L7">
-            <v>32.49</v>
+            <v>0</v>
           </cell>
           <cell r="M7">
-            <v>36.21</v>
+            <v>44539</v>
           </cell>
           <cell r="N7">
-            <v>27.35</v>
+            <v>37.75</v>
           </cell>
           <cell r="O7">
-            <v>8.86</v>
+            <v>100</v>
           </cell>
           <cell r="P7">
-            <v>28.82</v>
+            <v>5</v>
           </cell>
           <cell r="Q7">
-            <v>0.851063829787233</v>
+            <v>3.775</v>
           </cell>
           <cell r="R7">
-            <v>30.89</v>
+            <v>0.0755</v>
           </cell>
           <cell r="S7">
-            <v>0</v>
+            <v>3766.1495</v>
           </cell>
           <cell r="T7">
-            <v>44539</v>
-          </cell>
-          <cell r="U7">
-            <v>37.75</v>
-          </cell>
-          <cell r="V7">
-            <v>100</v>
-          </cell>
-          <cell r="W7">
-            <v>5</v>
-          </cell>
-          <cell r="X7">
-            <v>3.775</v>
-          </cell>
-          <cell r="Y7">
-            <v>0.0755</v>
-          </cell>
-          <cell r="Z7">
-            <v>3766.1495</v>
-          </cell>
-          <cell r="AA7">
-            <v>38.83</v>
-          </cell>
-          <cell r="AB7">
-            <v>36.3</v>
-          </cell>
-          <cell r="AC7">
-            <v>0.57312252964427</v>
-          </cell>
-          <cell r="AD7">
             <v>491.0841</v>
-          </cell>
-          <cell r="AE7">
-            <v>32.7</v>
-          </cell>
-          <cell r="AF7">
-            <v>37.75</v>
           </cell>
         </row>
         <row r="8">
@@ -1625,70 +1535,38 @@
             <v>7212</v>
           </cell>
           <cell r="K8">
-            <v>74.5</v>
+            <v>67.53</v>
           </cell>
           <cell r="L8">
-            <v>70.4</v>
+            <v>0</v>
           </cell>
           <cell r="M8">
-            <v>75.02</v>
+            <v>44543</v>
           </cell>
           <cell r="N8">
-            <v>62.33</v>
+            <v>72.45</v>
           </cell>
           <cell r="O8">
-            <v>12.69</v>
+            <v>100</v>
           </cell>
           <cell r="P8">
-            <v>6.49</v>
+            <v>5</v>
           </cell>
           <cell r="Q8">
-            <v>0.592682926829271</v>
+            <v>7.245</v>
           </cell>
           <cell r="R8">
-            <v>67.53</v>
+            <v>0</v>
           </cell>
           <cell r="S8">
-            <v>0</v>
+            <v>7232.755</v>
           </cell>
           <cell r="T8">
-            <v>44543</v>
-          </cell>
-          <cell r="U8">
-            <v>72.45</v>
-          </cell>
-          <cell r="V8">
-            <v>100</v>
-          </cell>
-          <cell r="W8">
-            <v>5</v>
-          </cell>
-          <cell r="X8">
-            <v>7.245</v>
-          </cell>
-          <cell r="Y8">
-            <v>0</v>
-          </cell>
-          <cell r="Z8">
-            <v>7232.755</v>
-          </cell>
-          <cell r="AA8">
-            <v>73</v>
-          </cell>
-          <cell r="AB8">
-            <v>71.75</v>
-          </cell>
-          <cell r="AC8">
-            <v>0.560000000000002</v>
-          </cell>
-          <cell r="AD8">
             <v>20.7550000000001</v>
           </cell>
-          <cell r="AE8">
-            <v>72.07</v>
-          </cell>
-          <cell r="AF8">
-            <v>72.45</v>
+          <cell r="U8" t="str">
+            <v>1.跳空时，不要立即入场，应待价格下跌到原预估价格一半时，再待其上涨到预估价格时入场
+2.跳空时，不要入场。不然就有可能入场太早。</v>
           </cell>
         </row>
         <row r="9">
@@ -1722,70 +1600,37 @@
           <cell r="J9">
             <v>3059.06108</v>
           </cell>
-          <cell r="K9">
-            <v>30.72</v>
-          </cell>
-          <cell r="L9">
-            <v>29.33</v>
-          </cell>
-          <cell r="M9">
-            <v>32.43</v>
-          </cell>
-          <cell r="N9">
-            <v>26.16</v>
-          </cell>
-          <cell r="O9">
-            <v>6.27</v>
-          </cell>
-          <cell r="P9">
-            <v>38.46</v>
-          </cell>
-          <cell r="Q9">
-            <v>0.129496402877698</v>
-          </cell>
         </row>
         <row r="9">
+          <cell r="L9">
+            <v>0</v>
+          </cell>
+          <cell r="M9">
+            <v>44525</v>
+          </cell>
+          <cell r="N9">
+            <v>30.15</v>
+          </cell>
+          <cell r="O9">
+            <v>100</v>
+          </cell>
+          <cell r="P9">
+            <v>5</v>
+          </cell>
+          <cell r="Q9">
+            <v>3.015</v>
+          </cell>
+          <cell r="R9">
+            <v>0.0603</v>
+          </cell>
           <cell r="S9">
-            <v>0</v>
+            <v>3006.9247</v>
           </cell>
           <cell r="T9">
-            <v>44525</v>
-          </cell>
-          <cell r="U9">
-            <v>30.15</v>
-          </cell>
-          <cell r="V9">
-            <v>100</v>
-          </cell>
-          <cell r="W9">
-            <v>5</v>
-          </cell>
-          <cell r="X9">
-            <v>3.015</v>
-          </cell>
-          <cell r="Y9">
-            <v>0.0603</v>
-          </cell>
-          <cell r="Z9">
-            <v>3006.9247</v>
-          </cell>
-          <cell r="AA9">
-            <v>30.69</v>
-          </cell>
-          <cell r="AB9">
-            <v>30.01</v>
-          </cell>
-          <cell r="AC9">
-            <v>0.205882352941172</v>
-          </cell>
-          <cell r="AD9">
             <v>-52.1363799999999</v>
           </cell>
-          <cell r="AE9">
-            <v>30.54</v>
-          </cell>
-          <cell r="AF9">
-            <v>30.15</v>
+          <cell r="U9" t="str">
+            <v>1.入场时，忽略了价格的收缩幅度。价格的收缩幅度不够，导致入场过早。</v>
           </cell>
         </row>
         <row r="10">
@@ -1819,70 +1664,37 @@
           <cell r="J10">
             <v>2986.05962</v>
           </cell>
-          <cell r="K10">
-            <v>30.32</v>
-          </cell>
-          <cell r="L10">
-            <v>28.81</v>
-          </cell>
-          <cell r="M10">
-            <v>31.18</v>
-          </cell>
-          <cell r="N10">
-            <v>21.1</v>
-          </cell>
-          <cell r="O10">
-            <v>10.08</v>
-          </cell>
-          <cell r="P10">
-            <v>17.95</v>
-          </cell>
-          <cell r="Q10">
-            <v>0.337748344370862</v>
-          </cell>
         </row>
         <row r="10">
+          <cell r="L10">
+            <v>0</v>
+          </cell>
+          <cell r="M10">
+            <v>44533</v>
+          </cell>
+          <cell r="N10">
+            <v>27.83</v>
+          </cell>
+          <cell r="O10">
+            <v>100</v>
+          </cell>
+          <cell r="P10">
+            <v>5</v>
+          </cell>
+          <cell r="Q10">
+            <v>2.783</v>
+          </cell>
+          <cell r="R10">
+            <v>0.05566</v>
+          </cell>
           <cell r="S10">
-            <v>0</v>
+            <v>2775.16134</v>
           </cell>
           <cell r="T10">
-            <v>44533</v>
-          </cell>
-          <cell r="U10">
-            <v>27.83</v>
-          </cell>
-          <cell r="V10">
-            <v>100</v>
-          </cell>
-          <cell r="W10">
-            <v>5</v>
-          </cell>
-          <cell r="X10">
-            <v>2.783</v>
-          </cell>
-          <cell r="Y10">
-            <v>0.05566</v>
-          </cell>
-          <cell r="Z10">
-            <v>2775.16134</v>
-          </cell>
-          <cell r="AA10">
-            <v>28.4</v>
-          </cell>
-          <cell r="AB10">
-            <v>27.44</v>
-          </cell>
-          <cell r="AC10">
-            <v>0.406249999999998</v>
-          </cell>
-          <cell r="AD10">
             <v>-210.89828</v>
           </cell>
-          <cell r="AE10">
-            <v>29.81</v>
-          </cell>
-          <cell r="AF10">
-            <v>27.83</v>
+          <cell r="U10" t="str">
+            <v>1.入场中枢点错误</v>
           </cell>
         </row>
         <row r="11">
@@ -1917,70 +1729,40 @@
             <v>2842</v>
           </cell>
           <cell r="K11">
-            <v>29.7</v>
+            <v>26.31</v>
           </cell>
           <cell r="L11">
-            <v>27.69</v>
+            <v>0</v>
           </cell>
           <cell r="M11">
-            <v>30.41</v>
+            <v>44537</v>
           </cell>
           <cell r="N11">
-            <v>22.76</v>
+            <v>26.7</v>
           </cell>
           <cell r="O11">
-            <v>7.65</v>
+            <v>100</v>
           </cell>
           <cell r="P11">
-            <v>25.15</v>
+            <v>5</v>
           </cell>
           <cell r="Q11">
-            <v>0.661691542288557</v>
+            <v>2.67</v>
           </cell>
           <cell r="R11">
-            <v>26.31</v>
+            <v>0</v>
           </cell>
           <cell r="S11">
-            <v>0</v>
+            <v>2662.33</v>
           </cell>
           <cell r="T11">
-            <v>44537</v>
-          </cell>
-          <cell r="U11">
-            <v>26.7</v>
-          </cell>
-          <cell r="V11">
-            <v>100</v>
-          </cell>
-          <cell r="W11">
-            <v>5</v>
-          </cell>
-          <cell r="X11">
-            <v>2.67</v>
-          </cell>
-          <cell r="Y11">
-            <v>0</v>
-          </cell>
-          <cell r="Z11">
-            <v>2662.33</v>
-          </cell>
-          <cell r="AA11">
-            <v>28.18</v>
-          </cell>
-          <cell r="AB11">
-            <v>25.99</v>
-          </cell>
-          <cell r="AC11">
-            <v>0.324200913242009</v>
-          </cell>
-          <cell r="AD11">
             <v>-179.67</v>
           </cell>
-          <cell r="AE11">
-            <v>28.37</v>
-          </cell>
-          <cell r="AF11">
-            <v>26.7</v>
+          <cell r="U11" t="str">
+            <v>1.宁可错过，不要根据临时计划入场。
+2.跳空时，不要立即入场，应待价格下跌到原预估价格一半时，再待其上涨到预估价格时入场。
+3.作出出场决定是使用止损线倒逼出场。
+</v>
           </cell>
         </row>
         <row r="12">
@@ -2015,70 +1797,38 @@
             <v>7551.15092</v>
           </cell>
           <cell r="K12">
-            <v>38.32</v>
+            <v>34.55</v>
           </cell>
           <cell r="L12">
-            <v>37.15</v>
+            <v>0</v>
           </cell>
           <cell r="M12">
-            <v>40.11</v>
+            <v>44554</v>
           </cell>
           <cell r="N12">
-            <v>30.85</v>
+            <v>34.52</v>
           </cell>
           <cell r="O12">
-            <v>9.26</v>
+            <v>100</v>
           </cell>
           <cell r="P12">
-            <v>33.58</v>
+            <v>5</v>
           </cell>
           <cell r="Q12">
-            <v>0.504273504273506</v>
+            <v>3.452</v>
           </cell>
           <cell r="R12">
-            <v>34.55</v>
+            <v>0.06904</v>
           </cell>
           <cell r="S12">
-            <v>0</v>
+            <v>3443.47896</v>
           </cell>
           <cell r="T12">
-            <v>44554</v>
-          </cell>
-          <cell r="U12">
-            <v>34.52</v>
-          </cell>
-          <cell r="V12">
-            <v>100</v>
-          </cell>
-          <cell r="W12">
-            <v>5</v>
-          </cell>
-          <cell r="X12">
-            <v>3.452</v>
-          </cell>
-          <cell r="Y12">
-            <v>0.6904</v>
-          </cell>
-          <cell r="Z12">
-            <v>3442.8576</v>
-          </cell>
-          <cell r="AA12">
-            <v>35.07</v>
-          </cell>
-          <cell r="AB12">
-            <v>33.85</v>
-          </cell>
-          <cell r="AC12">
-            <v>0.549180327868854</v>
-          </cell>
-          <cell r="AD12">
-            <v>-1329.93008</v>
-          </cell>
-          <cell r="AE12">
-            <v>37.86</v>
-          </cell>
-          <cell r="AF12">
-            <v>34.6266666666667</v>
+            <v>-1327.436</v>
+          </cell>
+          <cell r="U12" t="str">
+            <v>1.错过了卖出时机，要关注周线图的基底
+2.加仓时要同步上移止损线到新的支撑位</v>
           </cell>
         </row>
         <row r="13">
@@ -2113,80 +1863,54 @@
             <v>7603.15196</v>
           </cell>
           <cell r="K13">
-            <v>38.32</v>
+            <v>34.68</v>
           </cell>
           <cell r="L13">
-            <v>37.15</v>
+            <v>0</v>
           </cell>
           <cell r="M13">
-            <v>40.11</v>
+            <v>44553</v>
           </cell>
           <cell r="N13">
-            <v>30.85</v>
+            <v>34.68</v>
           </cell>
           <cell r="O13">
-            <v>9.26</v>
+            <v>200</v>
           </cell>
           <cell r="P13">
-            <v>33.58</v>
+            <v>5</v>
           </cell>
           <cell r="Q13">
-            <v>0.28205128205128</v>
+            <v>6.936</v>
           </cell>
           <cell r="R13">
-            <v>34.68</v>
+            <v>0.13872</v>
           </cell>
           <cell r="S13">
-            <v>0</v>
-          </cell>
-          <cell r="T13">
-            <v>44553</v>
-          </cell>
-          <cell r="U13">
-            <v>34.68</v>
-          </cell>
-          <cell r="V13">
-            <v>200</v>
-          </cell>
-          <cell r="W13">
-            <v>5</v>
-          </cell>
-          <cell r="X13">
-            <v>6.936</v>
-          </cell>
-          <cell r="Y13">
-            <v>1.3872</v>
-          </cell>
-          <cell r="Z13">
-            <v>6922.6768</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="AC13" t="e">
-            <v>#DIV/0!</v>
+            <v>6923.92528</v>
           </cell>
         </row>
         <row r="14">
-          <cell r="T14">
+          <cell r="M14">
             <v>44554</v>
           </cell>
-          <cell r="U14">
+          <cell r="N14">
             <v>34.68</v>
           </cell>
-          <cell r="V14">
+          <cell r="O14">
             <v>100</v>
           </cell>
-          <cell r="W14">
+          <cell r="P14">
             <v>5</v>
           </cell>
-          <cell r="X14">
+          <cell r="Q14">
             <v>3.468</v>
           </cell>
-          <cell r="Y14">
-            <v>0.6936</v>
-          </cell>
-          <cell r="Z14">
-            <v>3458.8384</v>
+          <cell r="R14">
+            <v>0.06936</v>
+          </cell>
+          <cell r="S14">
+            <v>3459.46264</v>
           </cell>
         </row>
         <row r="15">
@@ -2221,70 +1945,39 @@
             <v>11602</v>
           </cell>
           <cell r="K15">
-            <v>118</v>
+            <v>110.4</v>
           </cell>
           <cell r="L15">
-            <v>113.58</v>
+            <v>0</v>
           </cell>
           <cell r="M15">
-            <v>128.61</v>
+            <v>44543</v>
           </cell>
           <cell r="N15">
-            <v>102.72</v>
+            <v>111.66</v>
           </cell>
           <cell r="O15">
-            <v>25.89</v>
+            <v>100</v>
           </cell>
           <cell r="P15">
-            <v>50.45</v>
+            <v>5</v>
           </cell>
           <cell r="Q15">
-            <v>0.459276018099548</v>
+            <v>11.166</v>
           </cell>
           <cell r="R15">
-            <v>110.4</v>
+            <v>0.22332</v>
           </cell>
           <cell r="S15">
-            <v>0</v>
+            <v>11149.61068</v>
           </cell>
           <cell r="T15">
-            <v>44543</v>
-          </cell>
-          <cell r="U15">
-            <v>111.66</v>
-          </cell>
-          <cell r="V15">
-            <v>100</v>
-          </cell>
-          <cell r="W15">
-            <v>5</v>
-          </cell>
-          <cell r="X15">
-            <v>11.166</v>
-          </cell>
-          <cell r="Y15">
-            <v>2.2332</v>
-          </cell>
-          <cell r="Z15">
-            <v>11147.6008</v>
-          </cell>
-          <cell r="AA15">
-            <v>115.99</v>
-          </cell>
-          <cell r="AB15">
-            <v>110.08</v>
-          </cell>
-          <cell r="AC15">
-            <v>0.267343485617597</v>
-          </cell>
-          <cell r="AD15">
-            <v>-454.3992</v>
-          </cell>
-          <cell r="AE15">
-            <v>115.97</v>
-          </cell>
-          <cell r="AF15">
-            <v>111.66</v>
+            <v>-452.389319999998</v>
+          </cell>
+          <cell r="U15" t="str">
+            <v>1.对交易减少量缺乏关注；
+2.对网球行为缺乏关注；
+3.对低突破高交易量重回低位缺乏关注;</v>
           </cell>
         </row>
         <row r="16">
@@ -2319,70 +2012,34 @@
             <v>3920.0783</v>
           </cell>
           <cell r="K16">
-            <v>39.16</v>
+            <v>35.91</v>
           </cell>
           <cell r="L16">
-            <v>37.55</v>
+            <v>0</v>
           </cell>
           <cell r="M16">
-            <v>41.07</v>
+            <v>44547</v>
           </cell>
           <cell r="N16">
-            <v>32.21</v>
+            <v>35.9</v>
           </cell>
           <cell r="O16">
-            <v>8.86</v>
+            <v>100</v>
           </cell>
           <cell r="P16">
-            <v>14.76</v>
+            <v>5</v>
           </cell>
           <cell r="Q16">
-            <v>0.00621118012422237</v>
+            <v>3.59</v>
           </cell>
           <cell r="R16">
-            <v>35.91</v>
+            <v>0.0718</v>
           </cell>
           <cell r="S16">
-            <v>0</v>
+            <v>3581.3382</v>
           </cell>
           <cell r="T16">
-            <v>44547</v>
-          </cell>
-          <cell r="U16">
-            <v>35.9</v>
-          </cell>
-          <cell r="V16">
-            <v>100</v>
-          </cell>
-          <cell r="W16">
-            <v>5</v>
-          </cell>
-          <cell r="X16">
-            <v>3.59</v>
-          </cell>
-          <cell r="Y16">
-            <v>0.718</v>
-          </cell>
-          <cell r="Z16">
-            <v>3580.692</v>
-          </cell>
-          <cell r="AA16">
-            <v>36.86</v>
-          </cell>
-          <cell r="AB16">
-            <v>35.6</v>
-          </cell>
-          <cell r="AC16">
-            <v>0.238095238095236</v>
-          </cell>
-          <cell r="AD16">
-            <v>-339.3863</v>
-          </cell>
-          <cell r="AE16">
-            <v>39.15</v>
-          </cell>
-          <cell r="AF16">
-            <v>35.9</v>
+            <v>-338.7401</v>
           </cell>
         </row>
         <row r="17">
@@ -2417,70 +2074,34 @@
             <v>6435.1286</v>
           </cell>
           <cell r="K17">
-            <v>64.47</v>
+            <v>58.51</v>
           </cell>
           <cell r="L17">
-            <v>59.34</v>
+            <v>0</v>
           </cell>
           <cell r="M17">
-            <v>69.25</v>
+            <v>44545</v>
           </cell>
           <cell r="N17">
-            <v>52.2</v>
+            <v>60.67</v>
           </cell>
           <cell r="O17">
-            <v>17.05</v>
+            <v>100</v>
           </cell>
           <cell r="P17">
-            <v>100.55</v>
+            <v>5</v>
           </cell>
           <cell r="Q17">
-            <v>0.0331384015594546</v>
+            <v>6.067</v>
           </cell>
           <cell r="R17">
-            <v>58.51</v>
+            <v>0.12134</v>
           </cell>
           <cell r="S17">
-            <v>0</v>
+            <v>6055.81166</v>
           </cell>
           <cell r="T17">
-            <v>44545</v>
-          </cell>
-          <cell r="U17">
-            <v>60.67</v>
-          </cell>
-          <cell r="V17">
-            <v>100</v>
-          </cell>
-          <cell r="W17">
-            <v>5</v>
-          </cell>
-          <cell r="X17">
-            <v>6.067</v>
-          </cell>
-          <cell r="Y17">
-            <v>1.2134</v>
-          </cell>
-          <cell r="Z17">
-            <v>6054.7196</v>
-          </cell>
-          <cell r="AA17">
-            <v>64.29</v>
-          </cell>
-          <cell r="AB17">
-            <v>60.28</v>
-          </cell>
-          <cell r="AC17">
-            <v>0.0972568578553616</v>
-          </cell>
-          <cell r="AD17">
-            <v>-380.409</v>
-          </cell>
-          <cell r="AE17">
-            <v>64.3</v>
-          </cell>
-          <cell r="AF17">
-            <v>60.67</v>
+            <v>-379.31694</v>
           </cell>
         </row>
         <row r="18">
@@ -2515,64 +2136,34 @@
             <v>1706.03402</v>
           </cell>
           <cell r="K18">
-            <v>17.5</v>
+            <v>15.5</v>
           </cell>
           <cell r="L18">
-            <v>16.48</v>
+            <v>0</v>
           </cell>
           <cell r="M18">
-            <v>18.44</v>
+            <v>44558</v>
           </cell>
           <cell r="N18">
-            <v>14.86</v>
+            <v>15.65</v>
           </cell>
           <cell r="O18">
-            <v>3.58</v>
+            <v>100</v>
           </cell>
           <cell r="P18">
-            <v>85.91</v>
+            <v>5</v>
           </cell>
           <cell r="Q18">
-            <v>0.480392156862744</v>
+            <v>1.565</v>
           </cell>
           <cell r="R18">
-            <v>15.5</v>
+            <v>0.0313</v>
           </cell>
           <cell r="S18">
-            <v>0</v>
+            <v>1558.4037</v>
           </cell>
           <cell r="T18">
-            <v>44558</v>
-          </cell>
-          <cell r="U18">
-            <v>15.65</v>
-          </cell>
-          <cell r="V18">
-            <v>100</v>
-          </cell>
-          <cell r="W18">
-            <v>5</v>
-          </cell>
-          <cell r="X18">
-            <v>1.565</v>
-          </cell>
-          <cell r="Y18">
-            <v>0.313</v>
-          </cell>
-          <cell r="Z18">
-            <v>1558.122</v>
-          </cell>
-          <cell r="AA18">
-            <v>15.69</v>
-          </cell>
-          <cell r="AB18">
-            <v>15.05</v>
-          </cell>
-          <cell r="AC18">
-            <v>0.937500000000001</v>
-          </cell>
-          <cell r="AD18">
-            <v>-147.91202</v>
+            <v>-147.63032</v>
           </cell>
         </row>
         <row r="19">
@@ -2607,64 +2198,34 @@
             <v>3443.06876</v>
           </cell>
           <cell r="K19">
-            <v>17.5</v>
+            <v>15.5</v>
           </cell>
           <cell r="L19">
-            <v>16.48</v>
+            <v>0</v>
           </cell>
           <cell r="M19">
-            <v>18.44</v>
+            <v>44558</v>
           </cell>
           <cell r="N19">
-            <v>14.86</v>
+            <v>15.65</v>
           </cell>
           <cell r="O19">
-            <v>3.58</v>
+            <v>200</v>
           </cell>
           <cell r="P19">
-            <v>85.91</v>
+            <v>5</v>
           </cell>
           <cell r="Q19">
-            <v>0.30392156862745</v>
+            <v>3.13</v>
           </cell>
           <cell r="R19">
-            <v>15.5</v>
+            <v>0.0626</v>
           </cell>
           <cell r="S19">
-            <v>0</v>
+            <v>3121.8074</v>
           </cell>
           <cell r="T19">
-            <v>44558</v>
-          </cell>
-          <cell r="U19">
-            <v>15.65</v>
-          </cell>
-          <cell r="V19">
-            <v>200</v>
-          </cell>
-          <cell r="W19">
-            <v>5</v>
-          </cell>
-          <cell r="X19">
-            <v>3.13</v>
-          </cell>
-          <cell r="Y19">
-            <v>0.626</v>
-          </cell>
-          <cell r="Z19">
-            <v>3121.244</v>
-          </cell>
-          <cell r="AA19">
-            <v>15.69</v>
-          </cell>
-          <cell r="AB19">
-            <v>15.05</v>
-          </cell>
-          <cell r="AC19">
-            <v>0.937500000000001</v>
-          </cell>
-          <cell r="AD19">
-            <v>-321.82476</v>
+            <v>-321.261360000001</v>
           </cell>
         </row>
         <row r="20">
@@ -2699,46 +2260,34 @@
             <v>6480.1295</v>
           </cell>
           <cell r="K20">
-            <v>65.9</v>
+            <v>59.29</v>
           </cell>
           <cell r="L20">
-            <v>60.17</v>
+            <v>0</v>
           </cell>
           <cell r="M20">
-            <v>67.42</v>
+            <v>44559</v>
           </cell>
           <cell r="N20">
-            <v>46.04</v>
+            <v>67.9</v>
           </cell>
           <cell r="O20">
-            <v>21.38</v>
+            <v>100</v>
           </cell>
           <cell r="P20">
-            <v>35.75</v>
+            <v>5</v>
           </cell>
           <cell r="Q20">
-            <v>0.200698080279233</v>
+            <v>6.79</v>
           </cell>
           <cell r="R20">
-            <v>59.29</v>
+            <v>0.1358</v>
           </cell>
           <cell r="S20">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="X20">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="Z20">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="AC20" t="e">
-            <v>#DIV/0!</v>
+            <v>6778.0742</v>
+          </cell>
+          <cell r="T20">
+            <v>297.944700000001</v>
           </cell>
         </row>
         <row r="21">
@@ -2773,70 +2322,34 @@
             <v>2788</v>
           </cell>
           <cell r="K21">
-            <v>28.87</v>
+            <v>26</v>
           </cell>
           <cell r="L21">
-            <v>26.48</v>
+            <v>0</v>
           </cell>
           <cell r="M21">
-            <v>28.31</v>
+            <v>44553</v>
           </cell>
           <cell r="N21">
-            <v>22.8</v>
+            <v>26.02</v>
           </cell>
           <cell r="O21">
-            <v>5.51</v>
+            <v>100</v>
           </cell>
           <cell r="P21">
-            <v>16.09</v>
+            <v>5</v>
           </cell>
           <cell r="Q21">
-            <v>0.435146443514645</v>
+            <v>2.602</v>
           </cell>
           <cell r="R21">
-            <v>26</v>
+            <v>0</v>
           </cell>
           <cell r="S21">
-            <v>0</v>
+            <v>2594.398</v>
           </cell>
           <cell r="T21">
-            <v>44553</v>
-          </cell>
-          <cell r="U21">
-            <v>26.02</v>
-          </cell>
-          <cell r="V21">
-            <v>100</v>
-          </cell>
-          <cell r="W21">
-            <v>5</v>
-          </cell>
-          <cell r="X21">
-            <v>2.602</v>
-          </cell>
-          <cell r="Y21">
-            <v>0</v>
-          </cell>
-          <cell r="Z21">
-            <v>2594.398</v>
-          </cell>
-          <cell r="AA21">
-            <v>26.77</v>
-          </cell>
-          <cell r="AB21">
-            <v>25.9</v>
-          </cell>
-          <cell r="AC21">
-            <v>0.13793103448276</v>
-          </cell>
-          <cell r="AD21">
             <v>-193.602</v>
-          </cell>
-          <cell r="AE21">
-            <v>27.83</v>
-          </cell>
-          <cell r="AF21">
-            <v>26.02</v>
           </cell>
         </row>
         <row r="22">
@@ -2871,46 +2384,31 @@
             <v>3915.0782</v>
           </cell>
           <cell r="K22">
-            <v>41.2</v>
+            <v>35.6</v>
           </cell>
           <cell r="L22">
-            <v>38</v>
+            <v>0</v>
           </cell>
           <cell r="M22">
-            <v>42.71</v>
+            <v>44566</v>
           </cell>
           <cell r="N22">
-            <v>30.54</v>
+            <v>41.15</v>
           </cell>
           <cell r="O22">
-            <v>12.17</v>
+            <v>100</v>
           </cell>
           <cell r="P22">
-            <v>14.89</v>
+            <v>5</v>
           </cell>
           <cell r="Q22">
-            <v>0.65625</v>
+            <v>4.115</v>
           </cell>
           <cell r="R22">
-            <v>35.6</v>
+            <v>0.0823</v>
           </cell>
           <cell r="S22">
-            <v>360.0782</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="X22">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="Z22">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="AC22" t="e">
-            <v>#DIV/0!</v>
+            <v>4105.8027</v>
           </cell>
         </row>
         <row r="23">
@@ -2945,70 +2443,34 @@
             <v>7785.1556</v>
           </cell>
           <cell r="K23">
-            <v>38.95</v>
+            <v>37</v>
           </cell>
           <cell r="L23">
-            <v>37.47</v>
+            <v>0</v>
           </cell>
           <cell r="M23">
-            <v>40.39</v>
+            <v>44554</v>
           </cell>
           <cell r="N23">
-            <v>32.08</v>
+            <v>43.97</v>
           </cell>
           <cell r="O23">
-            <v>8.31</v>
+            <v>200</v>
           </cell>
           <cell r="P23">
-            <v>41.56</v>
+            <v>5</v>
           </cell>
           <cell r="Q23">
-            <v>0.0337837837837866</v>
+            <v>8.794</v>
           </cell>
           <cell r="R23">
-            <v>37</v>
+            <v>0.17588</v>
           </cell>
           <cell r="S23">
-            <v>0</v>
+            <v>8780.03012</v>
           </cell>
           <cell r="T23">
-            <v>44554</v>
-          </cell>
-          <cell r="U23">
-            <v>43.97</v>
-          </cell>
-          <cell r="V23">
-            <v>200</v>
-          </cell>
-          <cell r="W23">
-            <v>5</v>
-          </cell>
-          <cell r="X23">
-            <v>8.794</v>
-          </cell>
-          <cell r="Y23">
-            <v>1.7588</v>
-          </cell>
-          <cell r="Z23">
-            <v>8778.4472</v>
-          </cell>
-          <cell r="AA23">
-            <v>45.9</v>
-          </cell>
-          <cell r="AB23">
-            <v>42.77</v>
-          </cell>
-          <cell r="AC23">
-            <v>0.383386581469648</v>
-          </cell>
-          <cell r="AD23">
-            <v>993.2916</v>
-          </cell>
-          <cell r="AE23">
-            <v>38.9</v>
-          </cell>
-          <cell r="AF23">
-            <v>43.97</v>
+            <v>994.874519999999</v>
           </cell>
         </row>
         <row r="24">
@@ -3043,195 +2505,165 @@
             <v>18521</v>
           </cell>
           <cell r="K24">
-            <v>65.65</v>
+            <v>59.3</v>
           </cell>
           <cell r="L24">
-            <v>60.7</v>
+            <v>0</v>
           </cell>
           <cell r="M24">
-            <v>65.61</v>
+            <v>44565</v>
           </cell>
           <cell r="N24">
-            <v>51.84</v>
+            <v>59.5</v>
           </cell>
           <cell r="O24">
-            <v>13.77</v>
+            <v>200</v>
           </cell>
           <cell r="P24">
-            <v>35.28</v>
+            <v>5</v>
           </cell>
           <cell r="Q24">
-            <v>0.793939393939395</v>
+            <v>11.9</v>
           </cell>
           <cell r="R24">
-            <v>59.3</v>
+            <v>0</v>
           </cell>
           <cell r="S24">
-            <v>736</v>
+            <v>11883.1</v>
+          </cell>
+          <cell r="T24">
+            <v>-718.830000000002</v>
           </cell>
         </row>
         <row r="25">
-          <cell r="A25" t="str">
+          <cell r="L25">
+            <v>0</v>
+          </cell>
+          <cell r="M25">
+            <v>44565</v>
+          </cell>
+          <cell r="N25">
+            <v>59.3</v>
+          </cell>
+          <cell r="O25">
+            <v>100</v>
+          </cell>
+          <cell r="P25">
+            <v>5</v>
+          </cell>
+          <cell r="Q25">
+            <v>5.93</v>
+          </cell>
+          <cell r="R25">
+            <v>0</v>
+          </cell>
+          <cell r="S25">
+            <v>5919.07</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
             <v>JG_0000021</v>
           </cell>
-          <cell r="B25" t="str">
+          <cell r="B26" t="str">
             <v>JH_00031</v>
           </cell>
-          <cell r="C25">
+          <cell r="C26">
             <v>600587</v>
           </cell>
-          <cell r="D25" t="str">
+          <cell r="D26" t="str">
             <v>新华医疗</v>
           </cell>
-          <cell r="E25">
+          <cell r="E26">
             <v>44557</v>
           </cell>
-          <cell r="F25">
+          <cell r="F26">
             <v>29.57</v>
           </cell>
-          <cell r="G25">
+          <cell r="G26">
             <v>600</v>
           </cell>
-          <cell r="H25">
+          <cell r="H26">
             <v>5</v>
           </cell>
-          <cell r="I25">
+          <cell r="I26">
             <v>0.35484</v>
           </cell>
-          <cell r="J25">
+          <cell r="J26">
             <v>17747.35484</v>
           </cell>
-          <cell r="K25">
-            <v>31.37</v>
-          </cell>
-          <cell r="L25">
-            <v>29.1</v>
-          </cell>
-          <cell r="M25">
-            <v>31.85</v>
-          </cell>
-          <cell r="N25">
-            <v>23.34</v>
-          </cell>
-          <cell r="O25">
-            <v>8.51</v>
-          </cell>
-          <cell r="P25">
-            <v>25.83</v>
-          </cell>
-          <cell r="Q25">
-            <v>0.792951541850221</v>
-          </cell>
-          <cell r="R25">
+          <cell r="K26">
             <v>27.05</v>
           </cell>
-          <cell r="S25">
-            <v>766.35484</v>
-          </cell>
-          <cell r="T25">
+          <cell r="L26">
+            <v>0</v>
+          </cell>
+          <cell r="M26">
             <v>44558</v>
           </cell>
-          <cell r="U25">
+          <cell r="N26">
             <v>31.39</v>
           </cell>
-          <cell r="V25">
+          <cell r="O26">
             <v>300</v>
           </cell>
-          <cell r="W25">
+          <cell r="P26">
             <v>5</v>
           </cell>
-          <cell r="X25">
+          <cell r="Q26">
             <v>9.417</v>
           </cell>
-          <cell r="Y25">
-            <v>1.8834</v>
-          </cell>
-          <cell r="Z25">
-            <v>9400.6996</v>
-          </cell>
-          <cell r="AA25">
-            <v>31.59</v>
-          </cell>
-          <cell r="AB25">
-            <v>30.01</v>
-          </cell>
-          <cell r="AC25">
-            <v>0.873417721518988</v>
-          </cell>
-          <cell r="AD25">
-            <v>527.02218</v>
+          <cell r="R26">
+            <v>0.18834</v>
+          </cell>
+          <cell r="S26">
+            <v>9402.39466</v>
+          </cell>
+          <cell r="T26">
+            <v>362.144400000001</v>
           </cell>
         </row>
         <row r="27">
-          <cell r="A27" t="str">
-            <v>JG_0000022</v>
-          </cell>
-          <cell r="B27" t="str">
-            <v>JH_00038</v>
-          </cell>
-          <cell r="C27">
-            <v>603599</v>
-          </cell>
-          <cell r="D27" t="str">
-            <v>广信股份</v>
-          </cell>
-          <cell r="E27">
-            <v>44558</v>
-          </cell>
-          <cell r="F27">
-            <v>40.38</v>
-          </cell>
-          <cell r="G27">
-            <v>200</v>
-          </cell>
-          <cell r="H27">
+          <cell r="M27">
+            <v>44568</v>
+          </cell>
+          <cell r="N27">
+            <v>29.07</v>
+          </cell>
+          <cell r="O27">
+            <v>300</v>
+          </cell>
+          <cell r="P27">
             <v>5</v>
           </cell>
-          <cell r="I27">
-            <v>0.16152</v>
-          </cell>
-          <cell r="J27">
-            <v>8081.16152</v>
-          </cell>
-          <cell r="K27">
-            <v>41.06</v>
-          </cell>
-          <cell r="L27">
-            <v>38.43</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="P27">
-            <v>15.12</v>
-          </cell>
           <cell r="Q27">
-            <v>0.258555133079848</v>
+            <v>8.721</v>
           </cell>
           <cell r="R27">
-            <v>38</v>
+            <v>0.17442</v>
           </cell>
           <cell r="S27">
-            <v>486.161520000001</v>
+            <v>8707.10458</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28" t="str">
-            <v>JG_0000023</v>
+            <v>JG_0000022</v>
           </cell>
           <cell r="B28" t="str">
-            <v>JH_00026</v>
+            <v>JH_00038</v>
           </cell>
           <cell r="C28">
-            <v>603995</v>
+            <v>603599</v>
           </cell>
           <cell r="D28" t="str">
-            <v>甬金股份</v>
+            <v>广信股份</v>
           </cell>
           <cell r="E28">
             <v>44558</v>
           </cell>
           <cell r="F28">
-            <v>55.97</v>
+            <v>40.38</v>
           </cell>
           <cell r="G28">
             <v>200</v>
@@ -3240,30 +2672,548 @@
             <v>5</v>
           </cell>
           <cell r="I28">
+            <v>0.16152</v>
+          </cell>
+          <cell r="J28">
+            <v>8081.16152</v>
+          </cell>
+          <cell r="K28">
+            <v>38</v>
+          </cell>
+          <cell r="L28">
+            <v>0</v>
+          </cell>
+          <cell r="M28">
+            <v>44566</v>
+          </cell>
+          <cell r="N28">
+            <v>38.42</v>
+          </cell>
+          <cell r="O28">
+            <v>200</v>
+          </cell>
+          <cell r="P28">
+            <v>5</v>
+          </cell>
+          <cell r="Q28">
+            <v>7.684</v>
+          </cell>
+          <cell r="R28">
+            <v>0.15368</v>
+          </cell>
+          <cell r="S28">
+            <v>7671.16232</v>
+          </cell>
+          <cell r="T28">
+            <v>-409.999200000001</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>JG_0000023</v>
+          </cell>
+          <cell r="B29" t="str">
+            <v>JH_00026</v>
+          </cell>
+          <cell r="C29">
+            <v>603995</v>
+          </cell>
+          <cell r="D29" t="str">
+            <v>甬金股份</v>
+          </cell>
+          <cell r="E29">
+            <v>44558</v>
+          </cell>
+          <cell r="F29">
+            <v>55.97</v>
+          </cell>
+          <cell r="G29">
+            <v>200</v>
+          </cell>
+          <cell r="H29">
+            <v>5</v>
+          </cell>
+          <cell r="I29">
             <v>0.22388</v>
           </cell>
-          <cell r="J28">
+          <cell r="J29">
             <v>11199.22388</v>
           </cell>
-          <cell r="K28">
-            <v>59</v>
-          </cell>
-          <cell r="L28">
-            <v>54.81</v>
+          <cell r="K29">
+            <v>52</v>
+          </cell>
+          <cell r="L29">
+            <v>804.22388</v>
           </cell>
         </row>
-        <row r="28">
-          <cell r="P28">
-            <v>21.87</v>
-          </cell>
-          <cell r="Q28">
-            <v>0.723150357995227</v>
-          </cell>
-          <cell r="R28">
-            <v>52</v>
-          </cell>
-          <cell r="S28">
-            <v>804.22388</v>
+        <row r="29">
+          <cell r="Q29">
+            <v>0</v>
+          </cell>
+          <cell r="R29">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>JG_0000024</v>
+          </cell>
+          <cell r="B30" t="str">
+            <v>JH_00036</v>
+          </cell>
+          <cell r="C30">
+            <v>603279</v>
+          </cell>
+          <cell r="D30" t="str">
+            <v>景津环保</v>
+          </cell>
+          <cell r="E30">
+            <v>44559</v>
+          </cell>
+          <cell r="F30">
+            <v>45.46</v>
+          </cell>
+          <cell r="G30">
+            <v>200</v>
+          </cell>
+          <cell r="H30">
+            <v>5</v>
+          </cell>
+          <cell r="I30">
+            <v>0.18184</v>
+          </cell>
+          <cell r="J30">
+            <v>9097.18184</v>
+          </cell>
+          <cell r="K30">
+            <v>42.5</v>
+          </cell>
+          <cell r="L30">
+            <v>0</v>
+          </cell>
+          <cell r="M30">
+            <v>44561</v>
+          </cell>
+          <cell r="N30">
+            <v>46</v>
+          </cell>
+          <cell r="O30">
+            <v>200</v>
+          </cell>
+          <cell r="P30">
+            <v>5</v>
+          </cell>
+          <cell r="Q30">
+            <v>9.2</v>
+          </cell>
+          <cell r="R30">
+            <v>0.184</v>
+          </cell>
+          <cell r="S30">
+            <v>9185.616</v>
+          </cell>
+          <cell r="T30">
+            <v>88.4341600000007</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>JG_0000025</v>
+          </cell>
+          <cell r="B31" t="str">
+            <v>JH_00033</v>
+          </cell>
+          <cell r="C31" t="str">
+            <v>002929</v>
+          </cell>
+          <cell r="D31" t="str">
+            <v>润建股份</v>
+          </cell>
+          <cell r="E31">
+            <v>44560</v>
+          </cell>
+          <cell r="F31">
+            <v>38.66</v>
+          </cell>
+          <cell r="G31">
+            <v>200</v>
+          </cell>
+          <cell r="H31">
+            <v>5</v>
+          </cell>
+          <cell r="I31">
+            <v>0</v>
+          </cell>
+          <cell r="J31">
+            <v>7737</v>
+          </cell>
+          <cell r="K31">
+            <v>35.76</v>
+          </cell>
+          <cell r="L31">
+            <v>0</v>
+          </cell>
+          <cell r="M31">
+            <v>44561</v>
+          </cell>
+          <cell r="N31">
+            <v>36.35</v>
+          </cell>
+          <cell r="O31">
+            <v>200</v>
+          </cell>
+          <cell r="P31">
+            <v>5</v>
+          </cell>
+          <cell r="Q31">
+            <v>7.27</v>
+          </cell>
+          <cell r="R31">
+            <v>0</v>
+          </cell>
+          <cell r="S31">
+            <v>7257.73</v>
+          </cell>
+          <cell r="T31">
+            <v>-479.27</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>JG_0000026</v>
+          </cell>
+          <cell r="B32" t="str">
+            <v>JH_00029</v>
+          </cell>
+          <cell r="C32">
+            <v>601677</v>
+          </cell>
+          <cell r="D32" t="str">
+            <v>明泰铝业</v>
+          </cell>
+          <cell r="E32">
+            <v>44561</v>
+          </cell>
+          <cell r="F32">
+            <v>44.36</v>
+          </cell>
+          <cell r="G32">
+            <v>500</v>
+          </cell>
+          <cell r="H32">
+            <v>5</v>
+          </cell>
+          <cell r="I32">
+            <v>0.4436</v>
+          </cell>
+          <cell r="J32">
+            <v>22185.4436</v>
+          </cell>
+          <cell r="K32">
+            <v>41.81</v>
+          </cell>
+          <cell r="L32">
+            <v>0</v>
+          </cell>
+          <cell r="M32">
+            <v>44566</v>
+          </cell>
+          <cell r="N32">
+            <v>41.9</v>
+          </cell>
+          <cell r="O32">
+            <v>500</v>
+          </cell>
+          <cell r="P32">
+            <v>5</v>
+          </cell>
+          <cell r="Q32">
+            <v>20.95</v>
+          </cell>
+          <cell r="R32">
+            <v>0.419</v>
+          </cell>
+          <cell r="S32">
+            <v>20923.631</v>
+          </cell>
+          <cell r="T32">
+            <v>-1261.8126</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>JG_0000027</v>
+          </cell>
+          <cell r="B33" t="str">
+            <v>JH_00031</v>
+          </cell>
+          <cell r="C33">
+            <v>600587</v>
+          </cell>
+          <cell r="D33" t="str">
+            <v>新华医疗</v>
+          </cell>
+          <cell r="E33">
+            <v>44561</v>
+          </cell>
+          <cell r="F33">
+            <v>31.6</v>
+          </cell>
+          <cell r="G33">
+            <v>300</v>
+          </cell>
+          <cell r="H33">
+            <v>5</v>
+          </cell>
+          <cell r="I33">
+            <v>0.1896</v>
+          </cell>
+          <cell r="J33">
+            <v>9485.1896</v>
+          </cell>
+          <cell r="K33">
+            <v>29.05</v>
+          </cell>
+          <cell r="L33">
+            <v>0</v>
+          </cell>
+          <cell r="M33">
+            <v>44568</v>
+          </cell>
+          <cell r="N33">
+            <v>29.07</v>
+          </cell>
+          <cell r="O33">
+            <v>300</v>
+          </cell>
+          <cell r="P33">
+            <v>5</v>
+          </cell>
+          <cell r="Q33">
+            <v>8.721</v>
+          </cell>
+          <cell r="R33">
+            <v>0.17442</v>
+          </cell>
+          <cell r="S33">
+            <v>8707.10458</v>
+          </cell>
+          <cell r="T33">
+            <v>-778.085019999999</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>JG_0000028</v>
+          </cell>
+          <cell r="B34" t="str">
+            <v>JH_00026</v>
+          </cell>
+          <cell r="C34">
+            <v>603995</v>
+          </cell>
+          <cell r="D34" t="str">
+            <v>甬金股份</v>
+          </cell>
+          <cell r="E34">
+            <v>44561</v>
+          </cell>
+          <cell r="F34">
+            <v>58.83</v>
+          </cell>
+          <cell r="G34">
+            <v>100</v>
+          </cell>
+          <cell r="H34">
+            <v>5</v>
+          </cell>
+          <cell r="I34">
+            <v>0.11766</v>
+          </cell>
+          <cell r="J34">
+            <v>5888.11766</v>
+          </cell>
+          <cell r="K34">
+            <v>56.49</v>
+          </cell>
+          <cell r="L34">
+            <v>244.11766</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>JG_0000029</v>
+          </cell>
+          <cell r="B35" t="str">
+            <v>JH_00039</v>
+          </cell>
+          <cell r="C35">
+            <v>603217</v>
+          </cell>
+          <cell r="D35" t="str">
+            <v>元利科技</v>
+          </cell>
+          <cell r="E35">
+            <v>44561</v>
+          </cell>
+          <cell r="F35">
+            <v>50.81</v>
+          </cell>
+          <cell r="G35">
+            <v>100</v>
+          </cell>
+          <cell r="H35">
+            <v>5</v>
+          </cell>
+          <cell r="I35">
+            <v>0.10162</v>
+          </cell>
+          <cell r="J35">
+            <v>5086.10162</v>
+          </cell>
+          <cell r="K35">
+            <v>47.35</v>
+          </cell>
+          <cell r="L35">
+            <v>356.10162</v>
+          </cell>
+          <cell r="M35">
+            <v>44566</v>
+          </cell>
+          <cell r="N35">
+            <v>47.33</v>
+          </cell>
+          <cell r="O35">
+            <v>100</v>
+          </cell>
+          <cell r="P35">
+            <v>5</v>
+          </cell>
+          <cell r="Q35">
+            <v>4.733</v>
+          </cell>
+          <cell r="R35">
+            <v>0.09466</v>
+          </cell>
+          <cell r="S35">
+            <v>4723.17234</v>
+          </cell>
+          <cell r="T35">
+            <v>-362.92928</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>JG_0000030</v>
+          </cell>
+          <cell r="B36" t="str">
+            <v>JH_00039</v>
+          </cell>
+          <cell r="C36">
+            <v>603217</v>
+          </cell>
+          <cell r="D36" t="str">
+            <v>元利科技</v>
+          </cell>
+          <cell r="E36">
+            <v>44559</v>
+          </cell>
+          <cell r="F36">
+            <v>48.88</v>
+          </cell>
+          <cell r="G36">
+            <v>200</v>
+          </cell>
+          <cell r="H36">
+            <v>5</v>
+          </cell>
+          <cell r="I36">
+            <v>0.19552</v>
+          </cell>
+          <cell r="J36">
+            <v>9781.19552</v>
+          </cell>
+          <cell r="K36">
+            <v>45.1</v>
+          </cell>
+          <cell r="L36">
+            <v>766.19552</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>JG_0000031</v>
+          </cell>
+          <cell r="B37" t="str">
+            <v>JH_00045</v>
+          </cell>
+          <cell r="C37" t="str">
+            <v>002932</v>
+          </cell>
+          <cell r="D37" t="str">
+            <v>明德生物</v>
+          </cell>
+          <cell r="E37">
+            <v>44568</v>
+          </cell>
+          <cell r="F37">
+            <v>77.78</v>
+          </cell>
+          <cell r="G37">
+            <v>100</v>
+          </cell>
+          <cell r="H37">
+            <v>5</v>
+          </cell>
+          <cell r="I37">
+            <v>0</v>
+          </cell>
+          <cell r="J37">
+            <v>7783</v>
+          </cell>
+          <cell r="K37">
+            <v>73.28</v>
+          </cell>
+          <cell r="L37">
+            <v>460</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>JG_0000032</v>
+          </cell>
+          <cell r="B38" t="str">
+            <v>JH_00045</v>
+          </cell>
+          <cell r="C38" t="str">
+            <v>002933</v>
+          </cell>
+          <cell r="D38" t="str">
+            <v>明德生物</v>
+          </cell>
+          <cell r="E38">
+            <v>44572</v>
+          </cell>
+          <cell r="F38">
+            <v>92.88</v>
+          </cell>
+          <cell r="G38">
+            <v>200</v>
+          </cell>
+          <cell r="H38">
+            <v>5</v>
+          </cell>
+          <cell r="I38">
+            <v>0</v>
+          </cell>
+          <cell r="J38">
+            <v>18581</v>
+          </cell>
+          <cell r="K38">
+            <v>73.28</v>
+          </cell>
+          <cell r="L38">
+            <v>3930</v>
           </cell>
         </row>
       </sheetData>
@@ -3535,11 +3485,11 @@
   <dimension ref="A1:AN493"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="L6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="T6" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T21" sqref="T21"/>
+      <selection pane="bottomRight" activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
